--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이형준\Desktop\RentalEquip\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D4D831-7636-4579-9EF6-DBC6DBD127E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21633" windowHeight="11665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$38</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -291,15 +297,366 @@
     <t>형준</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>로그인관련</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/비밀번호 찾기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 물품을 대여하거나, 빌리기 위해 로그인해야 한다.
+로그인 페이지로 이동하여 로그인을 할 수 있으며, 계정이 없는 경우
+로그인을 하기 이전에 개인정보를 이용하여 회원가입을 할 수 있다.
+개인정보는 이름, 이메일, 주소, 휴대폰 번호이다.
+더 이상의 개인정보를 요구하지는 않지만 휴대전화 인증이 필수이다.
+추가적으로 사용할 닉네임, 아이디, 비밀번호를 입력해야한다.
+아이디는 숫자와 영어소문자만 가능하며, 비밀번호는 특수문자+영어+숫자를 포함하여 8~16자 사이이다.
+네이버, 카카오와 같은 SNS정보를 이용하여 회원가입을 할 수도 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 내 아이디/비밀번호 찾기 링크로 아이디/비밀번호 찾기 페이지로 이동한 후,
+가입 시 사용한 이메일을 입력하면 해당 이메일로 가입된 ID정보를 포함한 메세지가 전송된다.
+비밀번호를 찾고 싶은 경우, 이메일로 발송된 메시지 내 비밀번호 재설정 버튼을 눌러 비밀번호 재설정을 할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색창</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인페이지이동</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 이후 아이디, 비밀번호를 이용하여 로그인할 수 있으며,
+네이버, 카카오톡을 이용한 회원 가입을 한 경우, 일반 로그인은 불가능하다.
+ 로그인 페이지에서 네이버 또는 카카오톡으로 로그인하기 버튼을 통해 로그인해야 한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 별 컨텐츠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 상단 중앙에 검색창이 존재하며, 로그인을 하지 않아도 사용할 수 있다.
+검색창에 원하는 키워드를 입력하면, 제품 상세검색 페이지로 이동하며, 제품 상세검색 페이지에서는 추가적인 조건(대여 가능 기간, 카테고리, 가격대)을 사용하여 자세한 검색이 가능하다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지로 이동할 수 있는 링크가 상단 우측에 존재하며, 클릭 시 로그인 페이지로 이동한다.
+로그인 이후에 로그인 페이지로 이동할 수 있는 링크는 사라지며, 
+해당 자리에 마이페이지, 로그아웃 링크가 생성된다.
+로그아웃 클릭 시 로그인 이전의 메인화면으로 돌아가게 되며, 마이페이지 링크를 클릭 시 마이페이지로 이동한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 상단 좌측에 로고가 존재하며, 로고를 클릭 시 메인페이지로 이동한다.
+메인 화면이 아닌 경우에도 상단(로고, 검색창, 로그인페이지이동)은 계속 존재하며,
+로고를 클릭 시 어느 페이지에서나 메인 화면으로 이동할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션바</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사의 정보가 메인화면의 하단 Footer에 존재하며, 회사명, 사업자 등록번호, 회사에 연락할 수 있는 이메일 회사가 위치한 주소가 입력된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 이후 이용할 수 있으며, 회원가입 시 사용한 정보를 변경할 수 있다.
+변경할 수 있는 정보는 주소, 이메일, 이름, 휴대전화 번호이다.
+단, 휴대전화 번호를 변경할 시 변경된 번호로 인증을 받아야한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E머니 충전</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E머니 출금</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 후 남은 E머니 혹은 장비를 대여해주고 받은 E머니를 출금할 수 있으며, 출금신청 시 은행정보, 계좌번호, 예금주 정보를 입력하고, 휴대폰 인증을 통해 발송된 번호를 입력해야 한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E머니 충전/출금 내역확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E머니를 충전한 경우, 언제, 얼마를 충전했는지
+출금한 경우 언제, 얼마를 출금했는지 보여준다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션 바 바로 아래에 위치한다.
+캐러셀(사진형식, 움직이는 슬라이드)형식으로 관리자가 알리고 싶은 내용을 사용자에게 효율적으로 전달할 수 D10있으며, 내용은 이벤트, 공지사항 내용 일부를 사용할 수 있다.
+일정 시간 간격으로 슬라이드가 움직이며 캐러셀 좌, 우에 버튼을 두어 클릭 시 사용자가 기다리지 않고 다른 내용을 볼 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드컨텐츠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 컨텐츠 하단에 위치한다.
+카테고리 목록이 이미지와 함께 한 행에 나열되어 있고, 하단에 카테고리별 인기 상품 20개의 간략한 정보가 그리드 형식으로 로드되어 있다.
+현재 열람하고 있는 상품이 어떤 카테고리에 속하는지 알려주기 위해 카테고리가 선택되면 카테고리 명의 색이 빨강색으로 바뀐다.
+다른 카테고리를 클릭하면, 해당 카테고리 명의 색이 빨강으로 바뀌고 이전 카테고리 명은 다시 검정색으로 바뀌며, 하단에 인기 상품 20개가 새로 선택한 카테고리의 상품으로 바뀌게 된다.
+그리드 형식으로 로드된 상품을 클릭하면 해당 상품의 상세페이지로 이동한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세검색</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인메뉴의 검색기능을 통해 이동할 수도 있고, 네비게이션바의 카테고리를 클릭하여 이동할  수도 있고, 메인 화면의 카테고리별 컨텐츠의 상품을 누른 후 목록을 눌러 이동할 수도 있다.
+모든 카테고리, 빌려주는 물품인지 빌리려는 물품인지 상관 없이 모든 상품을 로드할 수도 있고, 셀렉트 메뉴로 카테고리를 지정하고 세부검색을 통해 더 자세한 검색 결과를 확인할 수도 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 관련</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지
+(계정정보 및 
+상품 거래 관련)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 구매 및 결제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 문의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여 장비 목록확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상품에 대한 문의 내용을 상품페이지에서 작성할 수 있다.
+판매자는 대여 장비 목록 페이지에서 장비 페이지로 이동 후 해당 문의에 대한 내용을 처리할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 후기</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 페이지 하단에서
+해당 상품을 이용한 구매자가 작성한 후기를 확인할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 혹은 이전에 내가 빌려준 혹은 빌린 장비를 리스트형식으로 확인 할 수 있으며, 셀렉트 메뉴를 통해 분류 또한 가능하다. 
+해당 리스트를 클릭 시, 빌려주었는지 또는 빌리는 장비인지 여부, 대여 기간, 금액, 보증금, 현재 장비의 상태( 대여 가능, 결제 완료, 배송 중, 대여 중, 반납 중, 반납 완료)를 확인 및 변경할 수 있다.
+결제 이후 해당 장비의 상태는 결제 완료가 되며, 빌려주는 사람(이하 판매자)은 해당 상품을 발송하기 전 상품의 상태를 사진 촬영 후 해당 페이지에 업로드한다. 이후 발송하고 발송완료 버튼을 눌러 상품 상태를 배송 중으로 변경한다.
+상품을 빌리는 사람(이하 구매자)은 상품을 받는 즉시 상품의 상태를 사진 촬영하여 해당 페이지에 업로드하며, 이상이 없을 시 대여를 수락하여 상품의 상태를 대여 중으로 변경한다.
+대여 기간이 종료되면, 구매자는 상품의 상태를 재촬영하여 업로드한 후 상품을 발송하여, 상품의 상태를 반납 중으로 변경한다.
+판매자는 반납된 상품을 확인하여 이상이 없을 시, 반납 확인하여 해당 상품을 반납 완료 상태로 변경한다.
+반납이 완료되면 보증금은 구매자에 의해 회수된다.
+구매자는 해당 상품에 대한 후기를 평점과 함께 작성할 수 있다.
+상품에 파손이 사용 중에 생긴 경우 구매자가 파손에 대한 책임을 지며, 배송 중에 파손된 경우 배송 중 파손보험에 따라 처리한다.
+다시 판매 준비가 된다면 판매자는 상품의 상태를 대여 가능으로 변경할 수 있고,
+추가로 해당 페이지에서 상품의 문의 내용을 확인하고 처리할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등록</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구매 혹은 판매하고자 하는 물품을 등록할 수 있고, 상세 내용에 상품에 대한 자세한 내용 혹은 빌리고자하는 상품의 상세 내용을 입력할 수 있다.
+구매를 위해 상품을 등록한 경우, 판매자는 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리로 이동, 공지사항, FAQ, 이용방법 확인 가능??</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리 관련</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 부여 및 쿠폰, 포인트 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 상품관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 컨텐츠 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이드 컨텐츠 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급(무슨 혜택이 있는지?) 쿠폰(쿠폰으로 할인받은 금액은 누가 부담하는지) 포인트(포인트 할인금액은 누가 부담하는지?)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 입력한 회원 정보 변경 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 등록한 상품(구매, 판매) 관리(삭제)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에 나타나는 슬라이드 컨텐츠 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리를 순서 수정할 수도 있고, 카테고리별로 나오는 상위 20개 아이템 수정가능.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 내용 변경 및 추가 삭제 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용에 관한 1:1 문의 내용 답변 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ내용 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자계정관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 권한 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정 추가, 삭제, 정보 변경</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 관리자 계정이 처리할 수 있는 정보 권한 설정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 계정 추가, 삭제, 정보 변경 가능</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 검색, 혹은 메인 페이지의 상품 링크를 통해 상품페이지로 이동하여 구매를 할 수 있다.
+해당 페이지에서 상품의 상세 내용, 대여 가능 기간, 빌리는 시간 당 금액을 확인하고, 원하는 기간을 입력하여 구매를 진행하여, 결제 페이지로 이동한다.
+결제 페이지에서 E머니를 통해 결제를 진행할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 서비스에서 모든 거래는 E머니로 이루어지며, E머니는 무통장입금을 통해 충전할 수 있다.
+충전 페이지에서 거래 은행을 설정한 후 다음을 누르면 해당 은행의 가상계좌가 발급되고, 해당 가상계좌에 입금 시 E머니가 충전된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -405,6 +762,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -432,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -791,11 +1168,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -902,9 +1316,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,13 +1379,52 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -995,61 +1445,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,32 +1734,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="87.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" customWidth="1"/>
+    <col min="4" max="4" width="87.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="24.09765625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:33" ht="15.8" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1326,24 +1794,24 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="19.5" customHeight="1">
+    <row r="2" spans="1:33" ht="19.55" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1363,22 +1831,22 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:33" ht="19.55" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="74"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1398,7 +1866,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="19.5" hidden="1" customHeight="1">
+    <row r="4" spans="1:33" ht="19.55" hidden="1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1472,7 +1940,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="19.5" customHeight="1">
+    <row r="6" spans="1:33" ht="19.55" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -1507,14 +1975,14 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:33" ht="27.8" customHeight="1">
+      <c r="A7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="68" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -1523,29 +1991,29 @@
       <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="67" t="s">
+      <c r="P7" s="71" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1566,13 +2034,13 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+    <row r="8" spans="1:33" ht="27.8" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="60"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="25">
         <v>43854</v>
       </c>
@@ -1588,11 +2056,11 @@
       <c r="K8" s="25">
         <v>43861</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1611,22 +2079,28 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="33" customHeight="1">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:33" ht="118.35" customHeight="1">
+      <c r="A9" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>63</v>
+      </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="37"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="38"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="5">
         <v>1</v>
       </c>
@@ -1654,20 +2128,24 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="33" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="36"/>
+    <row r="10" spans="1:33" ht="55.25" customHeight="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="38"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="5">
         <v>1</v>
       </c>
@@ -1695,18 +2173,22 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="33" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="39"/>
+    <row r="11" spans="1:33" ht="75.349999999999994" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="27"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="29"/>
       <c r="M11" s="13"/>
       <c r="N11" s="8">
@@ -1736,20 +2218,26 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="33" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="39"/>
+    <row r="12" spans="1:33" ht="58.6" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="27"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="8">
         <v>1</v>
       </c>
@@ -1777,20 +2265,24 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="33" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="39"/>
+    <row r="13" spans="1:33" ht="85.95" customHeight="1">
+      <c r="A13" s="77"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="37"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="40"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="8"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1812,29 +2304,27 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="33" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="39"/>
+    <row r="14" spans="1:33" ht="69.8" customHeight="1">
+      <c r="A14" s="77"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="37"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="M14" s="39"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1853,29 +2343,27 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="33" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="39"/>
+    <row r="15" spans="1:33" ht="69.8" customHeight="1">
+      <c r="A15" s="77"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="M15" s="39"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1894,28 +2382,32 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="33" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="39"/>
+    <row r="16" spans="1:33" ht="100.5" customHeight="1">
+      <c r="A16" s="77"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="29"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1935,28 +2427,32 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="33" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="39"/>
+    <row r="17" spans="1:33" ht="140.65" customHeight="1">
+      <c r="A17" s="77"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="37"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="8"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1976,28 +2472,32 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="33" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="39"/>
+    <row r="18" spans="1:33" ht="70.349999999999994" customHeight="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="54"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="37"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="29"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8">
         <v>1</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2017,28 +2517,34 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="33" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="39"/>
+    <row r="19" spans="1:33" ht="66.45" customHeight="1">
+      <c r="A19" s="77"/>
+      <c r="B19" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="54"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="37"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="29"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8">
         <v>2</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2058,28 +2564,32 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="33" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="41"/>
+    <row r="20" spans="1:33" ht="48.6" customHeight="1">
+      <c r="A20" s="77"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>126</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="29"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2099,28 +2609,32 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="33" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="16"/>
+    <row r="21" spans="1:33" ht="65.900000000000006" customHeight="1">
+      <c r="A21" s="77"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="37"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="43"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2140,25 +2654,33 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="33" customHeight="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+    <row r="22" spans="1:33" ht="51.95" customHeight="1">
+      <c r="A22" s="77"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="29"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8">
-        <v>3</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2177,28 +2699,32 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="33" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
+    <row r="23" spans="1:33" ht="271.25" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="13"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="42"/>
       <c r="N23" s="8">
         <v>1</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>42</v>
+      <c r="O23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2218,29 +2744,31 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="33" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="44"/>
+    <row r="24" spans="1:33" ht="89.3" customHeight="1">
+      <c r="A24" s="77"/>
+      <c r="B24" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="30"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8">
-        <v>2</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2259,28 +2787,32 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="33" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="39"/>
+    <row r="25" spans="1:33" ht="107.2" customHeight="1">
+      <c r="A25" s="77"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>125</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="37"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="30"/>
       <c r="M25" s="13"/>
       <c r="N25" s="8">
         <v>1</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2300,28 +2832,32 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="33" customHeight="1" thickBot="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="32"/>
+    <row r="26" spans="1:33" ht="54.7" customHeight="1">
+      <c r="A26" s="77"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="8">
         <v>2</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>47</v>
+      <c r="O26" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2341,29 +2877,33 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="33" customHeight="1" thickTop="1">
-      <c r="A27" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
+    <row r="27" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="13"/>
       <c r="N27" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2382,27 +2922,27 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="33" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="8">
-        <v>3</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" s="8"/>
+    <row r="28" spans="1:33" ht="89.9" customHeight="1">
+      <c r="A28" s="77"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2421,27 +2961,23 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="33" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="8">
-        <v>3</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="3"/>
+    <row r="29" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A29" s="77"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2460,27 +2996,23 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="33" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="8">
-        <v>3</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" s="3"/>
+    <row r="30" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A30" s="77"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -2499,25 +3031,23 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="33" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+    <row r="31" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A31" s="77"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="8">
-        <v>3</v>
-      </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2536,23 +3066,23 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="33" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
+    <row r="32" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A32" s="77"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2571,23 +3101,29 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="33" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
+    <row r="33" spans="1:33" ht="33.1" customHeight="1" thickBot="1">
+      <c r="A33" s="78"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="8">
+        <v>2</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2606,23 +3142,35 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="33" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+    <row r="34" spans="1:33" ht="45.25" customHeight="1" thickTop="1">
+      <c r="A34" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="8">
+        <v>3</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="5"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2641,23 +3189,31 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="33" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
+    <row r="35" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A35" s="74"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="8">
+        <v>3</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="8"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2676,23 +3232,31 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="33" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+    <row r="36" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A36" s="74"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="8">
+        <v>3</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="3"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2711,23 +3275,33 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="33" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+    <row r="37" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A37" s="74"/>
+      <c r="B37" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="8">
+        <v>3</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="3"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2746,17 +3320,29 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+    <row r="38" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A38" s="74"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="8">
+        <v>3</v>
+      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -2775,17 +3361,29 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+    <row r="39" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A39" s="74"/>
+      <c r="B39" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -2804,20 +3402,27 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+    <row r="40" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A40" s="74"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -2836,23 +3441,27 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+    <row r="41" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A41" s="74"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -2871,21 +3480,29 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+    <row r="42" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A42" s="74"/>
+      <c r="B42" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -2904,22 +3521,24 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="1"/>
+    <row r="43" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A43" s="74"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="21"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2941,22 +3560,20 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="1"/>
+    <row r="44" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A44" s="75"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2978,22 +3595,14 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
+    <row r="45" spans="1:33" ht="15.8" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -3015,22 +3624,14 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1">
+    <row r="46" spans="1:33" ht="15.8" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="M46" s="2"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -3052,7 +3653,7 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1">
+    <row r="47" spans="1:33" ht="15.8" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -3062,11 +3663,6 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="2"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -3089,7 +3685,7 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1">
+    <row r="48" spans="1:33" ht="15.8" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -3124,7 +3720,7 @@
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1">
+    <row r="49" spans="1:33" ht="15.8" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -3134,9 +3730,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="14"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3159,7 +3753,7 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
     </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1">
+    <row r="50" spans="1:33" ht="15.8" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -3169,9 +3763,11 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -3194,7 +3790,7 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1">
+    <row r="51" spans="1:33" ht="15.8" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -3204,9 +3800,11 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="2"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -3229,7 +3827,7 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
     </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1">
+    <row r="52" spans="1:33" ht="15.8" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -3239,9 +3837,11 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -3264,7 +3864,7 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
     </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1">
+    <row r="53" spans="1:33" ht="15.8" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -3274,9 +3874,11 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="2"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -3299,7 +3901,7 @@
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
     </row>
-    <row r="54" spans="1:33" ht="15.75" customHeight="1">
+    <row r="54" spans="1:33" ht="15.8" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -3309,9 +3911,11 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="2"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3334,7 +3938,7 @@
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
     </row>
-    <row r="55" spans="1:33" ht="15.75" customHeight="1">
+    <row r="55" spans="1:33" ht="15.8" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -3369,7 +3973,7 @@
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
     </row>
-    <row r="56" spans="1:33" ht="15.75" customHeight="1">
+    <row r="56" spans="1:33" ht="15.8" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -3404,7 +4008,7 @@
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
     </row>
-    <row r="57" spans="1:33" ht="15.75" customHeight="1">
+    <row r="57" spans="1:33" ht="15.8" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -3439,7 +4043,7 @@
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
     </row>
-    <row r="58" spans="1:33" ht="15.75" customHeight="1">
+    <row r="58" spans="1:33" ht="15.8" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -3474,7 +4078,7 @@
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
     </row>
-    <row r="59" spans="1:33" ht="15.75" customHeight="1">
+    <row r="59" spans="1:33" ht="15.8" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -3509,7 +4113,7 @@
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1">
+    <row r="60" spans="1:33" ht="15.8" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -3544,7 +4148,7 @@
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
     </row>
-    <row r="61" spans="1:33" ht="15.75" customHeight="1">
+    <row r="61" spans="1:33" ht="15.8" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -3579,7 +4183,7 @@
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
     </row>
-    <row r="62" spans="1:33" ht="15.75" customHeight="1">
+    <row r="62" spans="1:33" ht="15.8" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -3614,7 +4218,7 @@
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
     </row>
-    <row r="63" spans="1:33" ht="15.75" customHeight="1">
+    <row r="63" spans="1:33" ht="15.8" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -3649,7 +4253,7 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
     </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1">
+    <row r="64" spans="1:33" ht="15.8" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -3684,7 +4288,7 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1">
+    <row r="65" spans="1:33" ht="15.8" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -3719,7 +4323,7 @@
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
     </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1">
+    <row r="66" spans="1:33" ht="15.8" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -3754,7 +4358,7 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
     </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1">
+    <row r="67" spans="1:33" ht="15.8" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -3789,7 +4393,7 @@
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
     </row>
-    <row r="68" spans="1:33" ht="15.75" customHeight="1">
+    <row r="68" spans="1:33" ht="15.8" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -3824,7 +4428,7 @@
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
     </row>
-    <row r="69" spans="1:33" ht="15.75" customHeight="1">
+    <row r="69" spans="1:33" ht="15.8" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -3859,7 +4463,7 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
     </row>
-    <row r="70" spans="1:33" ht="15.75" customHeight="1">
+    <row r="70" spans="1:33" ht="15.8" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -3894,7 +4498,7 @@
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
     </row>
-    <row r="71" spans="1:33" ht="15.75" customHeight="1">
+    <row r="71" spans="1:33" ht="15.8" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -3929,7 +4533,7 @@
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
     </row>
-    <row r="72" spans="1:33" ht="15.75" customHeight="1">
+    <row r="72" spans="1:33" ht="15.8" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -3964,7 +4568,7 @@
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
     </row>
-    <row r="73" spans="1:33" ht="15.75" customHeight="1">
+    <row r="73" spans="1:33" ht="15.8" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -3999,7 +4603,7 @@
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
     </row>
-    <row r="74" spans="1:33" ht="15.75" customHeight="1">
+    <row r="74" spans="1:33" ht="15.8" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -4034,7 +4638,7 @@
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
     </row>
-    <row r="75" spans="1:33" ht="15.75" customHeight="1">
+    <row r="75" spans="1:33" ht="15.8" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -4069,7 +4673,7 @@
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
     </row>
-    <row r="76" spans="1:33" ht="15.75" customHeight="1">
+    <row r="76" spans="1:33" ht="15.8" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -4104,7 +4708,7 @@
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
     </row>
-    <row r="77" spans="1:33" ht="15.75" customHeight="1">
+    <row r="77" spans="1:33" ht="15.8" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -4139,7 +4743,7 @@
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
     </row>
-    <row r="78" spans="1:33" ht="15.75" customHeight="1">
+    <row r="78" spans="1:33" ht="15.8" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -4174,7 +4778,7 @@
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
     </row>
-    <row r="79" spans="1:33" ht="15.75" customHeight="1">
+    <row r="79" spans="1:33" ht="15.8" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -4209,7 +4813,7 @@
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
     </row>
-    <row r="80" spans="1:33" ht="15.75" customHeight="1">
+    <row r="80" spans="1:33" ht="15.8" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -4244,7 +4848,7 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
     </row>
-    <row r="81" spans="1:33" ht="15.75" customHeight="1">
+    <row r="81" spans="1:33" ht="15.8" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -4279,7 +4883,7 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
     </row>
-    <row r="82" spans="1:33" ht="15.75" customHeight="1">
+    <row r="82" spans="1:33" ht="15.8" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -4314,7 +4918,7 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
     </row>
-    <row r="83" spans="1:33" ht="15.75" customHeight="1">
+    <row r="83" spans="1:33" ht="15.8" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -4349,7 +4953,7 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
     </row>
-    <row r="84" spans="1:33" ht="15.75" customHeight="1">
+    <row r="84" spans="1:33" ht="15.8" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -4384,7 +4988,7 @@
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
     </row>
-    <row r="85" spans="1:33" ht="15.75" customHeight="1">
+    <row r="85" spans="1:33" ht="15.8" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -4419,7 +5023,7 @@
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
     </row>
-    <row r="86" spans="1:33" ht="15.75" customHeight="1">
+    <row r="86" spans="1:33" ht="15.8" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -4454,7 +5058,7 @@
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
     </row>
-    <row r="87" spans="1:33" ht="15.75" customHeight="1">
+    <row r="87" spans="1:33" ht="15.8" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -4489,7 +5093,7 @@
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
     </row>
-    <row r="88" spans="1:33" ht="15.75" customHeight="1">
+    <row r="88" spans="1:33" ht="15.8" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -4524,7 +5128,7 @@
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
     </row>
-    <row r="89" spans="1:33" ht="15.75" customHeight="1">
+    <row r="89" spans="1:33" ht="15.8" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -4559,7 +5163,7 @@
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
     </row>
-    <row r="90" spans="1:33" ht="15.75" customHeight="1">
+    <row r="90" spans="1:33" ht="15.8" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -4594,7 +5198,7 @@
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
     </row>
-    <row r="91" spans="1:33" ht="15.75" customHeight="1">
+    <row r="91" spans="1:33" ht="15.8" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -4629,7 +5233,7 @@
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
     </row>
-    <row r="92" spans="1:33" ht="15.75" customHeight="1">
+    <row r="92" spans="1:33" ht="15.8" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -4664,7 +5268,7 @@
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
     </row>
-    <row r="93" spans="1:33" ht="15.75" customHeight="1">
+    <row r="93" spans="1:33" ht="15.8" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -4699,7 +5303,7 @@
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
     </row>
-    <row r="94" spans="1:33" ht="15.75" customHeight="1">
+    <row r="94" spans="1:33" ht="15.8" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -4734,7 +5338,7 @@
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
     </row>
-    <row r="95" spans="1:33" ht="15.75" customHeight="1">
+    <row r="95" spans="1:33" ht="15.8" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4769,7 +5373,7 @@
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
     </row>
-    <row r="96" spans="1:33" ht="15.75" customHeight="1">
+    <row r="96" spans="1:33" ht="15.8" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -4804,7 +5408,7 @@
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
     </row>
-    <row r="97" spans="1:33" ht="15.75" customHeight="1">
+    <row r="97" spans="1:33" ht="15.8" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -4839,7 +5443,7 @@
       <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
     </row>
-    <row r="98" spans="1:33" ht="15.75" customHeight="1">
+    <row r="98" spans="1:33" ht="15.8" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -4874,7 +5478,7 @@
       <c r="AF98" s="1"/>
       <c r="AG98" s="1"/>
     </row>
-    <row r="99" spans="1:33" ht="15.75" customHeight="1">
+    <row r="99" spans="1:33" ht="15.8" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -4909,7 +5513,7 @@
       <c r="AF99" s="1"/>
       <c r="AG99" s="1"/>
     </row>
-    <row r="100" spans="1:33" ht="15.75" customHeight="1">
+    <row r="100" spans="1:33" ht="15.8" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -4944,7 +5548,7 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
     </row>
-    <row r="101" spans="1:33" ht="15.75" customHeight="1">
+    <row r="101" spans="1:33" ht="15.8" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4979,7 +5583,7 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
     </row>
-    <row r="102" spans="1:33" ht="15.75" customHeight="1">
+    <row r="102" spans="1:33" ht="15.8" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -5014,7 +5618,7 @@
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
     </row>
-    <row r="103" spans="1:33" ht="15.75" customHeight="1">
+    <row r="103" spans="1:33" ht="15.8" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -5049,7 +5653,7 @@
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
     </row>
-    <row r="104" spans="1:33" ht="15.75" customHeight="1">
+    <row r="104" spans="1:33" ht="15.8" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -5084,7 +5688,7 @@
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
     </row>
-    <row r="105" spans="1:33" ht="15.75" customHeight="1">
+    <row r="105" spans="1:33" ht="15.8" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -5119,7 +5723,7 @@
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
     </row>
-    <row r="106" spans="1:33" ht="15.75" customHeight="1">
+    <row r="106" spans="1:33" ht="15.8" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -5154,7 +5758,7 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
     </row>
-    <row r="107" spans="1:33" ht="15.75" customHeight="1">
+    <row r="107" spans="1:33" ht="15.8" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -5189,7 +5793,7 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
     </row>
-    <row r="108" spans="1:33" ht="15.75" customHeight="1">
+    <row r="108" spans="1:33" ht="15.8" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -5224,7 +5828,7 @@
       <c r="AF108" s="1"/>
       <c r="AG108" s="1"/>
     </row>
-    <row r="109" spans="1:33" ht="15.75" customHeight="1">
+    <row r="109" spans="1:33" ht="15.8" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -5259,7 +5863,7 @@
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
     </row>
-    <row r="110" spans="1:33" ht="15.75" customHeight="1">
+    <row r="110" spans="1:33" ht="15.8" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -5294,7 +5898,7 @@
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
     </row>
-    <row r="111" spans="1:33" ht="15.75" customHeight="1">
+    <row r="111" spans="1:33" ht="15.8" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -5329,7 +5933,7 @@
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
     </row>
-    <row r="112" spans="1:33" ht="15.75" customHeight="1">
+    <row r="112" spans="1:33" ht="15.8" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -5364,7 +5968,7 @@
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
     </row>
-    <row r="113" spans="1:33" ht="15.75" customHeight="1">
+    <row r="113" spans="1:33" ht="15.8" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -5399,7 +6003,7 @@
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
     </row>
-    <row r="114" spans="1:33" ht="15.75" customHeight="1">
+    <row r="114" spans="1:33" ht="15.8" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -5434,7 +6038,7 @@
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
     </row>
-    <row r="115" spans="1:33" ht="15.75" customHeight="1">
+    <row r="115" spans="1:33" ht="15.8" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -5469,7 +6073,7 @@
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
     </row>
-    <row r="116" spans="1:33" ht="15.75" customHeight="1">
+    <row r="116" spans="1:33" ht="15.8" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -5504,7 +6108,7 @@
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
     </row>
-    <row r="117" spans="1:33" ht="15.75" customHeight="1">
+    <row r="117" spans="1:33" ht="15.8" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -5539,7 +6143,7 @@
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
     </row>
-    <row r="118" spans="1:33" ht="15.75" customHeight="1">
+    <row r="118" spans="1:33" ht="15.8" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -5574,7 +6178,7 @@
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
     </row>
-    <row r="119" spans="1:33" ht="15.75" customHeight="1">
+    <row r="119" spans="1:33" ht="15.8" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -5609,7 +6213,7 @@
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
     </row>
-    <row r="120" spans="1:33" ht="15.75" customHeight="1">
+    <row r="120" spans="1:33" ht="15.8" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -5644,7 +6248,7 @@
       <c r="AF120" s="1"/>
       <c r="AG120" s="1"/>
     </row>
-    <row r="121" spans="1:33" ht="15.75" customHeight="1">
+    <row r="121" spans="1:33" ht="15.8" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -5679,7 +6283,7 @@
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
     </row>
-    <row r="122" spans="1:33" ht="15.75" customHeight="1">
+    <row r="122" spans="1:33" ht="15.8" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -5714,7 +6318,7 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
     </row>
-    <row r="123" spans="1:33" ht="15.75" customHeight="1">
+    <row r="123" spans="1:33" ht="15.8" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -5749,7 +6353,7 @@
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
     </row>
-    <row r="124" spans="1:33" ht="15.75" customHeight="1">
+    <row r="124" spans="1:33" ht="15.8" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -5784,7 +6388,7 @@
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
     </row>
-    <row r="125" spans="1:33" ht="15.75" customHeight="1">
+    <row r="125" spans="1:33" ht="15.8" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -5819,7 +6423,7 @@
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
     </row>
-    <row r="126" spans="1:33" ht="15.75" customHeight="1">
+    <row r="126" spans="1:33" ht="15.8" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -5854,7 +6458,7 @@
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
     </row>
-    <row r="127" spans="1:33" ht="15.75" customHeight="1">
+    <row r="127" spans="1:33" ht="15.8" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -5889,7 +6493,7 @@
       <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
     </row>
-    <row r="128" spans="1:33" ht="15.75" customHeight="1">
+    <row r="128" spans="1:33" ht="15.8" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -5924,7 +6528,7 @@
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
     </row>
-    <row r="129" spans="1:33" ht="15.75" customHeight="1">
+    <row r="129" spans="1:33" ht="15.8" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -5959,7 +6563,7 @@
       <c r="AF129" s="1"/>
       <c r="AG129" s="1"/>
     </row>
-    <row r="130" spans="1:33" ht="15.75" customHeight="1">
+    <row r="130" spans="1:33" ht="15.8" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -5994,7 +6598,7 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
     </row>
-    <row r="131" spans="1:33" ht="15.75" customHeight="1">
+    <row r="131" spans="1:33" ht="15.8" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -6029,7 +6633,7 @@
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
     </row>
-    <row r="132" spans="1:33" ht="15.75" customHeight="1">
+    <row r="132" spans="1:33" ht="15.8" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -6064,7 +6668,7 @@
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
     </row>
-    <row r="133" spans="1:33" ht="15.75" customHeight="1">
+    <row r="133" spans="1:33" ht="15.8" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -6099,7 +6703,7 @@
       <c r="AF133" s="1"/>
       <c r="AG133" s="1"/>
     </row>
-    <row r="134" spans="1:33" ht="15.75" customHeight="1">
+    <row r="134" spans="1:33" ht="15.8" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -6134,7 +6738,7 @@
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
     </row>
-    <row r="135" spans="1:33" ht="15.75" customHeight="1">
+    <row r="135" spans="1:33" ht="15.8" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -6169,7 +6773,7 @@
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
     </row>
-    <row r="136" spans="1:33" ht="15.75" customHeight="1">
+    <row r="136" spans="1:33" ht="15.8" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -6204,7 +6808,7 @@
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
     </row>
-    <row r="137" spans="1:33" ht="15.75" customHeight="1">
+    <row r="137" spans="1:33" ht="15.8" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -6239,7 +6843,7 @@
       <c r="AF137" s="1"/>
       <c r="AG137" s="1"/>
     </row>
-    <row r="138" spans="1:33" ht="15.75" customHeight="1">
+    <row r="138" spans="1:33" ht="15.8" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -6274,7 +6878,7 @@
       <c r="AF138" s="1"/>
       <c r="AG138" s="1"/>
     </row>
-    <row r="139" spans="1:33" ht="15.75" customHeight="1">
+    <row r="139" spans="1:33" ht="15.8" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -6309,7 +6913,7 @@
       <c r="AF139" s="1"/>
       <c r="AG139" s="1"/>
     </row>
-    <row r="140" spans="1:33" ht="15.75" customHeight="1">
+    <row r="140" spans="1:33" ht="15.8" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -6344,7 +6948,7 @@
       <c r="AF140" s="1"/>
       <c r="AG140" s="1"/>
     </row>
-    <row r="141" spans="1:33" ht="15.75" customHeight="1">
+    <row r="141" spans="1:33" ht="15.8" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -6379,7 +6983,7 @@
       <c r="AF141" s="1"/>
       <c r="AG141" s="1"/>
     </row>
-    <row r="142" spans="1:33" ht="15.75" customHeight="1">
+    <row r="142" spans="1:33" ht="15.8" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -6414,7 +7018,7 @@
       <c r="AF142" s="1"/>
       <c r="AG142" s="1"/>
     </row>
-    <row r="143" spans="1:33" ht="15.75" customHeight="1">
+    <row r="143" spans="1:33" ht="15.8" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -6449,7 +7053,7 @@
       <c r="AF143" s="1"/>
       <c r="AG143" s="1"/>
     </row>
-    <row r="144" spans="1:33" ht="15.75" customHeight="1">
+    <row r="144" spans="1:33" ht="15.8" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -6484,7 +7088,7 @@
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
     </row>
-    <row r="145" spans="1:33" ht="15.75" customHeight="1">
+    <row r="145" spans="1:33" ht="15.8" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -6519,7 +7123,7 @@
       <c r="AF145" s="1"/>
       <c r="AG145" s="1"/>
     </row>
-    <row r="146" spans="1:33" ht="15.75" customHeight="1">
+    <row r="146" spans="1:33" ht="15.8" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -6554,7 +7158,7 @@
       <c r="AF146" s="1"/>
       <c r="AG146" s="1"/>
     </row>
-    <row r="147" spans="1:33" ht="15.75" customHeight="1">
+    <row r="147" spans="1:33" ht="15.8" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -6589,7 +7193,7 @@
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
     </row>
-    <row r="148" spans="1:33" ht="15.75" customHeight="1">
+    <row r="148" spans="1:33" ht="15.8" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -6624,7 +7228,7 @@
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
     </row>
-    <row r="149" spans="1:33" ht="15.75" customHeight="1">
+    <row r="149" spans="1:33" ht="15.8" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -6659,7 +7263,7 @@
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
     </row>
-    <row r="150" spans="1:33" ht="15.75" customHeight="1">
+    <row r="150" spans="1:33" ht="15.8" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -6694,7 +7298,7 @@
       <c r="AF150" s="1"/>
       <c r="AG150" s="1"/>
     </row>
-    <row r="151" spans="1:33" ht="15.75" customHeight="1">
+    <row r="151" spans="1:33" ht="15.8" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -6729,7 +7333,7 @@
       <c r="AF151" s="1"/>
       <c r="AG151" s="1"/>
     </row>
-    <row r="152" spans="1:33" ht="15.75" customHeight="1">
+    <row r="152" spans="1:33" ht="15.8" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -6764,7 +7368,7 @@
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
     </row>
-    <row r="153" spans="1:33" ht="15.75" customHeight="1">
+    <row r="153" spans="1:33" ht="15.8" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -6799,7 +7403,7 @@
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
     </row>
-    <row r="154" spans="1:33" ht="15.75" customHeight="1">
+    <row r="154" spans="1:33" ht="15.8" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -6834,7 +7438,7 @@
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
     </row>
-    <row r="155" spans="1:33" ht="15.75" customHeight="1">
+    <row r="155" spans="1:33" ht="15.8" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -6869,7 +7473,7 @@
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
     </row>
-    <row r="156" spans="1:33" ht="15.75" customHeight="1">
+    <row r="156" spans="1:33" ht="15.8" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -6904,7 +7508,7 @@
       <c r="AF156" s="1"/>
       <c r="AG156" s="1"/>
     </row>
-    <row r="157" spans="1:33" ht="15.75" customHeight="1">
+    <row r="157" spans="1:33" ht="15.8" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -6939,7 +7543,7 @@
       <c r="AF157" s="1"/>
       <c r="AG157" s="1"/>
     </row>
-    <row r="158" spans="1:33" ht="15.75" customHeight="1">
+    <row r="158" spans="1:33" ht="15.8" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -6974,7 +7578,7 @@
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
     </row>
-    <row r="159" spans="1:33" ht="15.75" customHeight="1">
+    <row r="159" spans="1:33" ht="15.8" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -7009,7 +7613,7 @@
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
     </row>
-    <row r="160" spans="1:33" ht="15.75" customHeight="1">
+    <row r="160" spans="1:33" ht="15.8" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -7044,7 +7648,7 @@
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
     </row>
-    <row r="161" spans="1:33" ht="15.75" customHeight="1">
+    <row r="161" spans="1:33" ht="15.8" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -7079,7 +7683,7 @@
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
     </row>
-    <row r="162" spans="1:33" ht="15.75" customHeight="1">
+    <row r="162" spans="1:33" ht="15.8" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -7114,7 +7718,7 @@
       <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
     </row>
-    <row r="163" spans="1:33" ht="15.75" customHeight="1">
+    <row r="163" spans="1:33" ht="15.8" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -7149,7 +7753,7 @@
       <c r="AF163" s="1"/>
       <c r="AG163" s="1"/>
     </row>
-    <row r="164" spans="1:33" ht="15.75" customHeight="1">
+    <row r="164" spans="1:33" ht="15.8" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -7184,7 +7788,7 @@
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
     </row>
-    <row r="165" spans="1:33" ht="15.75" customHeight="1">
+    <row r="165" spans="1:33" ht="15.8" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -7219,7 +7823,7 @@
       <c r="AF165" s="1"/>
       <c r="AG165" s="1"/>
     </row>
-    <row r="166" spans="1:33" ht="15.75" customHeight="1">
+    <row r="166" spans="1:33" ht="15.8" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -7254,7 +7858,7 @@
       <c r="AF166" s="1"/>
       <c r="AG166" s="1"/>
     </row>
-    <row r="167" spans="1:33" ht="15.75" customHeight="1">
+    <row r="167" spans="1:33" ht="15.8" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -7289,7 +7893,7 @@
       <c r="AF167" s="1"/>
       <c r="AG167" s="1"/>
     </row>
-    <row r="168" spans="1:33" ht="15.75" customHeight="1">
+    <row r="168" spans="1:33" ht="15.8" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -7324,7 +7928,7 @@
       <c r="AF168" s="1"/>
       <c r="AG168" s="1"/>
     </row>
-    <row r="169" spans="1:33" ht="15.75" customHeight="1">
+    <row r="169" spans="1:33" ht="15.8" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -7359,7 +7963,7 @@
       <c r="AF169" s="1"/>
       <c r="AG169" s="1"/>
     </row>
-    <row r="170" spans="1:33" ht="15.75" customHeight="1">
+    <row r="170" spans="1:33" ht="15.8" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -7394,7 +7998,7 @@
       <c r="AF170" s="1"/>
       <c r="AG170" s="1"/>
     </row>
-    <row r="171" spans="1:33" ht="15.75" customHeight="1">
+    <row r="171" spans="1:33" ht="15.8" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -7429,7 +8033,7 @@
       <c r="AF171" s="1"/>
       <c r="AG171" s="1"/>
     </row>
-    <row r="172" spans="1:33" ht="15.75" customHeight="1">
+    <row r="172" spans="1:33" ht="15.8" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -7464,7 +8068,7 @@
       <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
     </row>
-    <row r="173" spans="1:33" ht="15.75" customHeight="1">
+    <row r="173" spans="1:33" ht="15.8" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -7499,7 +8103,7 @@
       <c r="AF173" s="1"/>
       <c r="AG173" s="1"/>
     </row>
-    <row r="174" spans="1:33" ht="15.75" customHeight="1">
+    <row r="174" spans="1:33" ht="15.8" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -7534,7 +8138,7 @@
       <c r="AF174" s="1"/>
       <c r="AG174" s="1"/>
     </row>
-    <row r="175" spans="1:33" ht="15.75" customHeight="1">
+    <row r="175" spans="1:33" ht="15.8" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -7569,7 +8173,7 @@
       <c r="AF175" s="1"/>
       <c r="AG175" s="1"/>
     </row>
-    <row r="176" spans="1:33" ht="15.75" customHeight="1">
+    <row r="176" spans="1:33" ht="15.8" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -7604,7 +8208,7 @@
       <c r="AF176" s="1"/>
       <c r="AG176" s="1"/>
     </row>
-    <row r="177" spans="1:33" ht="15.75" customHeight="1">
+    <row r="177" spans="1:33" ht="15.8" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -7639,7 +8243,7 @@
       <c r="AF177" s="1"/>
       <c r="AG177" s="1"/>
     </row>
-    <row r="178" spans="1:33" ht="15.75" customHeight="1">
+    <row r="178" spans="1:33" ht="15.8" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -7674,7 +8278,7 @@
       <c r="AF178" s="1"/>
       <c r="AG178" s="1"/>
     </row>
-    <row r="179" spans="1:33" ht="15.75" customHeight="1">
+    <row r="179" spans="1:33" ht="15.8" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -7709,7 +8313,7 @@
       <c r="AF179" s="1"/>
       <c r="AG179" s="1"/>
     </row>
-    <row r="180" spans="1:33" ht="15.75" customHeight="1">
+    <row r="180" spans="1:33" ht="15.8" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -7744,7 +8348,7 @@
       <c r="AF180" s="1"/>
       <c r="AG180" s="1"/>
     </row>
-    <row r="181" spans="1:33" ht="15.75" customHeight="1">
+    <row r="181" spans="1:33" ht="15.8" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -7779,7 +8383,7 @@
       <c r="AF181" s="1"/>
       <c r="AG181" s="1"/>
     </row>
-    <row r="182" spans="1:33" ht="15.75" customHeight="1">
+    <row r="182" spans="1:33" ht="15.8" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -7814,7 +8418,7 @@
       <c r="AF182" s="1"/>
       <c r="AG182" s="1"/>
     </row>
-    <row r="183" spans="1:33" ht="15.75" customHeight="1">
+    <row r="183" spans="1:33" ht="15.8" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -7849,7 +8453,7 @@
       <c r="AF183" s="1"/>
       <c r="AG183" s="1"/>
     </row>
-    <row r="184" spans="1:33" ht="15.75" customHeight="1">
+    <row r="184" spans="1:33" ht="15.8" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -7884,7 +8488,7 @@
       <c r="AF184" s="1"/>
       <c r="AG184" s="1"/>
     </row>
-    <row r="185" spans="1:33" ht="15.75" customHeight="1">
+    <row r="185" spans="1:33" ht="15.8" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -7919,7 +8523,7 @@
       <c r="AF185" s="1"/>
       <c r="AG185" s="1"/>
     </row>
-    <row r="186" spans="1:33" ht="15.75" customHeight="1">
+    <row r="186" spans="1:33" ht="15.8" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -7954,7 +8558,7 @@
       <c r="AF186" s="1"/>
       <c r="AG186" s="1"/>
     </row>
-    <row r="187" spans="1:33" ht="15.75" customHeight="1">
+    <row r="187" spans="1:33" ht="15.8" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -7989,7 +8593,7 @@
       <c r="AF187" s="1"/>
       <c r="AG187" s="1"/>
     </row>
-    <row r="188" spans="1:33" ht="15.75" customHeight="1">
+    <row r="188" spans="1:33" ht="15.8" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -8024,7 +8628,7 @@
       <c r="AF188" s="1"/>
       <c r="AG188" s="1"/>
     </row>
-    <row r="189" spans="1:33" ht="15.75" customHeight="1">
+    <row r="189" spans="1:33" ht="15.8" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -8059,7 +8663,7 @@
       <c r="AF189" s="1"/>
       <c r="AG189" s="1"/>
     </row>
-    <row r="190" spans="1:33" ht="15.75" customHeight="1">
+    <row r="190" spans="1:33" ht="15.8" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -8094,7 +8698,7 @@
       <c r="AF190" s="1"/>
       <c r="AG190" s="1"/>
     </row>
-    <row r="191" spans="1:33" ht="15.75" customHeight="1">
+    <row r="191" spans="1:33" ht="15.8" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -8129,7 +8733,7 @@
       <c r="AF191" s="1"/>
       <c r="AG191" s="1"/>
     </row>
-    <row r="192" spans="1:33" ht="15.75" customHeight="1">
+    <row r="192" spans="1:33" ht="15.8" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -8164,7 +8768,7 @@
       <c r="AF192" s="1"/>
       <c r="AG192" s="1"/>
     </row>
-    <row r="193" spans="1:33" ht="15.75" customHeight="1">
+    <row r="193" spans="1:33" ht="15.8" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -8199,7 +8803,7 @@
       <c r="AF193" s="1"/>
       <c r="AG193" s="1"/>
     </row>
-    <row r="194" spans="1:33" ht="15.75" customHeight="1">
+    <row r="194" spans="1:33" ht="15.8" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -8234,7 +8838,7 @@
       <c r="AF194" s="1"/>
       <c r="AG194" s="1"/>
     </row>
-    <row r="195" spans="1:33" ht="15.75" customHeight="1">
+    <row r="195" spans="1:33" ht="15.8" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -8269,7 +8873,7 @@
       <c r="AF195" s="1"/>
       <c r="AG195" s="1"/>
     </row>
-    <row r="196" spans="1:33" ht="15.75" customHeight="1">
+    <row r="196" spans="1:33" ht="15.8" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -8304,7 +8908,7 @@
       <c r="AF196" s="1"/>
       <c r="AG196" s="1"/>
     </row>
-    <row r="197" spans="1:33" ht="15.75" customHeight="1">
+    <row r="197" spans="1:33" ht="15.8" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -8339,7 +8943,7 @@
       <c r="AF197" s="1"/>
       <c r="AG197" s="1"/>
     </row>
-    <row r="198" spans="1:33" ht="15.75" customHeight="1">
+    <row r="198" spans="1:33" ht="15.8" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -8374,7 +8978,7 @@
       <c r="AF198" s="1"/>
       <c r="AG198" s="1"/>
     </row>
-    <row r="199" spans="1:33" ht="15.75" customHeight="1">
+    <row r="199" spans="1:33" ht="15.8" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -8409,7 +9013,7 @@
       <c r="AF199" s="1"/>
       <c r="AG199" s="1"/>
     </row>
-    <row r="200" spans="1:33" ht="15.75" customHeight="1">
+    <row r="200" spans="1:33" ht="15.8" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -8444,7 +9048,7 @@
       <c r="AF200" s="1"/>
       <c r="AG200" s="1"/>
     </row>
-    <row r="201" spans="1:33" ht="15.75" customHeight="1">
+    <row r="201" spans="1:33" ht="15.8" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -8479,7 +9083,7 @@
       <c r="AF201" s="1"/>
       <c r="AG201" s="1"/>
     </row>
-    <row r="202" spans="1:33" ht="15.75" customHeight="1">
+    <row r="202" spans="1:33" ht="15.8" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -8514,7 +9118,7 @@
       <c r="AF202" s="1"/>
       <c r="AG202" s="1"/>
     </row>
-    <row r="203" spans="1:33" ht="15.75" customHeight="1">
+    <row r="203" spans="1:33" ht="15.8" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -8549,7 +9153,7 @@
       <c r="AF203" s="1"/>
       <c r="AG203" s="1"/>
     </row>
-    <row r="204" spans="1:33" ht="15.75" customHeight="1">
+    <row r="204" spans="1:33" ht="15.8" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -8584,7 +9188,7 @@
       <c r="AF204" s="1"/>
       <c r="AG204" s="1"/>
     </row>
-    <row r="205" spans="1:33" ht="15.75" customHeight="1">
+    <row r="205" spans="1:33" ht="15.8" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -8619,7 +9223,7 @@
       <c r="AF205" s="1"/>
       <c r="AG205" s="1"/>
     </row>
-    <row r="206" spans="1:33" ht="15.75" customHeight="1">
+    <row r="206" spans="1:33" ht="15.8" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -8654,7 +9258,7 @@
       <c r="AF206" s="1"/>
       <c r="AG206" s="1"/>
     </row>
-    <row r="207" spans="1:33" ht="15.75" customHeight="1">
+    <row r="207" spans="1:33" ht="15.8" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -8689,7 +9293,7 @@
       <c r="AF207" s="1"/>
       <c r="AG207" s="1"/>
     </row>
-    <row r="208" spans="1:33" ht="15.75" customHeight="1">
+    <row r="208" spans="1:33" ht="15.8" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -8724,7 +9328,7 @@
       <c r="AF208" s="1"/>
       <c r="AG208" s="1"/>
     </row>
-    <row r="209" spans="1:33" ht="15.75" customHeight="1">
+    <row r="209" spans="1:33" ht="15.8" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -8759,7 +9363,7 @@
       <c r="AF209" s="1"/>
       <c r="AG209" s="1"/>
     </row>
-    <row r="210" spans="1:33" ht="15.75" customHeight="1">
+    <row r="210" spans="1:33" ht="15.8" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -8794,7 +9398,7 @@
       <c r="AF210" s="1"/>
       <c r="AG210" s="1"/>
     </row>
-    <row r="211" spans="1:33" ht="15.75" customHeight="1">
+    <row r="211" spans="1:33" ht="15.8" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -8829,7 +9433,7 @@
       <c r="AF211" s="1"/>
       <c r="AG211" s="1"/>
     </row>
-    <row r="212" spans="1:33" ht="15.75" customHeight="1">
+    <row r="212" spans="1:33" ht="15.8" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -8864,7 +9468,7 @@
       <c r="AF212" s="1"/>
       <c r="AG212" s="1"/>
     </row>
-    <row r="213" spans="1:33" ht="15.75" customHeight="1">
+    <row r="213" spans="1:33" ht="15.8" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -8899,7 +9503,7 @@
       <c r="AF213" s="1"/>
       <c r="AG213" s="1"/>
     </row>
-    <row r="214" spans="1:33" ht="15.75" customHeight="1">
+    <row r="214" spans="1:33" ht="15.8" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -8934,7 +9538,7 @@
       <c r="AF214" s="1"/>
       <c r="AG214" s="1"/>
     </row>
-    <row r="215" spans="1:33" ht="15.75" customHeight="1">
+    <row r="215" spans="1:33" ht="15.8" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -8969,7 +9573,7 @@
       <c r="AF215" s="1"/>
       <c r="AG215" s="1"/>
     </row>
-    <row r="216" spans="1:33" ht="15.75" customHeight="1">
+    <row r="216" spans="1:33" ht="15.8" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -9004,7 +9608,7 @@
       <c r="AF216" s="1"/>
       <c r="AG216" s="1"/>
     </row>
-    <row r="217" spans="1:33" ht="15.75" customHeight="1">
+    <row r="217" spans="1:33" ht="15.8" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -9039,7 +9643,7 @@
       <c r="AF217" s="1"/>
       <c r="AG217" s="1"/>
     </row>
-    <row r="218" spans="1:33" ht="15.75" customHeight="1">
+    <row r="218" spans="1:33" ht="15.8" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -9074,7 +9678,7 @@
       <c r="AF218" s="1"/>
       <c r="AG218" s="1"/>
     </row>
-    <row r="219" spans="1:33" ht="15.75" customHeight="1">
+    <row r="219" spans="1:33" ht="15.8" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -9109,7 +9713,7 @@
       <c r="AF219" s="1"/>
       <c r="AG219" s="1"/>
     </row>
-    <row r="220" spans="1:33" ht="15.75" customHeight="1">
+    <row r="220" spans="1:33" ht="15.8" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -9144,7 +9748,7 @@
       <c r="AF220" s="1"/>
       <c r="AG220" s="1"/>
     </row>
-    <row r="221" spans="1:33" ht="15.75" customHeight="1">
+    <row r="221" spans="1:33" ht="15.8" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -9179,7 +9783,7 @@
       <c r="AF221" s="1"/>
       <c r="AG221" s="1"/>
     </row>
-    <row r="222" spans="1:33" ht="15.75" customHeight="1">
+    <row r="222" spans="1:33" ht="15.8" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -9214,7 +9818,7 @@
       <c r="AF222" s="1"/>
       <c r="AG222" s="1"/>
     </row>
-    <row r="223" spans="1:33" ht="15.75" customHeight="1">
+    <row r="223" spans="1:33" ht="15.8" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -9249,7 +9853,7 @@
       <c r="AF223" s="1"/>
       <c r="AG223" s="1"/>
     </row>
-    <row r="224" spans="1:33" ht="15.75" customHeight="1">
+    <row r="224" spans="1:33" ht="15.8" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -9284,7 +9888,7 @@
       <c r="AF224" s="1"/>
       <c r="AG224" s="1"/>
     </row>
-    <row r="225" spans="1:33" ht="15.75" customHeight="1">
+    <row r="225" spans="1:33" ht="15.8" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -9319,7 +9923,7 @@
       <c r="AF225" s="1"/>
       <c r="AG225" s="1"/>
     </row>
-    <row r="226" spans="1:33" ht="15.75" customHeight="1">
+    <row r="226" spans="1:33" ht="15.8" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -9354,7 +9958,7 @@
       <c r="AF226" s="1"/>
       <c r="AG226" s="1"/>
     </row>
-    <row r="227" spans="1:33" ht="15.75" customHeight="1">
+    <row r="227" spans="1:33" ht="15.8" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -9389,7 +9993,7 @@
       <c r="AF227" s="1"/>
       <c r="AG227" s="1"/>
     </row>
-    <row r="228" spans="1:33" ht="15.75" customHeight="1">
+    <row r="228" spans="1:33" ht="15.8" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -9424,7 +10028,7 @@
       <c r="AF228" s="1"/>
       <c r="AG228" s="1"/>
     </row>
-    <row r="229" spans="1:33" ht="15.75" customHeight="1">
+    <row r="229" spans="1:33" ht="15.8" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -9459,7 +10063,7 @@
       <c r="AF229" s="1"/>
       <c r="AG229" s="1"/>
     </row>
-    <row r="230" spans="1:33" ht="15.75" customHeight="1">
+    <row r="230" spans="1:33" ht="15.8" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
@@ -9494,7 +10098,7 @@
       <c r="AF230" s="1"/>
       <c r="AG230" s="1"/>
     </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1">
+    <row r="231" spans="1:33" ht="15.8" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
@@ -9529,7 +10133,7 @@
       <c r="AF231" s="1"/>
       <c r="AG231" s="1"/>
     </row>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1">
+    <row r="232" spans="1:33" ht="15.8" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
@@ -9564,7 +10168,7 @@
       <c r="AF232" s="1"/>
       <c r="AG232" s="1"/>
     </row>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1">
+    <row r="233" spans="1:33" ht="15.8" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
@@ -9599,7 +10203,7 @@
       <c r="AF233" s="1"/>
       <c r="AG233" s="1"/>
     </row>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1">
+    <row r="234" spans="1:33" ht="15.8" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
@@ -9634,7 +10238,7 @@
       <c r="AF234" s="1"/>
       <c r="AG234" s="1"/>
     </row>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1">
+    <row r="235" spans="1:33" ht="15.8" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
@@ -9669,7 +10273,7 @@
       <c r="AF235" s="1"/>
       <c r="AG235" s="1"/>
     </row>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1">
+    <row r="236" spans="1:33" ht="15.8" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
@@ -9704,7 +10308,7 @@
       <c r="AF236" s="1"/>
       <c r="AG236" s="1"/>
     </row>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1">
+    <row r="237" spans="1:33" ht="15.8" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
@@ -9739,7 +10343,7 @@
       <c r="AF237" s="1"/>
       <c r="AG237" s="1"/>
     </row>
-    <row r="238" spans="1:33" ht="15.75" customHeight="1">
+    <row r="238" spans="1:33" ht="15.8" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
@@ -9774,7 +10378,7 @@
       <c r="AF238" s="1"/>
       <c r="AG238" s="1"/>
     </row>
-    <row r="239" spans="1:33" ht="15.75" customHeight="1">
+    <row r="239" spans="1:33" ht="15.8" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
@@ -9809,774 +10413,1032 @@
       <c r="AF239" s="1"/>
       <c r="AG239" s="1"/>
     </row>
-    <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
+      <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
+      <c r="AC240" s="1"/>
+      <c r="AD240" s="1"/>
+      <c r="AE240" s="1"/>
+      <c r="AF240" s="1"/>
+      <c r="AG240" s="1"/>
+    </row>
+    <row r="241" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
+      <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
+      <c r="AC241" s="1"/>
+      <c r="AD241" s="1"/>
+      <c r="AE241" s="1"/>
+      <c r="AF241" s="1"/>
+      <c r="AG241" s="1"/>
+    </row>
+    <row r="242" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+      <c r="AE242" s="1"/>
+      <c r="AF242" s="1"/>
+      <c r="AG242" s="1"/>
+    </row>
+    <row r="243" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+      <c r="AE243" s="1"/>
+      <c r="AF243" s="1"/>
+      <c r="AG243" s="1"/>
+    </row>
+    <row r="244" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
+      <c r="W244" s="1"/>
+      <c r="X244" s="1"/>
+      <c r="Y244" s="1"/>
+      <c r="Z244" s="1"/>
+      <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
+      <c r="AC244" s="1"/>
+      <c r="AD244" s="1"/>
+      <c r="AE244" s="1"/>
+      <c r="AF244" s="1"/>
+      <c r="AG244" s="1"/>
+    </row>
+    <row r="245" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="X245" s="1"/>
+      <c r="Y245" s="1"/>
+      <c r="Z245" s="1"/>
+      <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
+      <c r="AC245" s="1"/>
+      <c r="AD245" s="1"/>
+      <c r="AE245" s="1"/>
+      <c r="AF245" s="1"/>
+      <c r="AG245" s="1"/>
+    </row>
+    <row r="246" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
+      <c r="W246" s="1"/>
+      <c r="X246" s="1"/>
+      <c r="Y246" s="1"/>
+      <c r="Z246" s="1"/>
+      <c r="AA246" s="1"/>
+      <c r="AB246" s="1"/>
+      <c r="AC246" s="1"/>
+      <c r="AD246" s="1"/>
+      <c r="AE246" s="1"/>
+      <c r="AF246" s="1"/>
+      <c r="AG246" s="1"/>
+    </row>
+    <row r="247" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="248" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="249" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="250" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="251" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="252" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="253" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="254" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="255" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="256" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="257" ht="15.8" customHeight="1"/>
+    <row r="258" ht="15.8" customHeight="1"/>
+    <row r="259" ht="15.8" customHeight="1"/>
+    <row r="260" ht="15.8" customHeight="1"/>
+    <row r="261" ht="15.8" customHeight="1"/>
+    <row r="262" ht="15.8" customHeight="1"/>
+    <row r="263" ht="15.8" customHeight="1"/>
+    <row r="264" ht="15.8" customHeight="1"/>
+    <row r="265" ht="15.8" customHeight="1"/>
+    <row r="266" ht="15.8" customHeight="1"/>
+    <row r="267" ht="15.8" customHeight="1"/>
+    <row r="268" ht="15.8" customHeight="1"/>
+    <row r="269" ht="15.8" customHeight="1"/>
+    <row r="270" ht="15.8" customHeight="1"/>
+    <row r="271" ht="15.8" customHeight="1"/>
+    <row r="272" ht="15.8" customHeight="1"/>
+    <row r="273" ht="15.8" customHeight="1"/>
+    <row r="274" ht="15.8" customHeight="1"/>
+    <row r="275" ht="15.8" customHeight="1"/>
+    <row r="276" ht="15.8" customHeight="1"/>
+    <row r="277" ht="15.8" customHeight="1"/>
+    <row r="278" ht="15.8" customHeight="1"/>
+    <row r="279" ht="15.8" customHeight="1"/>
+    <row r="280" ht="15.8" customHeight="1"/>
+    <row r="281" ht="15.8" customHeight="1"/>
+    <row r="282" ht="15.8" customHeight="1"/>
+    <row r="283" ht="15.8" customHeight="1"/>
+    <row r="284" ht="15.8" customHeight="1"/>
+    <row r="285" ht="15.8" customHeight="1"/>
+    <row r="286" ht="15.8" customHeight="1"/>
+    <row r="287" ht="15.8" customHeight="1"/>
+    <row r="288" ht="15.8" customHeight="1"/>
+    <row r="289" ht="15.8" customHeight="1"/>
+    <row r="290" ht="15.8" customHeight="1"/>
+    <row r="291" ht="15.8" customHeight="1"/>
+    <row r="292" ht="15.8" customHeight="1"/>
+    <row r="293" ht="15.8" customHeight="1"/>
+    <row r="294" ht="15.8" customHeight="1"/>
+    <row r="295" ht="15.8" customHeight="1"/>
+    <row r="296" ht="15.8" customHeight="1"/>
+    <row r="297" ht="15.8" customHeight="1"/>
+    <row r="298" ht="15.8" customHeight="1"/>
+    <row r="299" ht="15.8" customHeight="1"/>
+    <row r="300" ht="15.8" customHeight="1"/>
+    <row r="301" ht="15.8" customHeight="1"/>
+    <row r="302" ht="15.8" customHeight="1"/>
+    <row r="303" ht="15.8" customHeight="1"/>
+    <row r="304" ht="15.8" customHeight="1"/>
+    <row r="305" ht="15.8" customHeight="1"/>
+    <row r="306" ht="15.8" customHeight="1"/>
+    <row r="307" ht="15.8" customHeight="1"/>
+    <row r="308" ht="15.8" customHeight="1"/>
+    <row r="309" ht="15.8" customHeight="1"/>
+    <row r="310" ht="15.8" customHeight="1"/>
+    <row r="311" ht="15.8" customHeight="1"/>
+    <row r="312" ht="15.8" customHeight="1"/>
+    <row r="313" ht="15.8" customHeight="1"/>
+    <row r="314" ht="15.8" customHeight="1"/>
+    <row r="315" ht="15.8" customHeight="1"/>
+    <row r="316" ht="15.8" customHeight="1"/>
+    <row r="317" ht="15.8" customHeight="1"/>
+    <row r="318" ht="15.8" customHeight="1"/>
+    <row r="319" ht="15.8" customHeight="1"/>
+    <row r="320" ht="15.8" customHeight="1"/>
+    <row r="321" ht="15.8" customHeight="1"/>
+    <row r="322" ht="15.8" customHeight="1"/>
+    <row r="323" ht="15.8" customHeight="1"/>
+    <row r="324" ht="15.8" customHeight="1"/>
+    <row r="325" ht="15.8" customHeight="1"/>
+    <row r="326" ht="15.8" customHeight="1"/>
+    <row r="327" ht="15.8" customHeight="1"/>
+    <row r="328" ht="15.8" customHeight="1"/>
+    <row r="329" ht="15.8" customHeight="1"/>
+    <row r="330" ht="15.8" customHeight="1"/>
+    <row r="331" ht="15.8" customHeight="1"/>
+    <row r="332" ht="15.8" customHeight="1"/>
+    <row r="333" ht="15.8" customHeight="1"/>
+    <row r="334" ht="15.8" customHeight="1"/>
+    <row r="335" ht="15.8" customHeight="1"/>
+    <row r="336" ht="15.8" customHeight="1"/>
+    <row r="337" ht="15.8" customHeight="1"/>
+    <row r="338" ht="15.8" customHeight="1"/>
+    <row r="339" ht="15.8" customHeight="1"/>
+    <row r="340" ht="15.8" customHeight="1"/>
+    <row r="341" ht="15.8" customHeight="1"/>
+    <row r="342" ht="15.8" customHeight="1"/>
+    <row r="343" ht="15.8" customHeight="1"/>
+    <row r="344" ht="15.8" customHeight="1"/>
+    <row r="345" ht="15.8" customHeight="1"/>
+    <row r="346" ht="15.8" customHeight="1"/>
+    <row r="347" ht="15.8" customHeight="1"/>
+    <row r="348" ht="15.8" customHeight="1"/>
+    <row r="349" ht="15.8" customHeight="1"/>
+    <row r="350" ht="15.8" customHeight="1"/>
+    <row r="351" ht="15.8" customHeight="1"/>
+    <row r="352" ht="15.8" customHeight="1"/>
+    <row r="353" ht="15.8" customHeight="1"/>
+    <row r="354" ht="15.8" customHeight="1"/>
+    <row r="355" ht="15.8" customHeight="1"/>
+    <row r="356" ht="15.8" customHeight="1"/>
+    <row r="357" ht="15.8" customHeight="1"/>
+    <row r="358" ht="15.8" customHeight="1"/>
+    <row r="359" ht="15.8" customHeight="1"/>
+    <row r="360" ht="15.8" customHeight="1"/>
+    <row r="361" ht="15.8" customHeight="1"/>
+    <row r="362" ht="15.8" customHeight="1"/>
+    <row r="363" ht="15.8" customHeight="1"/>
+    <row r="364" ht="15.8" customHeight="1"/>
+    <row r="365" ht="15.8" customHeight="1"/>
+    <row r="366" ht="15.8" customHeight="1"/>
+    <row r="367" ht="15.8" customHeight="1"/>
+    <row r="368" ht="15.8" customHeight="1"/>
+    <row r="369" ht="15.8" customHeight="1"/>
+    <row r="370" ht="15.8" customHeight="1"/>
+    <row r="371" ht="15.8" customHeight="1"/>
+    <row r="372" ht="15.8" customHeight="1"/>
+    <row r="373" ht="15.8" customHeight="1"/>
+    <row r="374" ht="15.8" customHeight="1"/>
+    <row r="375" ht="15.8" customHeight="1"/>
+    <row r="376" ht="15.8" customHeight="1"/>
+    <row r="377" ht="15.8" customHeight="1"/>
+    <row r="378" ht="15.8" customHeight="1"/>
+    <row r="379" ht="15.8" customHeight="1"/>
+    <row r="380" ht="15.8" customHeight="1"/>
+    <row r="381" ht="15.8" customHeight="1"/>
+    <row r="382" ht="15.8" customHeight="1"/>
+    <row r="383" ht="15.8" customHeight="1"/>
+    <row r="384" ht="15.8" customHeight="1"/>
+    <row r="385" ht="15.8" customHeight="1"/>
+    <row r="386" ht="15.8" customHeight="1"/>
+    <row r="387" ht="15.8" customHeight="1"/>
+    <row r="388" ht="15.8" customHeight="1"/>
+    <row r="389" ht="15.8" customHeight="1"/>
+    <row r="390" ht="15.8" customHeight="1"/>
+    <row r="391" ht="15.8" customHeight="1"/>
+    <row r="392" ht="15.8" customHeight="1"/>
+    <row r="393" ht="15.8" customHeight="1"/>
+    <row r="394" ht="15.8" customHeight="1"/>
+    <row r="395" ht="15.8" customHeight="1"/>
+    <row r="396" ht="15.8" customHeight="1"/>
+    <row r="397" ht="15.8" customHeight="1"/>
+    <row r="398" ht="15.8" customHeight="1"/>
+    <row r="399" ht="15.8" customHeight="1"/>
+    <row r="400" ht="15.8" customHeight="1"/>
+    <row r="401" ht="15.8" customHeight="1"/>
+    <row r="402" ht="15.8" customHeight="1"/>
+    <row r="403" ht="15.8" customHeight="1"/>
+    <row r="404" ht="15.8" customHeight="1"/>
+    <row r="405" ht="15.8" customHeight="1"/>
+    <row r="406" ht="15.8" customHeight="1"/>
+    <row r="407" ht="15.8" customHeight="1"/>
+    <row r="408" ht="15.8" customHeight="1"/>
+    <row r="409" ht="15.8" customHeight="1"/>
+    <row r="410" ht="15.8" customHeight="1"/>
+    <row r="411" ht="15.8" customHeight="1"/>
+    <row r="412" ht="15.8" customHeight="1"/>
+    <row r="413" ht="15.8" customHeight="1"/>
+    <row r="414" ht="15.8" customHeight="1"/>
+    <row r="415" ht="15.8" customHeight="1"/>
+    <row r="416" ht="15.8" customHeight="1"/>
+    <row r="417" ht="15.8" customHeight="1"/>
+    <row r="418" ht="15.8" customHeight="1"/>
+    <row r="419" ht="15.8" customHeight="1"/>
+    <row r="420" ht="15.8" customHeight="1"/>
+    <row r="421" ht="15.8" customHeight="1"/>
+    <row r="422" ht="15.8" customHeight="1"/>
+    <row r="423" ht="15.8" customHeight="1"/>
+    <row r="424" ht="15.8" customHeight="1"/>
+    <row r="425" ht="15.8" customHeight="1"/>
+    <row r="426" ht="15.8" customHeight="1"/>
+    <row r="427" ht="15.8" customHeight="1"/>
+    <row r="428" ht="15.8" customHeight="1"/>
+    <row r="429" ht="15.8" customHeight="1"/>
+    <row r="430" ht="15.8" customHeight="1"/>
+    <row r="431" ht="15.8" customHeight="1"/>
+    <row r="432" ht="15.8" customHeight="1"/>
+    <row r="433" ht="15.8" customHeight="1"/>
+    <row r="434" ht="15.8" customHeight="1"/>
+    <row r="435" ht="15.8" customHeight="1"/>
+    <row r="436" ht="15.8" customHeight="1"/>
+    <row r="437" ht="15.8" customHeight="1"/>
+    <row r="438" ht="15.8" customHeight="1"/>
+    <row r="439" ht="15.8" customHeight="1"/>
+    <row r="440" ht="15.8" customHeight="1"/>
+    <row r="441" ht="15.8" customHeight="1"/>
+    <row r="442" ht="15.8" customHeight="1"/>
+    <row r="443" ht="15.8" customHeight="1"/>
+    <row r="444" ht="15.8" customHeight="1"/>
+    <row r="445" ht="15.8" customHeight="1"/>
+    <row r="446" ht="15.8" customHeight="1"/>
+    <row r="447" ht="15.8" customHeight="1"/>
+    <row r="448" ht="15.8" customHeight="1"/>
+    <row r="449" ht="15.8" customHeight="1"/>
+    <row r="450" ht="15.8" customHeight="1"/>
+    <row r="451" ht="15.8" customHeight="1"/>
+    <row r="452" ht="15.8" customHeight="1"/>
+    <row r="453" ht="15.8" customHeight="1"/>
+    <row r="454" ht="15.8" customHeight="1"/>
+    <row r="455" ht="15.8" customHeight="1"/>
+    <row r="456" ht="15.8" customHeight="1"/>
+    <row r="457" ht="15.8" customHeight="1"/>
+    <row r="458" ht="15.8" customHeight="1"/>
+    <row r="459" ht="15.8" customHeight="1"/>
+    <row r="460" ht="15.8" customHeight="1"/>
+    <row r="461" ht="15.8" customHeight="1"/>
+    <row r="462" ht="15.8" customHeight="1"/>
+    <row r="463" ht="15.8" customHeight="1"/>
+    <row r="464" ht="15.8" customHeight="1"/>
+    <row r="465" ht="15.8" customHeight="1"/>
+    <row r="466" ht="15.8" customHeight="1"/>
+    <row r="467" ht="15.8" customHeight="1"/>
+    <row r="468" ht="15.8" customHeight="1"/>
+    <row r="469" ht="15.8" customHeight="1"/>
+    <row r="470" ht="15.8" customHeight="1"/>
+    <row r="471" ht="15.8" customHeight="1"/>
+    <row r="472" ht="15.8" customHeight="1"/>
+    <row r="473" ht="15.8" customHeight="1"/>
+    <row r="474" ht="15.8" customHeight="1"/>
+    <row r="475" ht="15.8" customHeight="1"/>
+    <row r="476" ht="15.8" customHeight="1"/>
+    <row r="477" ht="15.8" customHeight="1"/>
+    <row r="478" ht="15.8" customHeight="1"/>
+    <row r="479" ht="15.8" customHeight="1"/>
+    <row r="480" ht="15.8" customHeight="1"/>
+    <row r="481" ht="15.8" customHeight="1"/>
+    <row r="482" ht="15.8" customHeight="1"/>
+    <row r="483" ht="15.8" customHeight="1"/>
+    <row r="484" ht="15.8" customHeight="1"/>
+    <row r="485" ht="15.8" customHeight="1"/>
+    <row r="486" ht="15.8" customHeight="1"/>
+    <row r="487" ht="15.8" customHeight="1"/>
+    <row r="488" ht="15.8" customHeight="1"/>
+    <row r="489" ht="15.8" customHeight="1"/>
+    <row r="490" ht="15.8" customHeight="1"/>
+    <row r="491" ht="15.8" customHeight="1"/>
+    <row r="492" ht="15.8" customHeight="1"/>
+    <row r="493" ht="15.8" customHeight="1"/>
+    <row r="494" ht="15.8" customHeight="1"/>
+    <row r="495" ht="15.8" customHeight="1"/>
+    <row r="496" ht="15.8" customHeight="1"/>
+    <row r="497" ht="15.8" customHeight="1"/>
+    <row r="498" ht="15.8" customHeight="1"/>
+    <row r="499" ht="15.8" customHeight="1"/>
+    <row r="500" ht="15.8" customHeight="1"/>
+    <row r="501" ht="15.8" customHeight="1"/>
+    <row r="502" ht="15.8" customHeight="1"/>
+    <row r="503" ht="15.8" customHeight="1"/>
+    <row r="504" ht="15.8" customHeight="1"/>
+    <row r="505" ht="15.8" customHeight="1"/>
+    <row r="506" ht="15.8" customHeight="1"/>
+    <row r="507" ht="15.8" customHeight="1"/>
+    <row r="508" ht="15.8" customHeight="1"/>
+    <row r="509" ht="15.8" customHeight="1"/>
+    <row r="510" ht="15.8" customHeight="1"/>
+    <row r="511" ht="15.8" customHeight="1"/>
+    <row r="512" ht="15.8" customHeight="1"/>
+    <row r="513" ht="15.8" customHeight="1"/>
+    <row r="514" ht="15.8" customHeight="1"/>
+    <row r="515" ht="15.8" customHeight="1"/>
+    <row r="516" ht="15.8" customHeight="1"/>
+    <row r="517" ht="15.8" customHeight="1"/>
+    <row r="518" ht="15.8" customHeight="1"/>
+    <row r="519" ht="15.8" customHeight="1"/>
+    <row r="520" ht="15.8" customHeight="1"/>
+    <row r="521" ht="15.8" customHeight="1"/>
+    <row r="522" ht="15.8" customHeight="1"/>
+    <row r="523" ht="15.8" customHeight="1"/>
+    <row r="524" ht="15.8" customHeight="1"/>
+    <row r="525" ht="15.8" customHeight="1"/>
+    <row r="526" ht="15.8" customHeight="1"/>
+    <row r="527" ht="15.8" customHeight="1"/>
+    <row r="528" ht="15.8" customHeight="1"/>
+    <row r="529" ht="15.8" customHeight="1"/>
+    <row r="530" ht="15.8" customHeight="1"/>
+    <row r="531" ht="15.8" customHeight="1"/>
+    <row r="532" ht="15.8" customHeight="1"/>
+    <row r="533" ht="15.8" customHeight="1"/>
+    <row r="534" ht="15.8" customHeight="1"/>
+    <row r="535" ht="15.8" customHeight="1"/>
+    <row r="536" ht="15.8" customHeight="1"/>
+    <row r="537" ht="15.8" customHeight="1"/>
+    <row r="538" ht="15.8" customHeight="1"/>
+    <row r="539" ht="15.8" customHeight="1"/>
+    <row r="540" ht="15.8" customHeight="1"/>
+    <row r="541" ht="15.8" customHeight="1"/>
+    <row r="542" ht="15.8" customHeight="1"/>
+    <row r="543" ht="15.8" customHeight="1"/>
+    <row r="544" ht="15.8" customHeight="1"/>
+    <row r="545" ht="15.8" customHeight="1"/>
+    <row r="546" ht="15.8" customHeight="1"/>
+    <row r="547" ht="15.8" customHeight="1"/>
+    <row r="548" ht="15.8" customHeight="1"/>
+    <row r="549" ht="15.8" customHeight="1"/>
+    <row r="550" ht="15.8" customHeight="1"/>
+    <row r="551" ht="15.8" customHeight="1"/>
+    <row r="552" ht="15.8" customHeight="1"/>
+    <row r="553" ht="15.8" customHeight="1"/>
+    <row r="554" ht="15.8" customHeight="1"/>
+    <row r="555" ht="15.8" customHeight="1"/>
+    <row r="556" ht="15.8" customHeight="1"/>
+    <row r="557" ht="15.8" customHeight="1"/>
+    <row r="558" ht="15.8" customHeight="1"/>
+    <row r="559" ht="15.8" customHeight="1"/>
+    <row r="560" ht="15.8" customHeight="1"/>
+    <row r="561" ht="15.8" customHeight="1"/>
+    <row r="562" ht="15.8" customHeight="1"/>
+    <row r="563" ht="15.8" customHeight="1"/>
+    <row r="564" ht="15.8" customHeight="1"/>
+    <row r="565" ht="15.8" customHeight="1"/>
+    <row r="566" ht="15.8" customHeight="1"/>
+    <row r="567" ht="15.8" customHeight="1"/>
+    <row r="568" ht="15.8" customHeight="1"/>
+    <row r="569" ht="15.8" customHeight="1"/>
+    <row r="570" ht="15.8" customHeight="1"/>
+    <row r="571" ht="15.8" customHeight="1"/>
+    <row r="572" ht="15.8" customHeight="1"/>
+    <row r="573" ht="15.8" customHeight="1"/>
+    <row r="574" ht="15.8" customHeight="1"/>
+    <row r="575" ht="15.8" customHeight="1"/>
+    <row r="576" ht="15.8" customHeight="1"/>
+    <row r="577" ht="15.8" customHeight="1"/>
+    <row r="578" ht="15.8" customHeight="1"/>
+    <row r="579" ht="15.8" customHeight="1"/>
+    <row r="580" ht="15.8" customHeight="1"/>
+    <row r="581" ht="15.8" customHeight="1"/>
+    <row r="582" ht="15.8" customHeight="1"/>
+    <row r="583" ht="15.8" customHeight="1"/>
+    <row r="584" ht="15.8" customHeight="1"/>
+    <row r="585" ht="15.8" customHeight="1"/>
+    <row r="586" ht="15.8" customHeight="1"/>
+    <row r="587" ht="15.8" customHeight="1"/>
+    <row r="588" ht="15.8" customHeight="1"/>
+    <row r="589" ht="15.8" customHeight="1"/>
+    <row r="590" ht="15.8" customHeight="1"/>
+    <row r="591" ht="15.8" customHeight="1"/>
+    <row r="592" ht="15.8" customHeight="1"/>
+    <row r="593" ht="15.8" customHeight="1"/>
+    <row r="594" ht="15.8" customHeight="1"/>
+    <row r="595" ht="15.8" customHeight="1"/>
+    <row r="596" ht="15.8" customHeight="1"/>
+    <row r="597" ht="15.8" customHeight="1"/>
+    <row r="598" ht="15.8" customHeight="1"/>
+    <row r="599" ht="15.8" customHeight="1"/>
+    <row r="600" ht="15.8" customHeight="1"/>
+    <row r="601" ht="15.8" customHeight="1"/>
+    <row r="602" ht="15.8" customHeight="1"/>
+    <row r="603" ht="15.8" customHeight="1"/>
+    <row r="604" ht="15.8" customHeight="1"/>
+    <row r="605" ht="15.8" customHeight="1"/>
+    <row r="606" ht="15.8" customHeight="1"/>
+    <row r="607" ht="15.8" customHeight="1"/>
+    <row r="608" ht="15.8" customHeight="1"/>
+    <row r="609" ht="15.8" customHeight="1"/>
+    <row r="610" ht="15.8" customHeight="1"/>
+    <row r="611" ht="15.8" customHeight="1"/>
+    <row r="612" ht="15.8" customHeight="1"/>
+    <row r="613" ht="15.8" customHeight="1"/>
+    <row r="614" ht="15.8" customHeight="1"/>
+    <row r="615" ht="15.8" customHeight="1"/>
+    <row r="616" ht="15.8" customHeight="1"/>
+    <row r="617" ht="15.8" customHeight="1"/>
+    <row r="618" ht="15.8" customHeight="1"/>
+    <row r="619" ht="15.8" customHeight="1"/>
+    <row r="620" ht="15.8" customHeight="1"/>
+    <row r="621" ht="15.8" customHeight="1"/>
+    <row r="622" ht="15.8" customHeight="1"/>
+    <row r="623" ht="15.8" customHeight="1"/>
+    <row r="624" ht="15.8" customHeight="1"/>
+    <row r="625" ht="15.8" customHeight="1"/>
+    <row r="626" ht="15.8" customHeight="1"/>
+    <row r="627" ht="15.8" customHeight="1"/>
+    <row r="628" ht="15.8" customHeight="1"/>
+    <row r="629" ht="15.8" customHeight="1"/>
+    <row r="630" ht="15.8" customHeight="1"/>
+    <row r="631" ht="15.8" customHeight="1"/>
+    <row r="632" ht="15.8" customHeight="1"/>
+    <row r="633" ht="15.8" customHeight="1"/>
+    <row r="634" ht="15.8" customHeight="1"/>
+    <row r="635" ht="15.8" customHeight="1"/>
+    <row r="636" ht="15.8" customHeight="1"/>
+    <row r="637" ht="15.8" customHeight="1"/>
+    <row r="638" ht="15.8" customHeight="1"/>
+    <row r="639" ht="15.8" customHeight="1"/>
+    <row r="640" ht="15.8" customHeight="1"/>
+    <row r="641" ht="15.8" customHeight="1"/>
+    <row r="642" ht="15.8" customHeight="1"/>
+    <row r="643" ht="15.8" customHeight="1"/>
+    <row r="644" ht="15.8" customHeight="1"/>
+    <row r="645" ht="15.8" customHeight="1"/>
+    <row r="646" ht="15.8" customHeight="1"/>
+    <row r="647" ht="15.8" customHeight="1"/>
+    <row r="648" ht="15.8" customHeight="1"/>
+    <row r="649" ht="15.8" customHeight="1"/>
+    <row r="650" ht="15.8" customHeight="1"/>
+    <row r="651" ht="15.8" customHeight="1"/>
+    <row r="652" ht="15.8" customHeight="1"/>
+    <row r="653" ht="15.8" customHeight="1"/>
+    <row r="654" ht="15.8" customHeight="1"/>
+    <row r="655" ht="15.8" customHeight="1"/>
+    <row r="656" ht="15.8" customHeight="1"/>
+    <row r="657" ht="15.8" customHeight="1"/>
+    <row r="658" ht="15.8" customHeight="1"/>
+    <row r="659" ht="15.8" customHeight="1"/>
+    <row r="660" ht="15.8" customHeight="1"/>
+    <row r="661" ht="15.8" customHeight="1"/>
+    <row r="662" ht="15.8" customHeight="1"/>
+    <row r="663" ht="15.8" customHeight="1"/>
+    <row r="664" ht="15.8" customHeight="1"/>
+    <row r="665" ht="15.8" customHeight="1"/>
+    <row r="666" ht="15.8" customHeight="1"/>
+    <row r="667" ht="15.8" customHeight="1"/>
+    <row r="668" ht="15.8" customHeight="1"/>
+    <row r="669" ht="15.8" customHeight="1"/>
+    <row r="670" ht="15.8" customHeight="1"/>
+    <row r="671" ht="15.8" customHeight="1"/>
+    <row r="672" ht="15.8" customHeight="1"/>
+    <row r="673" ht="15.8" customHeight="1"/>
+    <row r="674" ht="15.8" customHeight="1"/>
+    <row r="675" ht="15.8" customHeight="1"/>
+    <row r="676" ht="15.8" customHeight="1"/>
+    <row r="677" ht="15.8" customHeight="1"/>
+    <row r="678" ht="15.8" customHeight="1"/>
+    <row r="679" ht="15.8" customHeight="1"/>
+    <row r="680" ht="15.8" customHeight="1"/>
+    <row r="681" ht="15.8" customHeight="1"/>
+    <row r="682" ht="15.8" customHeight="1"/>
+    <row r="683" ht="15.8" customHeight="1"/>
+    <row r="684" ht="15.8" customHeight="1"/>
+    <row r="685" ht="15.8" customHeight="1"/>
+    <row r="686" ht="15.8" customHeight="1"/>
+    <row r="687" ht="15.8" customHeight="1"/>
+    <row r="688" ht="15.8" customHeight="1"/>
+    <row r="689" ht="15.8" customHeight="1"/>
+    <row r="690" ht="15.8" customHeight="1"/>
+    <row r="691" ht="15.8" customHeight="1"/>
+    <row r="692" ht="15.8" customHeight="1"/>
+    <row r="693" ht="15.8" customHeight="1"/>
+    <row r="694" ht="15.8" customHeight="1"/>
+    <row r="695" ht="15.8" customHeight="1"/>
+    <row r="696" ht="15.8" customHeight="1"/>
+    <row r="697" ht="15.8" customHeight="1"/>
+    <row r="698" ht="15.8" customHeight="1"/>
+    <row r="699" ht="15.8" customHeight="1"/>
+    <row r="700" ht="15.8" customHeight="1"/>
+    <row r="701" ht="15.8" customHeight="1"/>
+    <row r="702" ht="15.8" customHeight="1"/>
+    <row r="703" ht="15.8" customHeight="1"/>
+    <row r="704" ht="15.8" customHeight="1"/>
+    <row r="705" ht="15.8" customHeight="1"/>
+    <row r="706" ht="15.8" customHeight="1"/>
+    <row r="707" ht="15.8" customHeight="1"/>
+    <row r="708" ht="15.8" customHeight="1"/>
+    <row r="709" ht="15.8" customHeight="1"/>
+    <row r="710" ht="15.8" customHeight="1"/>
+    <row r="711" ht="15.8" customHeight="1"/>
+    <row r="712" ht="15.8" customHeight="1"/>
+    <row r="713" ht="15.8" customHeight="1"/>
+    <row r="714" ht="15.8" customHeight="1"/>
+    <row r="715" ht="15.8" customHeight="1"/>
+    <row r="716" ht="15.8" customHeight="1"/>
+    <row r="717" ht="15.8" customHeight="1"/>
+    <row r="718" ht="15.8" customHeight="1"/>
+    <row r="719" ht="15.8" customHeight="1"/>
+    <row r="720" ht="15.8" customHeight="1"/>
+    <row r="721" ht="15.8" customHeight="1"/>
+    <row r="722" ht="15.8" customHeight="1"/>
+    <row r="723" ht="15.8" customHeight="1"/>
+    <row r="724" ht="15.8" customHeight="1"/>
+    <row r="725" ht="15.8" customHeight="1"/>
+    <row r="726" ht="15.8" customHeight="1"/>
+    <row r="727" ht="15.8" customHeight="1"/>
+    <row r="728" ht="15.8" customHeight="1"/>
+    <row r="729" ht="15.8" customHeight="1"/>
+    <row r="730" ht="15.8" customHeight="1"/>
+    <row r="731" ht="15.8" customHeight="1"/>
+    <row r="732" ht="15.8" customHeight="1"/>
+    <row r="733" ht="15.8" customHeight="1"/>
+    <row r="734" ht="15.8" customHeight="1"/>
+    <row r="735" ht="15.8" customHeight="1"/>
+    <row r="736" ht="15.8" customHeight="1"/>
+    <row r="737" ht="15.8" customHeight="1"/>
+    <row r="738" ht="15.8" customHeight="1"/>
+    <row r="739" ht="15.8" customHeight="1"/>
+    <row r="740" ht="15.8" customHeight="1"/>
+    <row r="741" ht="15.8" customHeight="1"/>
+    <row r="742" ht="15.8" customHeight="1"/>
+    <row r="743" ht="15.8" customHeight="1"/>
+    <row r="744" ht="15.8" customHeight="1"/>
+    <row r="745" ht="15.8" customHeight="1"/>
+    <row r="746" ht="15.8" customHeight="1"/>
+    <row r="747" ht="15.8" customHeight="1"/>
+    <row r="748" ht="15.8" customHeight="1"/>
+    <row r="749" ht="15.8" customHeight="1"/>
+    <row r="750" ht="15.8" customHeight="1"/>
+    <row r="751" ht="15.8" customHeight="1"/>
+    <row r="752" ht="15.8" customHeight="1"/>
+    <row r="753" ht="15.8" customHeight="1"/>
+    <row r="754" ht="15.8" customHeight="1"/>
+    <row r="755" ht="15.8" customHeight="1"/>
+    <row r="756" ht="15.8" customHeight="1"/>
+    <row r="757" ht="15.8" customHeight="1"/>
+    <row r="758" ht="15.8" customHeight="1"/>
+    <row r="759" ht="15.8" customHeight="1"/>
+    <row r="760" ht="15.8" customHeight="1"/>
+    <row r="761" ht="15.8" customHeight="1"/>
+    <row r="762" ht="15.8" customHeight="1"/>
+    <row r="763" ht="15.8" customHeight="1"/>
+    <row r="764" ht="15.8" customHeight="1"/>
+    <row r="765" ht="15.8" customHeight="1"/>
+    <row r="766" ht="15.8" customHeight="1"/>
+    <row r="767" ht="15.8" customHeight="1"/>
+    <row r="768" ht="15.8" customHeight="1"/>
+    <row r="769" ht="15.8" customHeight="1"/>
+    <row r="770" ht="15.8" customHeight="1"/>
+    <row r="771" ht="15.8" customHeight="1"/>
+    <row r="772" ht="15.8" customHeight="1"/>
+    <row r="773" ht="15.8" customHeight="1"/>
+    <row r="774" ht="15.8" customHeight="1"/>
+    <row r="775" ht="15.8" customHeight="1"/>
+    <row r="776" ht="15.8" customHeight="1"/>
+    <row r="777" ht="15.8" customHeight="1"/>
+    <row r="778" ht="15.8" customHeight="1"/>
+    <row r="779" ht="15.8" customHeight="1"/>
+    <row r="780" ht="15.8" customHeight="1"/>
+    <row r="781" ht="15.8" customHeight="1"/>
+    <row r="782" ht="15.8" customHeight="1"/>
+    <row r="783" ht="15.8" customHeight="1"/>
+    <row r="784" ht="15.8" customHeight="1"/>
+    <row r="785" ht="15.8" customHeight="1"/>
+    <row r="786" ht="15.8" customHeight="1"/>
+    <row r="787" ht="15.8" customHeight="1"/>
+    <row r="788" ht="15.8" customHeight="1"/>
+    <row r="789" ht="15.8" customHeight="1"/>
+    <row r="790" ht="15.8" customHeight="1"/>
+    <row r="791" ht="15.8" customHeight="1"/>
+    <row r="792" ht="15.8" customHeight="1"/>
+    <row r="793" ht="15.8" customHeight="1"/>
+    <row r="794" ht="15.8" customHeight="1"/>
+    <row r="795" ht="15.8" customHeight="1"/>
+    <row r="796" ht="15.8" customHeight="1"/>
+    <row r="797" ht="15.8" customHeight="1"/>
+    <row r="798" ht="15.8" customHeight="1"/>
+    <row r="799" ht="15.8" customHeight="1"/>
+    <row r="800" ht="15.8" customHeight="1"/>
+    <row r="801" ht="15.8" customHeight="1"/>
+    <row r="802" ht="15.8" customHeight="1"/>
+    <row r="803" ht="15.8" customHeight="1"/>
+    <row r="804" ht="15.8" customHeight="1"/>
+    <row r="805" ht="15.8" customHeight="1"/>
+    <row r="806" ht="15.8" customHeight="1"/>
+    <row r="807" ht="15.8" customHeight="1"/>
+    <row r="808" ht="15.8" customHeight="1"/>
+    <row r="809" ht="15.8" customHeight="1"/>
+    <row r="810" ht="15.8" customHeight="1"/>
+    <row r="811" ht="15.8" customHeight="1"/>
+    <row r="812" ht="15.8" customHeight="1"/>
+    <row r="813" ht="15.8" customHeight="1"/>
+    <row r="814" ht="15.8" customHeight="1"/>
+    <row r="815" ht="15.8" customHeight="1"/>
+    <row r="816" ht="15.8" customHeight="1"/>
+    <row r="817" ht="15.8" customHeight="1"/>
+    <row r="818" ht="15.8" customHeight="1"/>
+    <row r="819" ht="15.8" customHeight="1"/>
+    <row r="820" ht="15.8" customHeight="1"/>
+    <row r="821" ht="15.8" customHeight="1"/>
+    <row r="822" ht="15.8" customHeight="1"/>
+    <row r="823" ht="15.8" customHeight="1"/>
+    <row r="824" ht="15.8" customHeight="1"/>
+    <row r="825" ht="15.8" customHeight="1"/>
+    <row r="826" ht="15.8" customHeight="1"/>
+    <row r="827" ht="15.8" customHeight="1"/>
+    <row r="828" ht="15.8" customHeight="1"/>
+    <row r="829" ht="15.8" customHeight="1"/>
+    <row r="830" ht="15.8" customHeight="1"/>
+    <row r="831" ht="15.8" customHeight="1"/>
+    <row r="832" ht="15.8" customHeight="1"/>
+    <row r="833" ht="15.8" customHeight="1"/>
+    <row r="834" ht="15.8" customHeight="1"/>
+    <row r="835" ht="15.8" customHeight="1"/>
+    <row r="836" ht="15.8" customHeight="1"/>
+    <row r="837" ht="15.8" customHeight="1"/>
+    <row r="838" ht="15.8" customHeight="1"/>
+    <row r="839" ht="15.8" customHeight="1"/>
+    <row r="840" ht="15.8" customHeight="1"/>
+    <row r="841" ht="15.8" customHeight="1"/>
+    <row r="842" ht="15.8" customHeight="1"/>
+    <row r="843" ht="15.8" customHeight="1"/>
+    <row r="844" ht="15.8" customHeight="1"/>
+    <row r="845" ht="15.8" customHeight="1"/>
+    <row r="846" ht="15.8" customHeight="1"/>
+    <row r="847" ht="15.8" customHeight="1"/>
+    <row r="848" ht="15.8" customHeight="1"/>
+    <row r="849" ht="15.8" customHeight="1"/>
+    <row r="850" ht="15.8" customHeight="1"/>
+    <row r="851" ht="15.8" customHeight="1"/>
+    <row r="852" ht="15.8" customHeight="1"/>
+    <row r="853" ht="15.8" customHeight="1"/>
+    <row r="854" ht="15.8" customHeight="1"/>
+    <row r="855" ht="15.8" customHeight="1"/>
+    <row r="856" ht="15.8" customHeight="1"/>
+    <row r="857" ht="15.8" customHeight="1"/>
+    <row r="858" ht="15.8" customHeight="1"/>
+    <row r="859" ht="15.8" customHeight="1"/>
+    <row r="860" ht="15.8" customHeight="1"/>
+    <row r="861" ht="15.8" customHeight="1"/>
+    <row r="862" ht="15.8" customHeight="1"/>
+    <row r="863" ht="15.8" customHeight="1"/>
+    <row r="864" ht="15.8" customHeight="1"/>
+    <row r="865" ht="15.8" customHeight="1"/>
+    <row r="866" ht="15.8" customHeight="1"/>
+    <row r="867" ht="15.8" customHeight="1"/>
+    <row r="868" ht="15.8" customHeight="1"/>
+    <row r="869" ht="15.8" customHeight="1"/>
+    <row r="870" ht="15.8" customHeight="1"/>
+    <row r="871" ht="15.8" customHeight="1"/>
+    <row r="872" ht="15.8" customHeight="1"/>
+    <row r="873" ht="15.8" customHeight="1"/>
+    <row r="874" ht="15.8" customHeight="1"/>
+    <row r="875" ht="15.8" customHeight="1"/>
+    <row r="876" ht="15.8" customHeight="1"/>
+    <row r="877" ht="15.8" customHeight="1"/>
+    <row r="878" ht="15.8" customHeight="1"/>
+    <row r="879" ht="15.8" customHeight="1"/>
+    <row r="880" ht="15.8" customHeight="1"/>
+    <row r="881" ht="15.8" customHeight="1"/>
+    <row r="882" ht="15.8" customHeight="1"/>
+    <row r="883" ht="15.8" customHeight="1"/>
+    <row r="884" ht="15.8" customHeight="1"/>
+    <row r="885" ht="15.8" customHeight="1"/>
+    <row r="886" ht="15.8" customHeight="1"/>
+    <row r="887" ht="15.8" customHeight="1"/>
+    <row r="888" ht="15.8" customHeight="1"/>
+    <row r="889" ht="15.8" customHeight="1"/>
+    <row r="890" ht="15.8" customHeight="1"/>
+    <row r="891" ht="15.8" customHeight="1"/>
+    <row r="892" ht="15.8" customHeight="1"/>
+    <row r="893" ht="15.8" customHeight="1"/>
+    <row r="894" ht="15.8" customHeight="1"/>
+    <row r="895" ht="15.8" customHeight="1"/>
+    <row r="896" ht="15.8" customHeight="1"/>
+    <row r="897" ht="15.8" customHeight="1"/>
+    <row r="898" ht="15.8" customHeight="1"/>
+    <row r="899" ht="15.8" customHeight="1"/>
+    <row r="900" ht="15.8" customHeight="1"/>
+    <row r="901" ht="15.8" customHeight="1"/>
+    <row r="902" ht="15.8" customHeight="1"/>
+    <row r="903" ht="15.8" customHeight="1"/>
+    <row r="904" ht="15.8" customHeight="1"/>
+    <row r="905" ht="15.8" customHeight="1"/>
+    <row r="906" ht="15.8" customHeight="1"/>
+    <row r="907" ht="15.8" customHeight="1"/>
+    <row r="908" ht="15.8" customHeight="1"/>
+    <row r="909" ht="15.8" customHeight="1"/>
+    <row r="910" ht="15.8" customHeight="1"/>
+    <row r="911" ht="15.8" customHeight="1"/>
+    <row r="912" ht="15.8" customHeight="1"/>
+    <row r="913" ht="15.8" customHeight="1"/>
+    <row r="914" ht="15.8" customHeight="1"/>
+    <row r="915" ht="15.8" customHeight="1"/>
+    <row r="916" ht="15.8" customHeight="1"/>
+    <row r="917" ht="15.8" customHeight="1"/>
+    <row r="918" ht="15.8" customHeight="1"/>
+    <row r="919" ht="15.8" customHeight="1"/>
+    <row r="920" ht="15.8" customHeight="1"/>
+    <row r="921" ht="15.8" customHeight="1"/>
+    <row r="922" ht="15.8" customHeight="1"/>
+    <row r="923" ht="15.8" customHeight="1"/>
+    <row r="924" ht="15.8" customHeight="1"/>
+    <row r="925" ht="15.8" customHeight="1"/>
+    <row r="926" ht="15.8" customHeight="1"/>
+    <row r="927" ht="15.8" customHeight="1"/>
+    <row r="928" ht="15.8" customHeight="1"/>
+    <row r="929" ht="15.8" customHeight="1"/>
+    <row r="930" ht="15.8" customHeight="1"/>
+    <row r="931" ht="15.8" customHeight="1"/>
+    <row r="932" ht="15.8" customHeight="1"/>
+    <row r="933" ht="15.8" customHeight="1"/>
+    <row r="934" ht="15.8" customHeight="1"/>
+    <row r="935" ht="15.8" customHeight="1"/>
+    <row r="936" ht="15.8" customHeight="1"/>
+    <row r="937" ht="15.8" customHeight="1"/>
+    <row r="938" ht="15.8" customHeight="1"/>
+    <row r="939" ht="15.8" customHeight="1"/>
+    <row r="940" ht="15.8" customHeight="1"/>
+    <row r="941" ht="15.8" customHeight="1"/>
+    <row r="942" ht="15.8" customHeight="1"/>
+    <row r="943" ht="15.8" customHeight="1"/>
+    <row r="944" ht="15.8" customHeight="1"/>
+    <row r="945" ht="15.8" customHeight="1"/>
+    <row r="946" ht="15.8" customHeight="1"/>
+    <row r="947" ht="15.8" customHeight="1"/>
+    <row r="948" ht="15.8" customHeight="1"/>
+    <row r="949" ht="15.8" customHeight="1"/>
+    <row r="950" ht="15.8" customHeight="1"/>
+    <row r="951" ht="15.8" customHeight="1"/>
+    <row r="952" ht="15.8" customHeight="1"/>
+    <row r="953" ht="15.8" customHeight="1"/>
+    <row r="954" ht="15.8" customHeight="1"/>
+    <row r="955" ht="15.8" customHeight="1"/>
+    <row r="956" ht="15.8" customHeight="1"/>
+    <row r="957" ht="15.8" customHeight="1"/>
+    <row r="958" ht="15.8" customHeight="1"/>
+    <row r="959" ht="15.8" customHeight="1"/>
+    <row r="960" ht="15.8" customHeight="1"/>
+    <row r="961" ht="15.8" customHeight="1"/>
+    <row r="962" ht="15.8" customHeight="1"/>
+    <row r="963" ht="15.8" customHeight="1"/>
+    <row r="964" ht="15.8" customHeight="1"/>
+    <row r="965" ht="15.8" customHeight="1"/>
+    <row r="966" ht="15.8" customHeight="1"/>
+    <row r="967" ht="15.8" customHeight="1"/>
+    <row r="968" ht="15.8" customHeight="1"/>
+    <row r="969" ht="15.8" customHeight="1"/>
+    <row r="970" ht="15.8" customHeight="1"/>
+    <row r="971" ht="15.8" customHeight="1"/>
+    <row r="972" ht="15.8" customHeight="1"/>
+    <row r="973" ht="15.8" customHeight="1"/>
+    <row r="974" ht="15.8" customHeight="1"/>
+    <row r="975" ht="15.8" customHeight="1"/>
+    <row r="976" ht="15.8" customHeight="1"/>
+    <row r="977" ht="15.8" customHeight="1"/>
+    <row r="978" ht="15.8" customHeight="1"/>
+    <row r="979" ht="15.8" customHeight="1"/>
+    <row r="980" ht="15.8" customHeight="1"/>
+    <row r="981" ht="15.8" customHeight="1"/>
+    <row r="982" ht="15.8" customHeight="1"/>
+    <row r="983" ht="15.8" customHeight="1"/>
+    <row r="984" ht="15.8" customHeight="1"/>
+    <row r="985" ht="15.8" customHeight="1"/>
+    <row r="986" ht="15.8" customHeight="1"/>
+    <row r="987" ht="15.8" customHeight="1"/>
+    <row r="988" ht="15.8" customHeight="1"/>
+    <row r="989" ht="15.8" customHeight="1"/>
+    <row r="990" ht="15.8" customHeight="1"/>
+    <row r="991" ht="15.8" customHeight="1"/>
+    <row r="992" ht="15.8" customHeight="1"/>
+    <row r="993" ht="15.8" customHeight="1"/>
+    <row r="994" ht="15.8" customHeight="1"/>
+    <row r="995" ht="15.8" customHeight="1"/>
+    <row r="996" ht="15.8" customHeight="1"/>
+    <row r="997" ht="15.8" customHeight="1"/>
+    <row r="998" ht="15.8" customHeight="1"/>
+    <row r="999" ht="15.8" customHeight="1"/>
+    <row r="1000" ht="15.8" customHeight="1"/>
+    <row r="1001" ht="15.8" customHeight="1"/>
+    <row r="1002" ht="15.8" customHeight="1"/>
+    <row r="1003" ht="15.8" customHeight="1"/>
+    <row r="1004" ht="15.8" customHeight="1"/>
+    <row r="1005" ht="15.8" customHeight="1"/>
+    <row r="1006" ht="15.8" customHeight="1"/>
+    <row r="1007" ht="15.8" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P31">
+  <autoFilter ref="A7:P38" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="A9:A33"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -10584,15 +11446,6 @@
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="A9:A26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10601,7 +11454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10611,14 +11464,14 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.1" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="12.75">
+    <row r="2" spans="2:3" ht="13.4">
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
@@ -10626,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="12.75">
+    <row r="3" spans="2:3" ht="13.4">
       <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
@@ -10634,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="12.75">
+    <row r="4" spans="2:3" ht="13.4">
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
@@ -10642,7 +11495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="12.75">
+    <row r="5" spans="2:3" ht="13.4">
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
@@ -10650,7 +11503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="12.75">
+    <row r="6" spans="2:3" ht="13.4">
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
@@ -10658,986 +11511,986 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.8" customHeight="1"/>
+    <row r="22" ht="15.8" customHeight="1"/>
+    <row r="23" ht="15.8" customHeight="1"/>
+    <row r="24" ht="15.8" customHeight="1"/>
+    <row r="25" ht="15.8" customHeight="1"/>
+    <row r="26" ht="15.8" customHeight="1"/>
+    <row r="27" ht="15.8" customHeight="1"/>
+    <row r="28" ht="15.8" customHeight="1"/>
+    <row r="29" ht="15.8" customHeight="1"/>
+    <row r="30" ht="15.8" customHeight="1"/>
+    <row r="31" ht="15.8" customHeight="1"/>
+    <row r="32" ht="15.8" customHeight="1"/>
+    <row r="33" ht="15.8" customHeight="1"/>
+    <row r="34" ht="15.8" customHeight="1"/>
+    <row r="35" ht="15.8" customHeight="1"/>
+    <row r="36" ht="15.8" customHeight="1"/>
+    <row r="37" ht="15.8" customHeight="1"/>
+    <row r="38" ht="15.8" customHeight="1"/>
+    <row r="39" ht="15.8" customHeight="1"/>
+    <row r="40" ht="15.8" customHeight="1"/>
+    <row r="41" ht="15.8" customHeight="1"/>
+    <row r="42" ht="15.8" customHeight="1"/>
+    <row r="43" ht="15.8" customHeight="1"/>
+    <row r="44" ht="15.8" customHeight="1"/>
+    <row r="45" ht="15.8" customHeight="1"/>
+    <row r="46" ht="15.8" customHeight="1"/>
+    <row r="47" ht="15.8" customHeight="1"/>
+    <row r="48" ht="15.8" customHeight="1"/>
+    <row r="49" ht="15.8" customHeight="1"/>
+    <row r="50" ht="15.8" customHeight="1"/>
+    <row r="51" ht="15.8" customHeight="1"/>
+    <row r="52" ht="15.8" customHeight="1"/>
+    <row r="53" ht="15.8" customHeight="1"/>
+    <row r="54" ht="15.8" customHeight="1"/>
+    <row r="55" ht="15.8" customHeight="1"/>
+    <row r="56" ht="15.8" customHeight="1"/>
+    <row r="57" ht="15.8" customHeight="1"/>
+    <row r="58" ht="15.8" customHeight="1"/>
+    <row r="59" ht="15.8" customHeight="1"/>
+    <row r="60" ht="15.8" customHeight="1"/>
+    <row r="61" ht="15.8" customHeight="1"/>
+    <row r="62" ht="15.8" customHeight="1"/>
+    <row r="63" ht="15.8" customHeight="1"/>
+    <row r="64" ht="15.8" customHeight="1"/>
+    <row r="65" ht="15.8" customHeight="1"/>
+    <row r="66" ht="15.8" customHeight="1"/>
+    <row r="67" ht="15.8" customHeight="1"/>
+    <row r="68" ht="15.8" customHeight="1"/>
+    <row r="69" ht="15.8" customHeight="1"/>
+    <row r="70" ht="15.8" customHeight="1"/>
+    <row r="71" ht="15.8" customHeight="1"/>
+    <row r="72" ht="15.8" customHeight="1"/>
+    <row r="73" ht="15.8" customHeight="1"/>
+    <row r="74" ht="15.8" customHeight="1"/>
+    <row r="75" ht="15.8" customHeight="1"/>
+    <row r="76" ht="15.8" customHeight="1"/>
+    <row r="77" ht="15.8" customHeight="1"/>
+    <row r="78" ht="15.8" customHeight="1"/>
+    <row r="79" ht="15.8" customHeight="1"/>
+    <row r="80" ht="15.8" customHeight="1"/>
+    <row r="81" ht="15.8" customHeight="1"/>
+    <row r="82" ht="15.8" customHeight="1"/>
+    <row r="83" ht="15.8" customHeight="1"/>
+    <row r="84" ht="15.8" customHeight="1"/>
+    <row r="85" ht="15.8" customHeight="1"/>
+    <row r="86" ht="15.8" customHeight="1"/>
+    <row r="87" ht="15.8" customHeight="1"/>
+    <row r="88" ht="15.8" customHeight="1"/>
+    <row r="89" ht="15.8" customHeight="1"/>
+    <row r="90" ht="15.8" customHeight="1"/>
+    <row r="91" ht="15.8" customHeight="1"/>
+    <row r="92" ht="15.8" customHeight="1"/>
+    <row r="93" ht="15.8" customHeight="1"/>
+    <row r="94" ht="15.8" customHeight="1"/>
+    <row r="95" ht="15.8" customHeight="1"/>
+    <row r="96" ht="15.8" customHeight="1"/>
+    <row r="97" ht="15.8" customHeight="1"/>
+    <row r="98" ht="15.8" customHeight="1"/>
+    <row r="99" ht="15.8" customHeight="1"/>
+    <row r="100" ht="15.8" customHeight="1"/>
+    <row r="101" ht="15.8" customHeight="1"/>
+    <row r="102" ht="15.8" customHeight="1"/>
+    <row r="103" ht="15.8" customHeight="1"/>
+    <row r="104" ht="15.8" customHeight="1"/>
+    <row r="105" ht="15.8" customHeight="1"/>
+    <row r="106" ht="15.8" customHeight="1"/>
+    <row r="107" ht="15.8" customHeight="1"/>
+    <row r="108" ht="15.8" customHeight="1"/>
+    <row r="109" ht="15.8" customHeight="1"/>
+    <row r="110" ht="15.8" customHeight="1"/>
+    <row r="111" ht="15.8" customHeight="1"/>
+    <row r="112" ht="15.8" customHeight="1"/>
+    <row r="113" ht="15.8" customHeight="1"/>
+    <row r="114" ht="15.8" customHeight="1"/>
+    <row r="115" ht="15.8" customHeight="1"/>
+    <row r="116" ht="15.8" customHeight="1"/>
+    <row r="117" ht="15.8" customHeight="1"/>
+    <row r="118" ht="15.8" customHeight="1"/>
+    <row r="119" ht="15.8" customHeight="1"/>
+    <row r="120" ht="15.8" customHeight="1"/>
+    <row r="121" ht="15.8" customHeight="1"/>
+    <row r="122" ht="15.8" customHeight="1"/>
+    <row r="123" ht="15.8" customHeight="1"/>
+    <row r="124" ht="15.8" customHeight="1"/>
+    <row r="125" ht="15.8" customHeight="1"/>
+    <row r="126" ht="15.8" customHeight="1"/>
+    <row r="127" ht="15.8" customHeight="1"/>
+    <row r="128" ht="15.8" customHeight="1"/>
+    <row r="129" ht="15.8" customHeight="1"/>
+    <row r="130" ht="15.8" customHeight="1"/>
+    <row r="131" ht="15.8" customHeight="1"/>
+    <row r="132" ht="15.8" customHeight="1"/>
+    <row r="133" ht="15.8" customHeight="1"/>
+    <row r="134" ht="15.8" customHeight="1"/>
+    <row r="135" ht="15.8" customHeight="1"/>
+    <row r="136" ht="15.8" customHeight="1"/>
+    <row r="137" ht="15.8" customHeight="1"/>
+    <row r="138" ht="15.8" customHeight="1"/>
+    <row r="139" ht="15.8" customHeight="1"/>
+    <row r="140" ht="15.8" customHeight="1"/>
+    <row r="141" ht="15.8" customHeight="1"/>
+    <row r="142" ht="15.8" customHeight="1"/>
+    <row r="143" ht="15.8" customHeight="1"/>
+    <row r="144" ht="15.8" customHeight="1"/>
+    <row r="145" ht="15.8" customHeight="1"/>
+    <row r="146" ht="15.8" customHeight="1"/>
+    <row r="147" ht="15.8" customHeight="1"/>
+    <row r="148" ht="15.8" customHeight="1"/>
+    <row r="149" ht="15.8" customHeight="1"/>
+    <row r="150" ht="15.8" customHeight="1"/>
+    <row r="151" ht="15.8" customHeight="1"/>
+    <row r="152" ht="15.8" customHeight="1"/>
+    <row r="153" ht="15.8" customHeight="1"/>
+    <row r="154" ht="15.8" customHeight="1"/>
+    <row r="155" ht="15.8" customHeight="1"/>
+    <row r="156" ht="15.8" customHeight="1"/>
+    <row r="157" ht="15.8" customHeight="1"/>
+    <row r="158" ht="15.8" customHeight="1"/>
+    <row r="159" ht="15.8" customHeight="1"/>
+    <row r="160" ht="15.8" customHeight="1"/>
+    <row r="161" ht="15.8" customHeight="1"/>
+    <row r="162" ht="15.8" customHeight="1"/>
+    <row r="163" ht="15.8" customHeight="1"/>
+    <row r="164" ht="15.8" customHeight="1"/>
+    <row r="165" ht="15.8" customHeight="1"/>
+    <row r="166" ht="15.8" customHeight="1"/>
+    <row r="167" ht="15.8" customHeight="1"/>
+    <row r="168" ht="15.8" customHeight="1"/>
+    <row r="169" ht="15.8" customHeight="1"/>
+    <row r="170" ht="15.8" customHeight="1"/>
+    <row r="171" ht="15.8" customHeight="1"/>
+    <row r="172" ht="15.8" customHeight="1"/>
+    <row r="173" ht="15.8" customHeight="1"/>
+    <row r="174" ht="15.8" customHeight="1"/>
+    <row r="175" ht="15.8" customHeight="1"/>
+    <row r="176" ht="15.8" customHeight="1"/>
+    <row r="177" ht="15.8" customHeight="1"/>
+    <row r="178" ht="15.8" customHeight="1"/>
+    <row r="179" ht="15.8" customHeight="1"/>
+    <row r="180" ht="15.8" customHeight="1"/>
+    <row r="181" ht="15.8" customHeight="1"/>
+    <row r="182" ht="15.8" customHeight="1"/>
+    <row r="183" ht="15.8" customHeight="1"/>
+    <row r="184" ht="15.8" customHeight="1"/>
+    <row r="185" ht="15.8" customHeight="1"/>
+    <row r="186" ht="15.8" customHeight="1"/>
+    <row r="187" ht="15.8" customHeight="1"/>
+    <row r="188" ht="15.8" customHeight="1"/>
+    <row r="189" ht="15.8" customHeight="1"/>
+    <row r="190" ht="15.8" customHeight="1"/>
+    <row r="191" ht="15.8" customHeight="1"/>
+    <row r="192" ht="15.8" customHeight="1"/>
+    <row r="193" ht="15.8" customHeight="1"/>
+    <row r="194" ht="15.8" customHeight="1"/>
+    <row r="195" ht="15.8" customHeight="1"/>
+    <row r="196" ht="15.8" customHeight="1"/>
+    <row r="197" ht="15.8" customHeight="1"/>
+    <row r="198" ht="15.8" customHeight="1"/>
+    <row r="199" ht="15.8" customHeight="1"/>
+    <row r="200" ht="15.8" customHeight="1"/>
+    <row r="201" ht="15.8" customHeight="1"/>
+    <row r="202" ht="15.8" customHeight="1"/>
+    <row r="203" ht="15.8" customHeight="1"/>
+    <row r="204" ht="15.8" customHeight="1"/>
+    <row r="205" ht="15.8" customHeight="1"/>
+    <row r="206" ht="15.8" customHeight="1"/>
+    <row r="207" ht="15.8" customHeight="1"/>
+    <row r="208" ht="15.8" customHeight="1"/>
+    <row r="209" ht="15.8" customHeight="1"/>
+    <row r="210" ht="15.8" customHeight="1"/>
+    <row r="211" ht="15.8" customHeight="1"/>
+    <row r="212" ht="15.8" customHeight="1"/>
+    <row r="213" ht="15.8" customHeight="1"/>
+    <row r="214" ht="15.8" customHeight="1"/>
+    <row r="215" ht="15.8" customHeight="1"/>
+    <row r="216" ht="15.8" customHeight="1"/>
+    <row r="217" ht="15.8" customHeight="1"/>
+    <row r="218" ht="15.8" customHeight="1"/>
+    <row r="219" ht="15.8" customHeight="1"/>
+    <row r="220" ht="15.8" customHeight="1"/>
+    <row r="221" ht="15.8" customHeight="1"/>
+    <row r="222" ht="15.8" customHeight="1"/>
+    <row r="223" ht="15.8" customHeight="1"/>
+    <row r="224" ht="15.8" customHeight="1"/>
+    <row r="225" ht="15.8" customHeight="1"/>
+    <row r="226" ht="15.8" customHeight="1"/>
+    <row r="227" ht="15.8" customHeight="1"/>
+    <row r="228" ht="15.8" customHeight="1"/>
+    <row r="229" ht="15.8" customHeight="1"/>
+    <row r="230" ht="15.8" customHeight="1"/>
+    <row r="231" ht="15.8" customHeight="1"/>
+    <row r="232" ht="15.8" customHeight="1"/>
+    <row r="233" ht="15.8" customHeight="1"/>
+    <row r="234" ht="15.8" customHeight="1"/>
+    <row r="235" ht="15.8" customHeight="1"/>
+    <row r="236" ht="15.8" customHeight="1"/>
+    <row r="237" ht="15.8" customHeight="1"/>
+    <row r="238" ht="15.8" customHeight="1"/>
+    <row r="239" ht="15.8" customHeight="1"/>
+    <row r="240" ht="15.8" customHeight="1"/>
+    <row r="241" ht="15.8" customHeight="1"/>
+    <row r="242" ht="15.8" customHeight="1"/>
+    <row r="243" ht="15.8" customHeight="1"/>
+    <row r="244" ht="15.8" customHeight="1"/>
+    <row r="245" ht="15.8" customHeight="1"/>
+    <row r="246" ht="15.8" customHeight="1"/>
+    <row r="247" ht="15.8" customHeight="1"/>
+    <row r="248" ht="15.8" customHeight="1"/>
+    <row r="249" ht="15.8" customHeight="1"/>
+    <row r="250" ht="15.8" customHeight="1"/>
+    <row r="251" ht="15.8" customHeight="1"/>
+    <row r="252" ht="15.8" customHeight="1"/>
+    <row r="253" ht="15.8" customHeight="1"/>
+    <row r="254" ht="15.8" customHeight="1"/>
+    <row r="255" ht="15.8" customHeight="1"/>
+    <row r="256" ht="15.8" customHeight="1"/>
+    <row r="257" ht="15.8" customHeight="1"/>
+    <row r="258" ht="15.8" customHeight="1"/>
+    <row r="259" ht="15.8" customHeight="1"/>
+    <row r="260" ht="15.8" customHeight="1"/>
+    <row r="261" ht="15.8" customHeight="1"/>
+    <row r="262" ht="15.8" customHeight="1"/>
+    <row r="263" ht="15.8" customHeight="1"/>
+    <row r="264" ht="15.8" customHeight="1"/>
+    <row r="265" ht="15.8" customHeight="1"/>
+    <row r="266" ht="15.8" customHeight="1"/>
+    <row r="267" ht="15.8" customHeight="1"/>
+    <row r="268" ht="15.8" customHeight="1"/>
+    <row r="269" ht="15.8" customHeight="1"/>
+    <row r="270" ht="15.8" customHeight="1"/>
+    <row r="271" ht="15.8" customHeight="1"/>
+    <row r="272" ht="15.8" customHeight="1"/>
+    <row r="273" ht="15.8" customHeight="1"/>
+    <row r="274" ht="15.8" customHeight="1"/>
+    <row r="275" ht="15.8" customHeight="1"/>
+    <row r="276" ht="15.8" customHeight="1"/>
+    <row r="277" ht="15.8" customHeight="1"/>
+    <row r="278" ht="15.8" customHeight="1"/>
+    <row r="279" ht="15.8" customHeight="1"/>
+    <row r="280" ht="15.8" customHeight="1"/>
+    <row r="281" ht="15.8" customHeight="1"/>
+    <row r="282" ht="15.8" customHeight="1"/>
+    <row r="283" ht="15.8" customHeight="1"/>
+    <row r="284" ht="15.8" customHeight="1"/>
+    <row r="285" ht="15.8" customHeight="1"/>
+    <row r="286" ht="15.8" customHeight="1"/>
+    <row r="287" ht="15.8" customHeight="1"/>
+    <row r="288" ht="15.8" customHeight="1"/>
+    <row r="289" ht="15.8" customHeight="1"/>
+    <row r="290" ht="15.8" customHeight="1"/>
+    <row r="291" ht="15.8" customHeight="1"/>
+    <row r="292" ht="15.8" customHeight="1"/>
+    <row r="293" ht="15.8" customHeight="1"/>
+    <row r="294" ht="15.8" customHeight="1"/>
+    <row r="295" ht="15.8" customHeight="1"/>
+    <row r="296" ht="15.8" customHeight="1"/>
+    <row r="297" ht="15.8" customHeight="1"/>
+    <row r="298" ht="15.8" customHeight="1"/>
+    <row r="299" ht="15.8" customHeight="1"/>
+    <row r="300" ht="15.8" customHeight="1"/>
+    <row r="301" ht="15.8" customHeight="1"/>
+    <row r="302" ht="15.8" customHeight="1"/>
+    <row r="303" ht="15.8" customHeight="1"/>
+    <row r="304" ht="15.8" customHeight="1"/>
+    <row r="305" ht="15.8" customHeight="1"/>
+    <row r="306" ht="15.8" customHeight="1"/>
+    <row r="307" ht="15.8" customHeight="1"/>
+    <row r="308" ht="15.8" customHeight="1"/>
+    <row r="309" ht="15.8" customHeight="1"/>
+    <row r="310" ht="15.8" customHeight="1"/>
+    <row r="311" ht="15.8" customHeight="1"/>
+    <row r="312" ht="15.8" customHeight="1"/>
+    <row r="313" ht="15.8" customHeight="1"/>
+    <row r="314" ht="15.8" customHeight="1"/>
+    <row r="315" ht="15.8" customHeight="1"/>
+    <row r="316" ht="15.8" customHeight="1"/>
+    <row r="317" ht="15.8" customHeight="1"/>
+    <row r="318" ht="15.8" customHeight="1"/>
+    <row r="319" ht="15.8" customHeight="1"/>
+    <row r="320" ht="15.8" customHeight="1"/>
+    <row r="321" ht="15.8" customHeight="1"/>
+    <row r="322" ht="15.8" customHeight="1"/>
+    <row r="323" ht="15.8" customHeight="1"/>
+    <row r="324" ht="15.8" customHeight="1"/>
+    <row r="325" ht="15.8" customHeight="1"/>
+    <row r="326" ht="15.8" customHeight="1"/>
+    <row r="327" ht="15.8" customHeight="1"/>
+    <row r="328" ht="15.8" customHeight="1"/>
+    <row r="329" ht="15.8" customHeight="1"/>
+    <row r="330" ht="15.8" customHeight="1"/>
+    <row r="331" ht="15.8" customHeight="1"/>
+    <row r="332" ht="15.8" customHeight="1"/>
+    <row r="333" ht="15.8" customHeight="1"/>
+    <row r="334" ht="15.8" customHeight="1"/>
+    <row r="335" ht="15.8" customHeight="1"/>
+    <row r="336" ht="15.8" customHeight="1"/>
+    <row r="337" ht="15.8" customHeight="1"/>
+    <row r="338" ht="15.8" customHeight="1"/>
+    <row r="339" ht="15.8" customHeight="1"/>
+    <row r="340" ht="15.8" customHeight="1"/>
+    <row r="341" ht="15.8" customHeight="1"/>
+    <row r="342" ht="15.8" customHeight="1"/>
+    <row r="343" ht="15.8" customHeight="1"/>
+    <row r="344" ht="15.8" customHeight="1"/>
+    <row r="345" ht="15.8" customHeight="1"/>
+    <row r="346" ht="15.8" customHeight="1"/>
+    <row r="347" ht="15.8" customHeight="1"/>
+    <row r="348" ht="15.8" customHeight="1"/>
+    <row r="349" ht="15.8" customHeight="1"/>
+    <row r="350" ht="15.8" customHeight="1"/>
+    <row r="351" ht="15.8" customHeight="1"/>
+    <row r="352" ht="15.8" customHeight="1"/>
+    <row r="353" ht="15.8" customHeight="1"/>
+    <row r="354" ht="15.8" customHeight="1"/>
+    <row r="355" ht="15.8" customHeight="1"/>
+    <row r="356" ht="15.8" customHeight="1"/>
+    <row r="357" ht="15.8" customHeight="1"/>
+    <row r="358" ht="15.8" customHeight="1"/>
+    <row r="359" ht="15.8" customHeight="1"/>
+    <row r="360" ht="15.8" customHeight="1"/>
+    <row r="361" ht="15.8" customHeight="1"/>
+    <row r="362" ht="15.8" customHeight="1"/>
+    <row r="363" ht="15.8" customHeight="1"/>
+    <row r="364" ht="15.8" customHeight="1"/>
+    <row r="365" ht="15.8" customHeight="1"/>
+    <row r="366" ht="15.8" customHeight="1"/>
+    <row r="367" ht="15.8" customHeight="1"/>
+    <row r="368" ht="15.8" customHeight="1"/>
+    <row r="369" ht="15.8" customHeight="1"/>
+    <row r="370" ht="15.8" customHeight="1"/>
+    <row r="371" ht="15.8" customHeight="1"/>
+    <row r="372" ht="15.8" customHeight="1"/>
+    <row r="373" ht="15.8" customHeight="1"/>
+    <row r="374" ht="15.8" customHeight="1"/>
+    <row r="375" ht="15.8" customHeight="1"/>
+    <row r="376" ht="15.8" customHeight="1"/>
+    <row r="377" ht="15.8" customHeight="1"/>
+    <row r="378" ht="15.8" customHeight="1"/>
+    <row r="379" ht="15.8" customHeight="1"/>
+    <row r="380" ht="15.8" customHeight="1"/>
+    <row r="381" ht="15.8" customHeight="1"/>
+    <row r="382" ht="15.8" customHeight="1"/>
+    <row r="383" ht="15.8" customHeight="1"/>
+    <row r="384" ht="15.8" customHeight="1"/>
+    <row r="385" ht="15.8" customHeight="1"/>
+    <row r="386" ht="15.8" customHeight="1"/>
+    <row r="387" ht="15.8" customHeight="1"/>
+    <row r="388" ht="15.8" customHeight="1"/>
+    <row r="389" ht="15.8" customHeight="1"/>
+    <row r="390" ht="15.8" customHeight="1"/>
+    <row r="391" ht="15.8" customHeight="1"/>
+    <row r="392" ht="15.8" customHeight="1"/>
+    <row r="393" ht="15.8" customHeight="1"/>
+    <row r="394" ht="15.8" customHeight="1"/>
+    <row r="395" ht="15.8" customHeight="1"/>
+    <row r="396" ht="15.8" customHeight="1"/>
+    <row r="397" ht="15.8" customHeight="1"/>
+    <row r="398" ht="15.8" customHeight="1"/>
+    <row r="399" ht="15.8" customHeight="1"/>
+    <row r="400" ht="15.8" customHeight="1"/>
+    <row r="401" ht="15.8" customHeight="1"/>
+    <row r="402" ht="15.8" customHeight="1"/>
+    <row r="403" ht="15.8" customHeight="1"/>
+    <row r="404" ht="15.8" customHeight="1"/>
+    <row r="405" ht="15.8" customHeight="1"/>
+    <row r="406" ht="15.8" customHeight="1"/>
+    <row r="407" ht="15.8" customHeight="1"/>
+    <row r="408" ht="15.8" customHeight="1"/>
+    <row r="409" ht="15.8" customHeight="1"/>
+    <row r="410" ht="15.8" customHeight="1"/>
+    <row r="411" ht="15.8" customHeight="1"/>
+    <row r="412" ht="15.8" customHeight="1"/>
+    <row r="413" ht="15.8" customHeight="1"/>
+    <row r="414" ht="15.8" customHeight="1"/>
+    <row r="415" ht="15.8" customHeight="1"/>
+    <row r="416" ht="15.8" customHeight="1"/>
+    <row r="417" ht="15.8" customHeight="1"/>
+    <row r="418" ht="15.8" customHeight="1"/>
+    <row r="419" ht="15.8" customHeight="1"/>
+    <row r="420" ht="15.8" customHeight="1"/>
+    <row r="421" ht="15.8" customHeight="1"/>
+    <row r="422" ht="15.8" customHeight="1"/>
+    <row r="423" ht="15.8" customHeight="1"/>
+    <row r="424" ht="15.8" customHeight="1"/>
+    <row r="425" ht="15.8" customHeight="1"/>
+    <row r="426" ht="15.8" customHeight="1"/>
+    <row r="427" ht="15.8" customHeight="1"/>
+    <row r="428" ht="15.8" customHeight="1"/>
+    <row r="429" ht="15.8" customHeight="1"/>
+    <row r="430" ht="15.8" customHeight="1"/>
+    <row r="431" ht="15.8" customHeight="1"/>
+    <row r="432" ht="15.8" customHeight="1"/>
+    <row r="433" ht="15.8" customHeight="1"/>
+    <row r="434" ht="15.8" customHeight="1"/>
+    <row r="435" ht="15.8" customHeight="1"/>
+    <row r="436" ht="15.8" customHeight="1"/>
+    <row r="437" ht="15.8" customHeight="1"/>
+    <row r="438" ht="15.8" customHeight="1"/>
+    <row r="439" ht="15.8" customHeight="1"/>
+    <row r="440" ht="15.8" customHeight="1"/>
+    <row r="441" ht="15.8" customHeight="1"/>
+    <row r="442" ht="15.8" customHeight="1"/>
+    <row r="443" ht="15.8" customHeight="1"/>
+    <row r="444" ht="15.8" customHeight="1"/>
+    <row r="445" ht="15.8" customHeight="1"/>
+    <row r="446" ht="15.8" customHeight="1"/>
+    <row r="447" ht="15.8" customHeight="1"/>
+    <row r="448" ht="15.8" customHeight="1"/>
+    <row r="449" ht="15.8" customHeight="1"/>
+    <row r="450" ht="15.8" customHeight="1"/>
+    <row r="451" ht="15.8" customHeight="1"/>
+    <row r="452" ht="15.8" customHeight="1"/>
+    <row r="453" ht="15.8" customHeight="1"/>
+    <row r="454" ht="15.8" customHeight="1"/>
+    <row r="455" ht="15.8" customHeight="1"/>
+    <row r="456" ht="15.8" customHeight="1"/>
+    <row r="457" ht="15.8" customHeight="1"/>
+    <row r="458" ht="15.8" customHeight="1"/>
+    <row r="459" ht="15.8" customHeight="1"/>
+    <row r="460" ht="15.8" customHeight="1"/>
+    <row r="461" ht="15.8" customHeight="1"/>
+    <row r="462" ht="15.8" customHeight="1"/>
+    <row r="463" ht="15.8" customHeight="1"/>
+    <row r="464" ht="15.8" customHeight="1"/>
+    <row r="465" ht="15.8" customHeight="1"/>
+    <row r="466" ht="15.8" customHeight="1"/>
+    <row r="467" ht="15.8" customHeight="1"/>
+    <row r="468" ht="15.8" customHeight="1"/>
+    <row r="469" ht="15.8" customHeight="1"/>
+    <row r="470" ht="15.8" customHeight="1"/>
+    <row r="471" ht="15.8" customHeight="1"/>
+    <row r="472" ht="15.8" customHeight="1"/>
+    <row r="473" ht="15.8" customHeight="1"/>
+    <row r="474" ht="15.8" customHeight="1"/>
+    <row r="475" ht="15.8" customHeight="1"/>
+    <row r="476" ht="15.8" customHeight="1"/>
+    <row r="477" ht="15.8" customHeight="1"/>
+    <row r="478" ht="15.8" customHeight="1"/>
+    <row r="479" ht="15.8" customHeight="1"/>
+    <row r="480" ht="15.8" customHeight="1"/>
+    <row r="481" ht="15.8" customHeight="1"/>
+    <row r="482" ht="15.8" customHeight="1"/>
+    <row r="483" ht="15.8" customHeight="1"/>
+    <row r="484" ht="15.8" customHeight="1"/>
+    <row r="485" ht="15.8" customHeight="1"/>
+    <row r="486" ht="15.8" customHeight="1"/>
+    <row r="487" ht="15.8" customHeight="1"/>
+    <row r="488" ht="15.8" customHeight="1"/>
+    <row r="489" ht="15.8" customHeight="1"/>
+    <row r="490" ht="15.8" customHeight="1"/>
+    <row r="491" ht="15.8" customHeight="1"/>
+    <row r="492" ht="15.8" customHeight="1"/>
+    <row r="493" ht="15.8" customHeight="1"/>
+    <row r="494" ht="15.8" customHeight="1"/>
+    <row r="495" ht="15.8" customHeight="1"/>
+    <row r="496" ht="15.8" customHeight="1"/>
+    <row r="497" ht="15.8" customHeight="1"/>
+    <row r="498" ht="15.8" customHeight="1"/>
+    <row r="499" ht="15.8" customHeight="1"/>
+    <row r="500" ht="15.8" customHeight="1"/>
+    <row r="501" ht="15.8" customHeight="1"/>
+    <row r="502" ht="15.8" customHeight="1"/>
+    <row r="503" ht="15.8" customHeight="1"/>
+    <row r="504" ht="15.8" customHeight="1"/>
+    <row r="505" ht="15.8" customHeight="1"/>
+    <row r="506" ht="15.8" customHeight="1"/>
+    <row r="507" ht="15.8" customHeight="1"/>
+    <row r="508" ht="15.8" customHeight="1"/>
+    <row r="509" ht="15.8" customHeight="1"/>
+    <row r="510" ht="15.8" customHeight="1"/>
+    <row r="511" ht="15.8" customHeight="1"/>
+    <row r="512" ht="15.8" customHeight="1"/>
+    <row r="513" ht="15.8" customHeight="1"/>
+    <row r="514" ht="15.8" customHeight="1"/>
+    <row r="515" ht="15.8" customHeight="1"/>
+    <row r="516" ht="15.8" customHeight="1"/>
+    <row r="517" ht="15.8" customHeight="1"/>
+    <row r="518" ht="15.8" customHeight="1"/>
+    <row r="519" ht="15.8" customHeight="1"/>
+    <row r="520" ht="15.8" customHeight="1"/>
+    <row r="521" ht="15.8" customHeight="1"/>
+    <row r="522" ht="15.8" customHeight="1"/>
+    <row r="523" ht="15.8" customHeight="1"/>
+    <row r="524" ht="15.8" customHeight="1"/>
+    <row r="525" ht="15.8" customHeight="1"/>
+    <row r="526" ht="15.8" customHeight="1"/>
+    <row r="527" ht="15.8" customHeight="1"/>
+    <row r="528" ht="15.8" customHeight="1"/>
+    <row r="529" ht="15.8" customHeight="1"/>
+    <row r="530" ht="15.8" customHeight="1"/>
+    <row r="531" ht="15.8" customHeight="1"/>
+    <row r="532" ht="15.8" customHeight="1"/>
+    <row r="533" ht="15.8" customHeight="1"/>
+    <row r="534" ht="15.8" customHeight="1"/>
+    <row r="535" ht="15.8" customHeight="1"/>
+    <row r="536" ht="15.8" customHeight="1"/>
+    <row r="537" ht="15.8" customHeight="1"/>
+    <row r="538" ht="15.8" customHeight="1"/>
+    <row r="539" ht="15.8" customHeight="1"/>
+    <row r="540" ht="15.8" customHeight="1"/>
+    <row r="541" ht="15.8" customHeight="1"/>
+    <row r="542" ht="15.8" customHeight="1"/>
+    <row r="543" ht="15.8" customHeight="1"/>
+    <row r="544" ht="15.8" customHeight="1"/>
+    <row r="545" ht="15.8" customHeight="1"/>
+    <row r="546" ht="15.8" customHeight="1"/>
+    <row r="547" ht="15.8" customHeight="1"/>
+    <row r="548" ht="15.8" customHeight="1"/>
+    <row r="549" ht="15.8" customHeight="1"/>
+    <row r="550" ht="15.8" customHeight="1"/>
+    <row r="551" ht="15.8" customHeight="1"/>
+    <row r="552" ht="15.8" customHeight="1"/>
+    <row r="553" ht="15.8" customHeight="1"/>
+    <row r="554" ht="15.8" customHeight="1"/>
+    <row r="555" ht="15.8" customHeight="1"/>
+    <row r="556" ht="15.8" customHeight="1"/>
+    <row r="557" ht="15.8" customHeight="1"/>
+    <row r="558" ht="15.8" customHeight="1"/>
+    <row r="559" ht="15.8" customHeight="1"/>
+    <row r="560" ht="15.8" customHeight="1"/>
+    <row r="561" ht="15.8" customHeight="1"/>
+    <row r="562" ht="15.8" customHeight="1"/>
+    <row r="563" ht="15.8" customHeight="1"/>
+    <row r="564" ht="15.8" customHeight="1"/>
+    <row r="565" ht="15.8" customHeight="1"/>
+    <row r="566" ht="15.8" customHeight="1"/>
+    <row r="567" ht="15.8" customHeight="1"/>
+    <row r="568" ht="15.8" customHeight="1"/>
+    <row r="569" ht="15.8" customHeight="1"/>
+    <row r="570" ht="15.8" customHeight="1"/>
+    <row r="571" ht="15.8" customHeight="1"/>
+    <row r="572" ht="15.8" customHeight="1"/>
+    <row r="573" ht="15.8" customHeight="1"/>
+    <row r="574" ht="15.8" customHeight="1"/>
+    <row r="575" ht="15.8" customHeight="1"/>
+    <row r="576" ht="15.8" customHeight="1"/>
+    <row r="577" ht="15.8" customHeight="1"/>
+    <row r="578" ht="15.8" customHeight="1"/>
+    <row r="579" ht="15.8" customHeight="1"/>
+    <row r="580" ht="15.8" customHeight="1"/>
+    <row r="581" ht="15.8" customHeight="1"/>
+    <row r="582" ht="15.8" customHeight="1"/>
+    <row r="583" ht="15.8" customHeight="1"/>
+    <row r="584" ht="15.8" customHeight="1"/>
+    <row r="585" ht="15.8" customHeight="1"/>
+    <row r="586" ht="15.8" customHeight="1"/>
+    <row r="587" ht="15.8" customHeight="1"/>
+    <row r="588" ht="15.8" customHeight="1"/>
+    <row r="589" ht="15.8" customHeight="1"/>
+    <row r="590" ht="15.8" customHeight="1"/>
+    <row r="591" ht="15.8" customHeight="1"/>
+    <row r="592" ht="15.8" customHeight="1"/>
+    <row r="593" ht="15.8" customHeight="1"/>
+    <row r="594" ht="15.8" customHeight="1"/>
+    <row r="595" ht="15.8" customHeight="1"/>
+    <row r="596" ht="15.8" customHeight="1"/>
+    <row r="597" ht="15.8" customHeight="1"/>
+    <row r="598" ht="15.8" customHeight="1"/>
+    <row r="599" ht="15.8" customHeight="1"/>
+    <row r="600" ht="15.8" customHeight="1"/>
+    <row r="601" ht="15.8" customHeight="1"/>
+    <row r="602" ht="15.8" customHeight="1"/>
+    <row r="603" ht="15.8" customHeight="1"/>
+    <row r="604" ht="15.8" customHeight="1"/>
+    <row r="605" ht="15.8" customHeight="1"/>
+    <row r="606" ht="15.8" customHeight="1"/>
+    <row r="607" ht="15.8" customHeight="1"/>
+    <row r="608" ht="15.8" customHeight="1"/>
+    <row r="609" ht="15.8" customHeight="1"/>
+    <row r="610" ht="15.8" customHeight="1"/>
+    <row r="611" ht="15.8" customHeight="1"/>
+    <row r="612" ht="15.8" customHeight="1"/>
+    <row r="613" ht="15.8" customHeight="1"/>
+    <row r="614" ht="15.8" customHeight="1"/>
+    <row r="615" ht="15.8" customHeight="1"/>
+    <row r="616" ht="15.8" customHeight="1"/>
+    <row r="617" ht="15.8" customHeight="1"/>
+    <row r="618" ht="15.8" customHeight="1"/>
+    <row r="619" ht="15.8" customHeight="1"/>
+    <row r="620" ht="15.8" customHeight="1"/>
+    <row r="621" ht="15.8" customHeight="1"/>
+    <row r="622" ht="15.8" customHeight="1"/>
+    <row r="623" ht="15.8" customHeight="1"/>
+    <row r="624" ht="15.8" customHeight="1"/>
+    <row r="625" ht="15.8" customHeight="1"/>
+    <row r="626" ht="15.8" customHeight="1"/>
+    <row r="627" ht="15.8" customHeight="1"/>
+    <row r="628" ht="15.8" customHeight="1"/>
+    <row r="629" ht="15.8" customHeight="1"/>
+    <row r="630" ht="15.8" customHeight="1"/>
+    <row r="631" ht="15.8" customHeight="1"/>
+    <row r="632" ht="15.8" customHeight="1"/>
+    <row r="633" ht="15.8" customHeight="1"/>
+    <row r="634" ht="15.8" customHeight="1"/>
+    <row r="635" ht="15.8" customHeight="1"/>
+    <row r="636" ht="15.8" customHeight="1"/>
+    <row r="637" ht="15.8" customHeight="1"/>
+    <row r="638" ht="15.8" customHeight="1"/>
+    <row r="639" ht="15.8" customHeight="1"/>
+    <row r="640" ht="15.8" customHeight="1"/>
+    <row r="641" ht="15.8" customHeight="1"/>
+    <row r="642" ht="15.8" customHeight="1"/>
+    <row r="643" ht="15.8" customHeight="1"/>
+    <row r="644" ht="15.8" customHeight="1"/>
+    <row r="645" ht="15.8" customHeight="1"/>
+    <row r="646" ht="15.8" customHeight="1"/>
+    <row r="647" ht="15.8" customHeight="1"/>
+    <row r="648" ht="15.8" customHeight="1"/>
+    <row r="649" ht="15.8" customHeight="1"/>
+    <row r="650" ht="15.8" customHeight="1"/>
+    <row r="651" ht="15.8" customHeight="1"/>
+    <row r="652" ht="15.8" customHeight="1"/>
+    <row r="653" ht="15.8" customHeight="1"/>
+    <row r="654" ht="15.8" customHeight="1"/>
+    <row r="655" ht="15.8" customHeight="1"/>
+    <row r="656" ht="15.8" customHeight="1"/>
+    <row r="657" ht="15.8" customHeight="1"/>
+    <row r="658" ht="15.8" customHeight="1"/>
+    <row r="659" ht="15.8" customHeight="1"/>
+    <row r="660" ht="15.8" customHeight="1"/>
+    <row r="661" ht="15.8" customHeight="1"/>
+    <row r="662" ht="15.8" customHeight="1"/>
+    <row r="663" ht="15.8" customHeight="1"/>
+    <row r="664" ht="15.8" customHeight="1"/>
+    <row r="665" ht="15.8" customHeight="1"/>
+    <row r="666" ht="15.8" customHeight="1"/>
+    <row r="667" ht="15.8" customHeight="1"/>
+    <row r="668" ht="15.8" customHeight="1"/>
+    <row r="669" ht="15.8" customHeight="1"/>
+    <row r="670" ht="15.8" customHeight="1"/>
+    <row r="671" ht="15.8" customHeight="1"/>
+    <row r="672" ht="15.8" customHeight="1"/>
+    <row r="673" ht="15.8" customHeight="1"/>
+    <row r="674" ht="15.8" customHeight="1"/>
+    <row r="675" ht="15.8" customHeight="1"/>
+    <row r="676" ht="15.8" customHeight="1"/>
+    <row r="677" ht="15.8" customHeight="1"/>
+    <row r="678" ht="15.8" customHeight="1"/>
+    <row r="679" ht="15.8" customHeight="1"/>
+    <row r="680" ht="15.8" customHeight="1"/>
+    <row r="681" ht="15.8" customHeight="1"/>
+    <row r="682" ht="15.8" customHeight="1"/>
+    <row r="683" ht="15.8" customHeight="1"/>
+    <row r="684" ht="15.8" customHeight="1"/>
+    <row r="685" ht="15.8" customHeight="1"/>
+    <row r="686" ht="15.8" customHeight="1"/>
+    <row r="687" ht="15.8" customHeight="1"/>
+    <row r="688" ht="15.8" customHeight="1"/>
+    <row r="689" ht="15.8" customHeight="1"/>
+    <row r="690" ht="15.8" customHeight="1"/>
+    <row r="691" ht="15.8" customHeight="1"/>
+    <row r="692" ht="15.8" customHeight="1"/>
+    <row r="693" ht="15.8" customHeight="1"/>
+    <row r="694" ht="15.8" customHeight="1"/>
+    <row r="695" ht="15.8" customHeight="1"/>
+    <row r="696" ht="15.8" customHeight="1"/>
+    <row r="697" ht="15.8" customHeight="1"/>
+    <row r="698" ht="15.8" customHeight="1"/>
+    <row r="699" ht="15.8" customHeight="1"/>
+    <row r="700" ht="15.8" customHeight="1"/>
+    <row r="701" ht="15.8" customHeight="1"/>
+    <row r="702" ht="15.8" customHeight="1"/>
+    <row r="703" ht="15.8" customHeight="1"/>
+    <row r="704" ht="15.8" customHeight="1"/>
+    <row r="705" ht="15.8" customHeight="1"/>
+    <row r="706" ht="15.8" customHeight="1"/>
+    <row r="707" ht="15.8" customHeight="1"/>
+    <row r="708" ht="15.8" customHeight="1"/>
+    <row r="709" ht="15.8" customHeight="1"/>
+    <row r="710" ht="15.8" customHeight="1"/>
+    <row r="711" ht="15.8" customHeight="1"/>
+    <row r="712" ht="15.8" customHeight="1"/>
+    <row r="713" ht="15.8" customHeight="1"/>
+    <row r="714" ht="15.8" customHeight="1"/>
+    <row r="715" ht="15.8" customHeight="1"/>
+    <row r="716" ht="15.8" customHeight="1"/>
+    <row r="717" ht="15.8" customHeight="1"/>
+    <row r="718" ht="15.8" customHeight="1"/>
+    <row r="719" ht="15.8" customHeight="1"/>
+    <row r="720" ht="15.8" customHeight="1"/>
+    <row r="721" ht="15.8" customHeight="1"/>
+    <row r="722" ht="15.8" customHeight="1"/>
+    <row r="723" ht="15.8" customHeight="1"/>
+    <row r="724" ht="15.8" customHeight="1"/>
+    <row r="725" ht="15.8" customHeight="1"/>
+    <row r="726" ht="15.8" customHeight="1"/>
+    <row r="727" ht="15.8" customHeight="1"/>
+    <row r="728" ht="15.8" customHeight="1"/>
+    <row r="729" ht="15.8" customHeight="1"/>
+    <row r="730" ht="15.8" customHeight="1"/>
+    <row r="731" ht="15.8" customHeight="1"/>
+    <row r="732" ht="15.8" customHeight="1"/>
+    <row r="733" ht="15.8" customHeight="1"/>
+    <row r="734" ht="15.8" customHeight="1"/>
+    <row r="735" ht="15.8" customHeight="1"/>
+    <row r="736" ht="15.8" customHeight="1"/>
+    <row r="737" ht="15.8" customHeight="1"/>
+    <row r="738" ht="15.8" customHeight="1"/>
+    <row r="739" ht="15.8" customHeight="1"/>
+    <row r="740" ht="15.8" customHeight="1"/>
+    <row r="741" ht="15.8" customHeight="1"/>
+    <row r="742" ht="15.8" customHeight="1"/>
+    <row r="743" ht="15.8" customHeight="1"/>
+    <row r="744" ht="15.8" customHeight="1"/>
+    <row r="745" ht="15.8" customHeight="1"/>
+    <row r="746" ht="15.8" customHeight="1"/>
+    <row r="747" ht="15.8" customHeight="1"/>
+    <row r="748" ht="15.8" customHeight="1"/>
+    <row r="749" ht="15.8" customHeight="1"/>
+    <row r="750" ht="15.8" customHeight="1"/>
+    <row r="751" ht="15.8" customHeight="1"/>
+    <row r="752" ht="15.8" customHeight="1"/>
+    <row r="753" ht="15.8" customHeight="1"/>
+    <row r="754" ht="15.8" customHeight="1"/>
+    <row r="755" ht="15.8" customHeight="1"/>
+    <row r="756" ht="15.8" customHeight="1"/>
+    <row r="757" ht="15.8" customHeight="1"/>
+    <row r="758" ht="15.8" customHeight="1"/>
+    <row r="759" ht="15.8" customHeight="1"/>
+    <row r="760" ht="15.8" customHeight="1"/>
+    <row r="761" ht="15.8" customHeight="1"/>
+    <row r="762" ht="15.8" customHeight="1"/>
+    <row r="763" ht="15.8" customHeight="1"/>
+    <row r="764" ht="15.8" customHeight="1"/>
+    <row r="765" ht="15.8" customHeight="1"/>
+    <row r="766" ht="15.8" customHeight="1"/>
+    <row r="767" ht="15.8" customHeight="1"/>
+    <row r="768" ht="15.8" customHeight="1"/>
+    <row r="769" ht="15.8" customHeight="1"/>
+    <row r="770" ht="15.8" customHeight="1"/>
+    <row r="771" ht="15.8" customHeight="1"/>
+    <row r="772" ht="15.8" customHeight="1"/>
+    <row r="773" ht="15.8" customHeight="1"/>
+    <row r="774" ht="15.8" customHeight="1"/>
+    <row r="775" ht="15.8" customHeight="1"/>
+    <row r="776" ht="15.8" customHeight="1"/>
+    <row r="777" ht="15.8" customHeight="1"/>
+    <row r="778" ht="15.8" customHeight="1"/>
+    <row r="779" ht="15.8" customHeight="1"/>
+    <row r="780" ht="15.8" customHeight="1"/>
+    <row r="781" ht="15.8" customHeight="1"/>
+    <row r="782" ht="15.8" customHeight="1"/>
+    <row r="783" ht="15.8" customHeight="1"/>
+    <row r="784" ht="15.8" customHeight="1"/>
+    <row r="785" ht="15.8" customHeight="1"/>
+    <row r="786" ht="15.8" customHeight="1"/>
+    <row r="787" ht="15.8" customHeight="1"/>
+    <row r="788" ht="15.8" customHeight="1"/>
+    <row r="789" ht="15.8" customHeight="1"/>
+    <row r="790" ht="15.8" customHeight="1"/>
+    <row r="791" ht="15.8" customHeight="1"/>
+    <row r="792" ht="15.8" customHeight="1"/>
+    <row r="793" ht="15.8" customHeight="1"/>
+    <row r="794" ht="15.8" customHeight="1"/>
+    <row r="795" ht="15.8" customHeight="1"/>
+    <row r="796" ht="15.8" customHeight="1"/>
+    <row r="797" ht="15.8" customHeight="1"/>
+    <row r="798" ht="15.8" customHeight="1"/>
+    <row r="799" ht="15.8" customHeight="1"/>
+    <row r="800" ht="15.8" customHeight="1"/>
+    <row r="801" ht="15.8" customHeight="1"/>
+    <row r="802" ht="15.8" customHeight="1"/>
+    <row r="803" ht="15.8" customHeight="1"/>
+    <row r="804" ht="15.8" customHeight="1"/>
+    <row r="805" ht="15.8" customHeight="1"/>
+    <row r="806" ht="15.8" customHeight="1"/>
+    <row r="807" ht="15.8" customHeight="1"/>
+    <row r="808" ht="15.8" customHeight="1"/>
+    <row r="809" ht="15.8" customHeight="1"/>
+    <row r="810" ht="15.8" customHeight="1"/>
+    <row r="811" ht="15.8" customHeight="1"/>
+    <row r="812" ht="15.8" customHeight="1"/>
+    <row r="813" ht="15.8" customHeight="1"/>
+    <row r="814" ht="15.8" customHeight="1"/>
+    <row r="815" ht="15.8" customHeight="1"/>
+    <row r="816" ht="15.8" customHeight="1"/>
+    <row r="817" ht="15.8" customHeight="1"/>
+    <row r="818" ht="15.8" customHeight="1"/>
+    <row r="819" ht="15.8" customHeight="1"/>
+    <row r="820" ht="15.8" customHeight="1"/>
+    <row r="821" ht="15.8" customHeight="1"/>
+    <row r="822" ht="15.8" customHeight="1"/>
+    <row r="823" ht="15.8" customHeight="1"/>
+    <row r="824" ht="15.8" customHeight="1"/>
+    <row r="825" ht="15.8" customHeight="1"/>
+    <row r="826" ht="15.8" customHeight="1"/>
+    <row r="827" ht="15.8" customHeight="1"/>
+    <row r="828" ht="15.8" customHeight="1"/>
+    <row r="829" ht="15.8" customHeight="1"/>
+    <row r="830" ht="15.8" customHeight="1"/>
+    <row r="831" ht="15.8" customHeight="1"/>
+    <row r="832" ht="15.8" customHeight="1"/>
+    <row r="833" ht="15.8" customHeight="1"/>
+    <row r="834" ht="15.8" customHeight="1"/>
+    <row r="835" ht="15.8" customHeight="1"/>
+    <row r="836" ht="15.8" customHeight="1"/>
+    <row r="837" ht="15.8" customHeight="1"/>
+    <row r="838" ht="15.8" customHeight="1"/>
+    <row r="839" ht="15.8" customHeight="1"/>
+    <row r="840" ht="15.8" customHeight="1"/>
+    <row r="841" ht="15.8" customHeight="1"/>
+    <row r="842" ht="15.8" customHeight="1"/>
+    <row r="843" ht="15.8" customHeight="1"/>
+    <row r="844" ht="15.8" customHeight="1"/>
+    <row r="845" ht="15.8" customHeight="1"/>
+    <row r="846" ht="15.8" customHeight="1"/>
+    <row r="847" ht="15.8" customHeight="1"/>
+    <row r="848" ht="15.8" customHeight="1"/>
+    <row r="849" ht="15.8" customHeight="1"/>
+    <row r="850" ht="15.8" customHeight="1"/>
+    <row r="851" ht="15.8" customHeight="1"/>
+    <row r="852" ht="15.8" customHeight="1"/>
+    <row r="853" ht="15.8" customHeight="1"/>
+    <row r="854" ht="15.8" customHeight="1"/>
+    <row r="855" ht="15.8" customHeight="1"/>
+    <row r="856" ht="15.8" customHeight="1"/>
+    <row r="857" ht="15.8" customHeight="1"/>
+    <row r="858" ht="15.8" customHeight="1"/>
+    <row r="859" ht="15.8" customHeight="1"/>
+    <row r="860" ht="15.8" customHeight="1"/>
+    <row r="861" ht="15.8" customHeight="1"/>
+    <row r="862" ht="15.8" customHeight="1"/>
+    <row r="863" ht="15.8" customHeight="1"/>
+    <row r="864" ht="15.8" customHeight="1"/>
+    <row r="865" ht="15.8" customHeight="1"/>
+    <row r="866" ht="15.8" customHeight="1"/>
+    <row r="867" ht="15.8" customHeight="1"/>
+    <row r="868" ht="15.8" customHeight="1"/>
+    <row r="869" ht="15.8" customHeight="1"/>
+    <row r="870" ht="15.8" customHeight="1"/>
+    <row r="871" ht="15.8" customHeight="1"/>
+    <row r="872" ht="15.8" customHeight="1"/>
+    <row r="873" ht="15.8" customHeight="1"/>
+    <row r="874" ht="15.8" customHeight="1"/>
+    <row r="875" ht="15.8" customHeight="1"/>
+    <row r="876" ht="15.8" customHeight="1"/>
+    <row r="877" ht="15.8" customHeight="1"/>
+    <row r="878" ht="15.8" customHeight="1"/>
+    <row r="879" ht="15.8" customHeight="1"/>
+    <row r="880" ht="15.8" customHeight="1"/>
+    <row r="881" ht="15.8" customHeight="1"/>
+    <row r="882" ht="15.8" customHeight="1"/>
+    <row r="883" ht="15.8" customHeight="1"/>
+    <row r="884" ht="15.8" customHeight="1"/>
+    <row r="885" ht="15.8" customHeight="1"/>
+    <row r="886" ht="15.8" customHeight="1"/>
+    <row r="887" ht="15.8" customHeight="1"/>
+    <row r="888" ht="15.8" customHeight="1"/>
+    <row r="889" ht="15.8" customHeight="1"/>
+    <row r="890" ht="15.8" customHeight="1"/>
+    <row r="891" ht="15.8" customHeight="1"/>
+    <row r="892" ht="15.8" customHeight="1"/>
+    <row r="893" ht="15.8" customHeight="1"/>
+    <row r="894" ht="15.8" customHeight="1"/>
+    <row r="895" ht="15.8" customHeight="1"/>
+    <row r="896" ht="15.8" customHeight="1"/>
+    <row r="897" ht="15.8" customHeight="1"/>
+    <row r="898" ht="15.8" customHeight="1"/>
+    <row r="899" ht="15.8" customHeight="1"/>
+    <row r="900" ht="15.8" customHeight="1"/>
+    <row r="901" ht="15.8" customHeight="1"/>
+    <row r="902" ht="15.8" customHeight="1"/>
+    <row r="903" ht="15.8" customHeight="1"/>
+    <row r="904" ht="15.8" customHeight="1"/>
+    <row r="905" ht="15.8" customHeight="1"/>
+    <row r="906" ht="15.8" customHeight="1"/>
+    <row r="907" ht="15.8" customHeight="1"/>
+    <row r="908" ht="15.8" customHeight="1"/>
+    <row r="909" ht="15.8" customHeight="1"/>
+    <row r="910" ht="15.8" customHeight="1"/>
+    <row r="911" ht="15.8" customHeight="1"/>
+    <row r="912" ht="15.8" customHeight="1"/>
+    <row r="913" ht="15.8" customHeight="1"/>
+    <row r="914" ht="15.8" customHeight="1"/>
+    <row r="915" ht="15.8" customHeight="1"/>
+    <row r="916" ht="15.8" customHeight="1"/>
+    <row r="917" ht="15.8" customHeight="1"/>
+    <row r="918" ht="15.8" customHeight="1"/>
+    <row r="919" ht="15.8" customHeight="1"/>
+    <row r="920" ht="15.8" customHeight="1"/>
+    <row r="921" ht="15.8" customHeight="1"/>
+    <row r="922" ht="15.8" customHeight="1"/>
+    <row r="923" ht="15.8" customHeight="1"/>
+    <row r="924" ht="15.8" customHeight="1"/>
+    <row r="925" ht="15.8" customHeight="1"/>
+    <row r="926" ht="15.8" customHeight="1"/>
+    <row r="927" ht="15.8" customHeight="1"/>
+    <row r="928" ht="15.8" customHeight="1"/>
+    <row r="929" ht="15.8" customHeight="1"/>
+    <row r="930" ht="15.8" customHeight="1"/>
+    <row r="931" ht="15.8" customHeight="1"/>
+    <row r="932" ht="15.8" customHeight="1"/>
+    <row r="933" ht="15.8" customHeight="1"/>
+    <row r="934" ht="15.8" customHeight="1"/>
+    <row r="935" ht="15.8" customHeight="1"/>
+    <row r="936" ht="15.8" customHeight="1"/>
+    <row r="937" ht="15.8" customHeight="1"/>
+    <row r="938" ht="15.8" customHeight="1"/>
+    <row r="939" ht="15.8" customHeight="1"/>
+    <row r="940" ht="15.8" customHeight="1"/>
+    <row r="941" ht="15.8" customHeight="1"/>
+    <row r="942" ht="15.8" customHeight="1"/>
+    <row r="943" ht="15.8" customHeight="1"/>
+    <row r="944" ht="15.8" customHeight="1"/>
+    <row r="945" ht="15.8" customHeight="1"/>
+    <row r="946" ht="15.8" customHeight="1"/>
+    <row r="947" ht="15.8" customHeight="1"/>
+    <row r="948" ht="15.8" customHeight="1"/>
+    <row r="949" ht="15.8" customHeight="1"/>
+    <row r="950" ht="15.8" customHeight="1"/>
+    <row r="951" ht="15.8" customHeight="1"/>
+    <row r="952" ht="15.8" customHeight="1"/>
+    <row r="953" ht="15.8" customHeight="1"/>
+    <row r="954" ht="15.8" customHeight="1"/>
+    <row r="955" ht="15.8" customHeight="1"/>
+    <row r="956" ht="15.8" customHeight="1"/>
+    <row r="957" ht="15.8" customHeight="1"/>
+    <row r="958" ht="15.8" customHeight="1"/>
+    <row r="959" ht="15.8" customHeight="1"/>
+    <row r="960" ht="15.8" customHeight="1"/>
+    <row r="961" ht="15.8" customHeight="1"/>
+    <row r="962" ht="15.8" customHeight="1"/>
+    <row r="963" ht="15.8" customHeight="1"/>
+    <row r="964" ht="15.8" customHeight="1"/>
+    <row r="965" ht="15.8" customHeight="1"/>
+    <row r="966" ht="15.8" customHeight="1"/>
+    <row r="967" ht="15.8" customHeight="1"/>
+    <row r="968" ht="15.8" customHeight="1"/>
+    <row r="969" ht="15.8" customHeight="1"/>
+    <row r="970" ht="15.8" customHeight="1"/>
+    <row r="971" ht="15.8" customHeight="1"/>
+    <row r="972" ht="15.8" customHeight="1"/>
+    <row r="973" ht="15.8" customHeight="1"/>
+    <row r="974" ht="15.8" customHeight="1"/>
+    <row r="975" ht="15.8" customHeight="1"/>
+    <row r="976" ht="15.8" customHeight="1"/>
+    <row r="977" ht="15.8" customHeight="1"/>
+    <row r="978" ht="15.8" customHeight="1"/>
+    <row r="979" ht="15.8" customHeight="1"/>
+    <row r="980" ht="15.8" customHeight="1"/>
+    <row r="981" ht="15.8" customHeight="1"/>
+    <row r="982" ht="15.8" customHeight="1"/>
+    <row r="983" ht="15.8" customHeight="1"/>
+    <row r="984" ht="15.8" customHeight="1"/>
+    <row r="985" ht="15.8" customHeight="1"/>
+    <row r="986" ht="15.8" customHeight="1"/>
+    <row r="987" ht="15.8" customHeight="1"/>
+    <row r="988" ht="15.8" customHeight="1"/>
+    <row r="989" ht="15.8" customHeight="1"/>
+    <row r="990" ht="15.8" customHeight="1"/>
+    <row r="991" ht="15.8" customHeight="1"/>
+    <row r="992" ht="15.8" customHeight="1"/>
+    <row r="993" ht="15.8" customHeight="1"/>
+    <row r="994" ht="15.8" customHeight="1"/>
+    <row r="995" ht="15.8" customHeight="1"/>
+    <row r="996" ht="15.8" customHeight="1"/>
+    <row r="997" ht="15.8" customHeight="1"/>
+    <row r="998" ht="15.8" customHeight="1"/>
+    <row r="999" ht="15.8" customHeight="1"/>
+    <row r="1000" ht="15.8" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이형준\Desktop\RentalEquip\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D4D831-7636-4579-9EF6-DBC6DBD127E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9307B2-A91F-4B1B-97C6-BAD6C5FD1882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21633" windowHeight="11665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -646,6 +646,33 @@
   <si>
     <t>해당 서비스에서 모든 거래는 E머니로 이루어지며, E머니는 무통장입금을 통해 충전할 수 있다.
 충전 페이지에서 거래 은행을 설정한 후 다음을 누르면 해당 은행의 가상계좌가 발급되고, 해당 가상계좌에 입금 시 E머니가 충전된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 신고</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 내용 처리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자들이 신고한 내용 조회 및 처리 결과 내용 발송</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적절한 장비 렌탈이 이루어지는 경우 제재하기 위해 (반려동물과 같은 렌탈 대상으로 부적절한 내용이 있을 경우를 대비), 광고성이 다분한 내용 등 - 신고글 번호, 신고분류(허위 장비, 성인용품, 반려동물렌탈 등등), 제목, 내용, 스크린샷 첨부</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1394,37 +1421,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,41 +1496,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,18 +1514,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,6 +1521,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1735,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1007"/>
+  <dimension ref="A1:AG1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.1" customHeight="1"/>
@@ -1796,22 +1823,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.55" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1833,20 +1860,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.55" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1976,13 +2003,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.8" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="77" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -1991,29 +2018,29 @@
       <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68" t="s">
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="71" t="s">
+      <c r="O7" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="71" t="s">
+      <c r="P7" s="75" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2035,12 +2062,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.8" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="68"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="25">
         <v>43854</v>
       </c>
@@ -2056,11 +2083,11 @@
       <c r="K8" s="25">
         <v>43861</v>
       </c>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2080,10 +2107,10 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="118.35" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="84" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -2129,8 +2156,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="55.25" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="57" t="s">
         <v>61</v>
       </c>
@@ -2174,8 +2201,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="75.349999999999994" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="21" t="s">
         <v>62</v>
       </c>
@@ -2219,8 +2246,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="58.6" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="72" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -2266,8 +2293,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="85.95" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="21" t="s">
         <v>67</v>
       </c>
@@ -2305,8 +2332,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="69.8" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="61" t="s">
         <v>71</v>
       </c>
@@ -2344,8 +2371,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="69.8" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="61" t="s">
         <v>74</v>
       </c>
@@ -2383,8 +2410,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="100.5" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="21" t="s">
         <v>85</v>
       </c>
@@ -2428,8 +2455,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="140.65" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="22" t="s">
         <v>69</v>
       </c>
@@ -2473,8 +2500,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="70.349999999999994" customHeight="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="22" t="s">
         <v>75</v>
       </c>
@@ -2518,7 +2545,7 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="66.45" customHeight="1">
-      <c r="A19" s="77"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="87" t="s">
         <v>90</v>
       </c>
@@ -2565,8 +2592,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="48.6" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="21" t="s">
         <v>79</v>
       </c>
@@ -2610,8 +2637,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="65.900000000000006" customHeight="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="21" t="s">
         <v>80</v>
       </c>
@@ -2655,8 +2682,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="51.95" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="21" t="s">
         <v>82</v>
       </c>
@@ -2700,8 +2727,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="271.25" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="22" t="s">
         <v>93</v>
       </c>
@@ -2745,8 +2772,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="89.3" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="94" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="90" t="s">
         <v>89</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -2788,8 +2815,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="107.2" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="95"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="22" t="s">
         <v>91</v>
       </c>
@@ -2833,8 +2860,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="54.7" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="95"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="22" t="s">
         <v>92</v>
       </c>
@@ -2878,8 +2905,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="95"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="55" t="s">
         <v>95</v>
       </c>
@@ -2923,23 +2950,23 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="89.9" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="96"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="52"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="93"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="8"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2961,20 +2988,24 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
+    <row r="29" spans="1:33" ht="73.7" customHeight="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="52"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="93"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="8"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -2997,19 +3028,19 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A30" s="77"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="59"/>
       <c r="C30" s="55"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="93"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="67"/>
       <c r="N30" s="8"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -3032,19 +3063,19 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A31" s="77"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="59"/>
       <c r="C31" s="55"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="93"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="67"/>
       <c r="N31" s="8"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -3067,19 +3098,19 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A32" s="77"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="59"/>
       <c r="C32" s="55"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="93"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="67"/>
       <c r="N32" s="8"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -3102,9 +3133,9 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="33.1" customHeight="1" thickBot="1">
-      <c r="A33" s="78"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="44"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -3143,13 +3174,13 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="45.25" customHeight="1" thickTop="1">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="68" t="s">
         <v>102</v>
       </c>
       <c r="D34" s="48" t="s">
@@ -3190,8 +3221,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A35" s="74"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="22" t="s">
         <v>103</v>
       </c>
@@ -3233,8 +3264,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A36" s="74"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="22" t="s">
         <v>104</v>
       </c>
@@ -3276,15 +3307,13 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A37" s="74"/>
-      <c r="B37" s="102" t="s">
-        <v>105</v>
-      </c>
+      <c r="A37" s="79"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>129</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -3295,12 +3324,8 @@
       <c r="K37" s="36"/>
       <c r="L37" s="49"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="8">
-        <v>3</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="N37" s="8"/>
+      <c r="O37" s="13"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3321,27 +3346,31 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A38" s="74"/>
-      <c r="B38" s="103"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="94" t="s">
+        <v>105</v>
+      </c>
       <c r="C38" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="52"/>
+        <v>106</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="27"/>
       <c r="K38" s="36"/>
       <c r="L38" s="49"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="40"/>
       <c r="N38" s="8">
         <v>3</v>
       </c>
-      <c r="O38" s="3"/>
+      <c r="O38" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3362,28 +3391,28 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="82" t="s">
-        <v>108</v>
-      </c>
+      <c r="A39" s="79"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="8">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -3403,13 +3432,15 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="83"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="72" t="s">
+        <v>108</v>
+      </c>
       <c r="C40" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -3442,21 +3473,21 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A41" s="74"/>
-      <c r="B41" s="84"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
+        <v>118</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="14"/>
@@ -3481,15 +3512,13 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>121</v>
+      <c r="A42" s="79"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
@@ -3498,7 +3527,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
@@ -3522,26 +3551,28 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>124</v>
+      <c r="A43" s="79"/>
+      <c r="B43" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -3561,10 +3592,14 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="33.1" customHeight="1">
-      <c r="A44" s="75"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="56"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>124</v>
+      </c>
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
       <c r="G44" s="21"/>
@@ -3595,14 +3630,20 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.8" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="M45" s="2"/>
+    <row r="45" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A45" s="80"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -3656,14 +3697,11 @@
     <row r="47" spans="1:33" ht="15.8" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="M47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="M47" s="2"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -3695,9 +3733,6 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3730,7 +3765,9 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="L49" s="14"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3763,11 +3800,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="14"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -3801,7 +3834,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="2"/>
@@ -3838,7 +3871,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="2"/>
@@ -3875,7 +3908,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="2"/>
@@ -3912,7 +3945,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="2"/>
@@ -3948,9 +3981,11 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="2"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -10658,7 +10693,41 @@
       <c r="AF246" s="1"/>
       <c r="AG246" s="1"/>
     </row>
-    <row r="247" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="247" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A247" s="1"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
+      <c r="W247" s="1"/>
+      <c r="X247" s="1"/>
+      <c r="Y247" s="1"/>
+      <c r="Z247" s="1"/>
+      <c r="AA247" s="1"/>
+      <c r="AB247" s="1"/>
+      <c r="AC247" s="1"/>
+      <c r="AD247" s="1"/>
+      <c r="AE247" s="1"/>
+      <c r="AF247" s="1"/>
+      <c r="AG247" s="1"/>
+    </row>
     <row r="248" spans="1:33" ht="15.8" customHeight="1"/>
     <row r="249" spans="1:33" ht="15.8" customHeight="1"/>
     <row r="250" spans="1:33" ht="15.8" customHeight="1"/>
@@ -11419,26 +11488,14 @@
     <row r="1005" ht="15.8" customHeight="1"/>
     <row r="1006" ht="15.8" customHeight="1"/>
     <row r="1007" ht="15.8" customHeight="1"/>
+    <row r="1008" ht="15.8" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P38" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:P39" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A9:A33"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -11446,6 +11503,19 @@
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="A9:A33"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B34:B37"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYEONTAE\Desktop\RentalEquip\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\RentalEquip\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="21636" windowHeight="11664"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$51</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="228">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>SH – P – 022</t>
-  </si>
-  <si>
-    <t>KB – P – 026
-KB – P – 027</t>
   </si>
   <si>
     <t>HJ – P – 028
@@ -451,14 +447,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>개인정보</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 상품관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 화면 컨텐츠 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -488,10 +476,6 @@
   </si>
   <si>
     <t>서비스 이용에 관한 1:1 문의 내용 답변 가능</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ내용 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -600,11 +584,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 시 입력한 회원 정보 변경 가능
-회원 검색 조건 - ID, 이름, 등급별, 보유 쿠폰 조회, 사용 쿠폰 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>회원관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -631,10 +610,6 @@
   </si>
   <si>
     <t>수수료 - 5%</t>
-  </si>
-  <si>
-    <t>회원이 등록한 상품(구매, 판매) 관리(삭제 or 제재 ex)3일 계정정지, 5일 계정정지, 영구 제명)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>사용자들이 신고한 내용 조회 및 처리 결과 내용 발송
@@ -1489,10 +1464,6 @@
     <t>찜예약 상품</t>
   </si>
   <si>
-    <t>내가 찜예약한 상품들의 리스트 확인 - 테이블 형식으로 표시
-내가 대여하고 싶은 물건이 이미 대여가 된 경우, 대여가 완료 되었을 때 알림을 받을 수 있도록 찜예약 상품 등록</t>
-  </si>
-  <si>
     <t>빌려준 상품 목록확인</t>
   </si>
   <si>
@@ -1540,6 +1511,17 @@
 제공회원은 상품페이지에서 답변 할 수 있다.
 제공회원은 상품 문의가 등록 되었을 때 알림을 받음
 상품문의를 등록한 사람은 답변이 등록되었을 때 알림을 받음</t>
+  </si>
+  <si>
+    <t>내가 찜예약한 상품들의 리스트 확인 - 테이블 형식으로 표시
+내가 대여하고 싶은 물건이 이미 대여가 된 경우, 대여가 완료 되었을 때 알림을 받을 수 있도록 찜예약 상품 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 입력한 회원 정보 변경 가능
+회원 검색 조건 - ID, 이름, 등급별, 보유 쿠폰 조회, 사용 쿠폰 조회
+회원 상품 조회 : 회원이 등록한 상품(구매, 판매) 관리(삭제 or 제재 ex)3일 계정정지, 5일 계정정지, 영구 제명)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>현재 혹은 이전에 내가 빌려준 혹은 빌린 상품을 리스트형식으로 확인 할 수 있으며, 셀렉트 메뉴를 통해 분류 또한 가능하다. 
@@ -1553,12 +1535,21 @@
 상품에 파손이 사용 중에 생긴 경우 구매자가 파손에 대한 책임을 지며, 배송 중에 파손된 경우 배송 중 파손보험에 따라 처리한다.
 다시 판매 준비가 된다면 판매자는 상품의 상태를 대여 가능으로 변경할 수 있고,
 추가로 해당 페이지에서 상품의 문의 내용을 확인하고 처리할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ내용 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -2343,81 +2334,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,24 +2349,6 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2463,17 +2361,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2536,6 +2428,105 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2753,27 +2744,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1021"/>
+  <dimension ref="A1:AG1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="87.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="87.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2814,22 +2805,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2851,20 +2842,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2925,7 +2916,7 @@
         <v>43860</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -2994,13 +2985,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="104" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -3009,29 +3000,29 @@
       <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62" t="s">
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="O7" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="102" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -3053,12 +3044,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="62"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="24">
         <v>43854</v>
       </c>
@@ -3074,11 +3065,11 @@
       <c r="K8" s="24">
         <v>43861</v>
       </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3098,21 +3089,21 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="118.35" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>59</v>
+      <c r="D9" s="75" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -3148,18 +3139,18 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="55.2" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
+    <row r="10" spans="1:33" ht="55.15" customHeight="1">
+      <c r="A10" s="106"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="108" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -3194,18 +3185,18 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="75.3" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="74"/>
+    <row r="11" spans="1:33" ht="75.400000000000006" customHeight="1">
+      <c r="A11" s="106"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -3240,20 +3231,20 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="58.65" customHeight="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="67" t="s">
+    <row r="12" spans="1:33" ht="58.7" customHeight="1">
+      <c r="A12" s="106"/>
+      <c r="B12" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>66</v>
+      <c r="D12" s="76" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -3288,18 +3279,18 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="66">
-      <c r="A13" s="71"/>
-      <c r="B13" s="68"/>
+    <row r="13" spans="1:33" ht="60">
+      <c r="A13" s="106"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="109" t="s">
-        <v>109</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>105</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -3328,18 +3319,18 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="26.4">
-      <c r="A14" s="71"/>
-      <c r="B14" s="68"/>
+    <row r="14" spans="1:33" ht="24">
+      <c r="A14" s="106"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>106</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -3370,17 +3361,17 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="69.75" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="68"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="109" t="s">
-        <v>68</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -3411,17 +3402,17 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="69.75" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="109" t="s">
-        <v>131</v>
+        <v>68</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>125</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -3452,17 +3443,17 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="100.5" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="109" t="s">
         <v>78</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>77</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -3498,18 +3489,18 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="65.400000000000006" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>214</v>
+    <row r="18" spans="1:33" ht="65.45" customHeight="1">
+      <c r="A18" s="106"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>208</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -3545,18 +3536,18 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="65.400000000000006" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="95" t="s">
-        <v>135</v>
+    <row r="19" spans="1:33" ht="65.45" customHeight="1">
+      <c r="A19" s="106"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>129</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -3586,18 +3577,18 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="65.400000000000006" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>133</v>
+    <row r="20" spans="1:33" ht="65.45" customHeight="1">
+      <c r="A20" s="106"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>127</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -3628,17 +3619,17 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="70.349999999999994" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="76" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" s="109" t="s">
-        <v>71</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -3675,23 +3666,23 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="70.349999999999994" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="75" t="s">
-        <v>83</v>
+      <c r="A22" s="106"/>
+      <c r="B22" s="110" t="s">
+        <v>82</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="109" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>112</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="85"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="26"/>
       <c r="K22" s="35"/>
       <c r="L22" s="28"/>
@@ -3717,18 +3708,18 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="66.45" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="86"/>
+    <row r="23" spans="1:33" ht="66.400000000000006" customHeight="1">
+      <c r="A23" s="106"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="76" t="s">
         <v>72</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>73</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3765,17 +3756,17 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="48.6" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="109" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>100</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -3812,17 +3803,17 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="65.849999999999994" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="109" t="s">
-        <v>215</v>
+        <v>74</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>209</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3859,21 +3850,21 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="65.849999999999994" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="76" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" s="109" t="s">
-        <v>77</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="84"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="26"/>
       <c r="K26" s="35"/>
       <c r="L26" s="28"/>
@@ -3899,22 +3890,22 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="26.4">
-      <c r="A27" s="71"/>
-      <c r="B27" s="86"/>
+    <row r="27" spans="1:33" ht="24">
+      <c r="A27" s="106"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="109" t="s">
-        <v>216</v>
+        <v>110</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="84"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="26"/>
       <c r="K27" s="35"/>
       <c r="L27" s="28"/>
@@ -3940,22 +3931,22 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="26.4">
-      <c r="A28" s="71"/>
-      <c r="B28" s="86"/>
+    <row r="28" spans="1:33" ht="24">
+      <c r="A28" s="106"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>217</v>
+        <v>108</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>211</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="84"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="26"/>
       <c r="K28" s="35"/>
       <c r="L28" s="28"/>
@@ -3981,22 +3972,22 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="26.4">
-      <c r="A29" s="71"/>
-      <c r="B29" s="86"/>
+    <row r="29" spans="1:33" ht="24">
+      <c r="A29" s="106"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="76" t="s">
         <v>113</v>
-      </c>
-      <c r="D29" s="109" t="s">
-        <v>117</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="84"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="26"/>
       <c r="K29" s="35"/>
       <c r="L29" s="28"/>
@@ -4022,20 +4013,20 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="51.9" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="86"/>
+    <row r="30" spans="1:33" ht="51.95" customHeight="1">
+      <c r="A30" s="106"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="108" t="s">
-        <v>228</v>
+        <v>103</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>221</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -4065,18 +4056,18 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="51.9" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="86"/>
+    <row r="31" spans="1:33" ht="51.95" customHeight="1">
+      <c r="A31" s="106"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="108" t="s">
-        <v>219</v>
+        <v>212</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>223</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -4106,18 +4097,18 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="51.9" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="86"/>
+    <row r="32" spans="1:33" ht="51.95" customHeight="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="108" t="s">
-        <v>108</v>
+        <v>213</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>104</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -4147,18 +4138,18 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="271.2" customHeight="1">
-      <c r="A33" s="71"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="112" t="s">
-        <v>230</v>
+    <row r="33" spans="1:33" ht="271.14999999999998" customHeight="1">
+      <c r="A33" s="106"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>225</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -4194,20 +4185,20 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="105.6">
-      <c r="A34" s="71"/>
-      <c r="B34" s="78" t="s">
-        <v>82</v>
+    <row r="34" spans="1:33" ht="96">
+      <c r="A34" s="106"/>
+      <c r="B34" s="91" t="s">
+        <v>81</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="109" t="s">
-        <v>129</v>
+        <v>64</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>123</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -4238,17 +4229,17 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="89.25" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="76" t="s">
         <v>80</v>
-      </c>
-      <c r="D35" s="109" t="s">
-        <v>81</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -4281,17 +4272,17 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="107.25" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="109" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>99</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -4327,18 +4318,18 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="52.8">
-      <c r="A37" s="71"/>
-      <c r="B37" s="79"/>
+    <row r="37" spans="1:33" ht="48">
+      <c r="A37" s="106"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="113" t="s">
-        <v>229</v>
+        <v>84</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>222</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -4374,18 +4365,18 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="79"/>
+    <row r="38" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A38" s="106"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="76" t="s">
         <v>86</v>
-      </c>
-      <c r="D38" s="109" t="s">
-        <v>87</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -4422,17 +4413,17 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="89.85" customHeight="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D39" s="82" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>216</v>
       </c>
       <c r="E39" s="51"/>
       <c r="F39" s="52" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -4462,18 +4453,18 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="73.650000000000006" customHeight="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="79"/>
+    <row r="40" spans="1:33" ht="73.7" customHeight="1">
+      <c r="A40" s="106"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>224</v>
+        <v>101</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>217</v>
       </c>
       <c r="E40" s="51"/>
       <c r="F40" s="52" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -4503,22 +4494,22 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="120" t="s">
-        <v>207</v>
+    <row r="41" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A41" s="106"/>
+      <c r="B41" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>201</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -4548,20 +4539,20 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A42" s="71"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>204</v>
+    <row r="42" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A42" s="106"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>198</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -4591,20 +4582,20 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="79.2">
-      <c r="A43" s="71"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="82" t="s">
-        <v>206</v>
+    <row r="43" spans="1:33" ht="60">
+      <c r="A43" s="106"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -4634,18 +4625,18 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="171.6">
-      <c r="A44" s="71"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>226</v>
+    <row r="44" spans="1:33" ht="156">
+      <c r="A44" s="106"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>219</v>
       </c>
       <c r="E44" s="51"/>
       <c r="F44" s="52" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -4675,14 +4666,14 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="37.799999999999997" customHeight="1">
-      <c r="A45" s="71"/>
-      <c r="B45" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="82" t="s">
-        <v>124</v>
+    <row r="45" spans="1:33" ht="37.9" customHeight="1">
+      <c r="A45" s="106"/>
+      <c r="B45" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="95"/>
+      <c r="D45" s="57" t="s">
+        <v>119</v>
       </c>
       <c r="E45" s="51"/>
       <c r="F45" s="52"/>
@@ -4714,14 +4705,14 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="26.4">
-      <c r="A46" s="71"/>
-      <c r="B46" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="82" t="s">
-        <v>123</v>
+    <row r="46" spans="1:33" ht="24">
+      <c r="A46" s="106"/>
+      <c r="B46" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="57" t="s">
+        <v>118</v>
       </c>
       <c r="E46" s="51"/>
       <c r="F46" s="52"/>
@@ -4754,13 +4745,13 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="30" customHeight="1" thickBot="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="83" t="s">
-        <v>202</v>
+      <c r="A47" s="106"/>
+      <c r="B47" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="97"/>
+      <c r="D47" s="58" t="s">
+        <v>196</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
@@ -4798,22 +4789,22 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="33.15" customHeight="1" thickTop="1">
-      <c r="A48" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="68" t="s">
-        <v>119</v>
+    <row r="48" spans="1:33" ht="60" customHeight="1" thickTop="1">
+      <c r="A48" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="101" t="s">
+        <v>114</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="113" t="s">
-        <v>118</v>
+        <v>226</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>224</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4847,18 +4838,18 @@
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A49" s="96"/>
-      <c r="B49" s="68"/>
+    <row r="49" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A49" s="88"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="113" t="s">
-        <v>126</v>
+        <v>102</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>121</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4867,12 +4858,8 @@
       <c r="K49" s="35"/>
       <c r="L49" s="41"/>
       <c r="M49" s="38"/>
-      <c r="N49" s="8">
-        <v>3</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="N49" s="8"/>
+      <c r="O49" s="12"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4892,18 +4879,20 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
     </row>
-    <row r="50" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A50" s="96"/>
-      <c r="B50" s="69"/>
+    <row r="50" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A50" s="88"/>
+      <c r="B50" s="98" t="s">
+        <v>87</v>
+      </c>
       <c r="C50" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="113" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="D50" s="76" t="s">
+        <v>122</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -4912,8 +4901,12 @@
       <c r="K50" s="35"/>
       <c r="L50" s="41"/>
       <c r="M50" s="38"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="12"/>
+      <c r="N50" s="8">
+        <v>3</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -4933,34 +4926,30 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
     </row>
-    <row r="51" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A51" s="96"/>
-      <c r="B51" s="76" t="s">
-        <v>90</v>
-      </c>
+    <row r="51" spans="1:33" ht="36">
+      <c r="A51" s="88"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="26"/>
+        <v>89</v>
+      </c>
+      <c r="D51" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="86"/>
       <c r="K51" s="35"/>
       <c r="L51" s="41"/>
-      <c r="M51" s="38"/>
+      <c r="M51" s="42"/>
       <c r="N51" s="8">
         <v>3</v>
       </c>
-      <c r="O51" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -4980,31 +4969,29 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
     </row>
-    <row r="52" spans="1:33" ht="39.6">
-      <c r="A52" s="96"/>
-      <c r="B52" s="99"/>
+    <row r="52" spans="1:33" ht="54" customHeight="1">
+      <c r="A52" s="88"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="119"/>
+        <v>130</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
       <c r="K52" s="35"/>
       <c r="L52" s="41"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="8">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -5023,29 +5010,31 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
     </row>
-    <row r="53" spans="1:33" ht="54" customHeight="1">
-      <c r="A53" s="96"/>
-      <c r="B53" s="77"/>
+    <row r="53" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A53" s="88"/>
+      <c r="B53" s="89" t="s">
+        <v>132</v>
+      </c>
       <c r="C53" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
+        <v>90</v>
+      </c>
+      <c r="D53" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -5064,20 +5053,18 @@
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
     </row>
-    <row r="54" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A54" s="96"/>
-      <c r="B54" s="67" t="s">
-        <v>138</v>
-      </c>
+    <row r="54" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A54" s="88"/>
+      <c r="B54" s="101"/>
       <c r="C54" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="116" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="D54" s="83" t="s">
+        <v>94</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -5107,24 +5094,24 @@
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
     </row>
-    <row r="55" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A55" s="96"/>
-      <c r="B55" s="68"/>
+    <row r="55" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A55" s="88"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="D55" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="F55" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="13"/>
@@ -5148,25 +5135,27 @@
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
     </row>
-    <row r="56" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A56" s="96"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="21" t="s">
+    <row r="56" spans="1:33" ht="48">
+      <c r="A56" s="88"/>
+      <c r="B56" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="116" t="s">
-        <v>98</v>
+      <c r="C56" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>134</v>
       </c>
       <c r="E56" s="44"/>
-      <c r="F56" s="107" t="s">
-        <v>201</v>
+      <c r="F56" s="74" t="s">
+        <v>182</v>
       </c>
       <c r="G56" s="44"/>
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
       <c r="J56" s="44"/>
       <c r="K56" s="44"/>
-      <c r="L56" s="21"/>
+      <c r="L56" s="44"/>
       <c r="M56" s="21"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
@@ -5189,31 +5178,29 @@
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
     </row>
-    <row r="57" spans="1:33" ht="52.8">
-      <c r="A57" s="96"/>
-      <c r="B57" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="117" t="s">
-        <v>140</v>
+    <row r="57" spans="1:33" ht="33.200000000000003" customHeight="1">
+      <c r="A57" s="88"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="85" t="s">
+        <v>98</v>
       </c>
       <c r="E57" s="44"/>
-      <c r="F57" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
+      <c r="F57" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
       <c r="J57" s="44"/>
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -5232,26 +5219,14 @@
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
     </row>
-    <row r="58" spans="1:33" ht="33.15" customHeight="1">
-      <c r="A58" s="96"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="20"/>
+    <row r="58" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="M58" s="2"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -5305,11 +5280,14 @@
     <row r="60" spans="1:33" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="2"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="M60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -5335,12 +5313,17 @@
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -5364,20 +5347,20 @@
       <c r="AG61" s="1"/>
     </row>
     <row r="62" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="1"/>
+      <c r="L62" s="13"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -5402,10 +5385,10 @@
     </row>
     <row r="63" spans="1:33" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -5414,7 +5397,9 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="L63" s="13"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="2"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -5437,24 +5422,33 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
     </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1">
+    <row r="64" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -5476,32 +5470,28 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
+    <row r="65" spans="1:33" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="E65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="J65" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="1" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -5526,26 +5516,30 @@
     </row>
     <row r="66" spans="1:33" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="103" t="s">
-        <v>179</v>
-      </c>
-      <c r="L66" s="2"/>
+      <c r="J66" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="L66" s="69" t="s">
+        <v>166</v>
+      </c>
       <c r="M66" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -5568,32 +5562,32 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
     </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1">
+    <row r="67" spans="1:33" ht="24">
       <c r="A67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="B67" s="67" t="s">
+        <v>204</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="L67" s="102" t="s">
-        <v>172</v>
+      <c r="J67" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="L67" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -5616,32 +5610,28 @@
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
     </row>
-    <row r="68" spans="1:33" ht="26.4">
-      <c r="A68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="100" t="s">
-        <v>210</v>
-      </c>
+    <row r="68" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="104" t="s">
+      <c r="J68" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="L68" s="102" t="s">
-        <v>173</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>166</v>
+      <c r="L68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M68" s="69" t="s">
+        <v>163</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -5664,28 +5654,28 @@
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
     </row>
-    <row r="69" spans="1:33" ht="15.75" customHeight="1">
+    <row r="69" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>155</v>
+      <c r="E69" s="69" t="s">
+        <v>153</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="106" t="s">
-        <v>178</v>
+      <c r="J69" s="72" t="s">
+        <v>171</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M69" s="102" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="M69" s="69" t="s">
+        <v>162</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -5708,29 +5698,20 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
     </row>
-    <row r="70" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
+    <row r="70" spans="1:33" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="105" t="s">
-        <v>177</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M70" s="102" t="s">
-        <v>168</v>
-      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -12367,41 +12348,7 @@
       <c r="AF259" s="1"/>
       <c r="AG259" s="1"/>
     </row>
-    <row r="260" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A260" s="1"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="1"/>
-      <c r="M260" s="1"/>
-      <c r="N260" s="1"/>
-      <c r="O260" s="1"/>
-      <c r="P260" s="1"/>
-      <c r="Q260" s="1"/>
-      <c r="R260" s="1"/>
-      <c r="S260" s="1"/>
-      <c r="T260" s="1"/>
-      <c r="U260" s="1"/>
-      <c r="V260" s="1"/>
-      <c r="W260" s="1"/>
-      <c r="X260" s="1"/>
-      <c r="Y260" s="1"/>
-      <c r="Z260" s="1"/>
-      <c r="AA260" s="1"/>
-      <c r="AB260" s="1"/>
-      <c r="AC260" s="1"/>
-      <c r="AD260" s="1"/>
-      <c r="AE260" s="1"/>
-      <c r="AF260" s="1"/>
-      <c r="AG260" s="1"/>
-    </row>
+    <row r="260" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="261" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="262" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="263" spans="1:33" ht="15.75" customHeight="1"/>
@@ -13162,22 +13109,23 @@
     <row r="1018" ht="15.75" customHeight="1"/>
     <row r="1019" ht="15.75" customHeight="1"/>
     <row r="1020" ht="15.75" customHeight="1"/>
-    <row r="1021" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P52">
+  <autoFilter ref="A7:P51">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="A48:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -13185,16 +13133,14 @@
     <mergeCell ref="A9:A47"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="B22:B33"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13213,48 +13159,48 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="13.2">
+    <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="13.2">
+    <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="13.2">
+    <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="13.2">
+    <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="13.2">
+    <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\RentalEquip\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\ZENTAL\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$57</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="235">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -1543,6 +1543,34 @@
   </si>
   <si>
     <t>FAQ내용 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 - 화면구현 완료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹- 화면구현중</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 우편번호 API 문제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹- 화면구현중</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹- 화면구현중</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹-화면설계완료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹-화면설계완료</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2430,34 +2458,43 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2469,16 +2506,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2505,28 +2539,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2746,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2805,22 +2833,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2842,20 +2870,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="118"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="93"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2985,13 +3013,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -3000,29 +3028,29 @@
       <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="119" t="s">
+      <c r="N7" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="102" t="s">
+      <c r="O7" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="102" t="s">
+      <c r="P7" s="97" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -3044,12 +3072,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="104"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="24">
         <v>43854</v>
       </c>
@@ -3065,11 +3093,11 @@
       <c r="K8" s="24">
         <v>43861</v>
       </c>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -3089,10 +3117,10 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="118.35" customHeight="1">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="109" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="47" t="s">
@@ -3140,8 +3168,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="55.15" customHeight="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="47" t="s">
         <v>56</v>
       </c>
@@ -3186,8 +3214,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="75.400000000000006" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="109"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="20" t="s">
         <v>57</v>
       </c>
@@ -3232,8 +3260,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="58.7" customHeight="1">
-      <c r="A12" s="106"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="108"/>
+      <c r="B12" s="104" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -3280,8 +3308,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="60">
-      <c r="A13" s="106"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="20" t="s">
         <v>62</v>
       </c>
@@ -3320,8 +3348,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="24">
-      <c r="A14" s="106"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="50" t="s">
         <v>107</v>
       </c>
@@ -3361,8 +3389,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="69.75" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="50" t="s">
         <v>66</v>
       </c>
@@ -3402,8 +3430,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="69.75" customHeight="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="50" t="s">
         <v>68</v>
       </c>
@@ -3443,8 +3471,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="100.5" customHeight="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="20" t="s">
         <v>78</v>
       </c>
@@ -3490,8 +3518,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="65.45" customHeight="1">
-      <c r="A18" s="106"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="62" t="s">
         <v>124</v>
       </c>
@@ -3537,8 +3565,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="65.45" customHeight="1">
-      <c r="A19" s="106"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="63" t="s">
         <v>128</v>
       </c>
@@ -3578,8 +3606,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="65.45" customHeight="1">
-      <c r="A20" s="106"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="61" t="s">
         <v>126</v>
       </c>
@@ -3619,8 +3647,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="70.349999999999994" customHeight="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="90"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="21" t="s">
         <v>69</v>
       </c>
@@ -3666,8 +3694,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="70.349999999999994" customHeight="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="110" t="s">
+      <c r="A22" s="108"/>
+      <c r="B22" s="112" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -3685,7 +3713,9 @@
       <c r="I22" s="60"/>
       <c r="J22" s="26"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="28" t="s">
+        <v>228</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="5"/>
@@ -3709,8 +3739,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="66.400000000000006" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="20" t="s">
         <v>71</v>
       </c>
@@ -3726,8 +3756,12 @@
       <c r="I23" s="44"/>
       <c r="J23" s="26"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="8"/>
+      <c r="L23" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="N23" s="8">
         <v>2</v>
       </c>
@@ -3756,8 +3790,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="48.6" customHeight="1">
-      <c r="A24" s="106"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="20" t="s">
         <v>73</v>
       </c>
@@ -3773,7 +3807,9 @@
       <c r="I24" s="44"/>
       <c r="J24" s="26"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="28"/>
+      <c r="L24" s="28" t="s">
+        <v>229</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8">
         <v>1</v>
@@ -3803,8 +3839,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="65.849999999999994" customHeight="1">
-      <c r="A25" s="106"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="20" t="s">
         <v>74</v>
       </c>
@@ -3820,7 +3856,9 @@
       <c r="I25" s="44"/>
       <c r="J25" s="26"/>
       <c r="K25" s="35"/>
-      <c r="L25" s="28"/>
+      <c r="L25" s="28" t="s">
+        <v>231</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8">
         <v>2</v>
@@ -3850,8 +3888,8 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="65.849999999999994" customHeight="1">
-      <c r="A26" s="106"/>
-      <c r="B26" s="111"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="20" t="s">
         <v>75</v>
       </c>
@@ -3867,7 +3905,9 @@
       <c r="I26" s="59"/>
       <c r="J26" s="26"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="28"/>
+      <c r="L26" s="28" t="s">
+        <v>232</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="5"/>
@@ -3891,8 +3931,8 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="24">
-      <c r="A27" s="106"/>
-      <c r="B27" s="111"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="50" t="s">
         <v>110</v>
       </c>
@@ -3932,8 +3972,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="24">
-      <c r="A28" s="106"/>
-      <c r="B28" s="111"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="50" t="s">
         <v>108</v>
       </c>
@@ -3973,8 +4013,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="24">
-      <c r="A29" s="106"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="50" t="s">
         <v>109</v>
       </c>
@@ -4014,8 +4054,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="51.95" customHeight="1">
-      <c r="A30" s="106"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="50" t="s">
         <v>103</v>
       </c>
@@ -4057,8 +4097,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="51.95" customHeight="1">
-      <c r="A31" s="106"/>
-      <c r="B31" s="111"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="50" t="s">
         <v>212</v>
       </c>
@@ -4098,8 +4138,8 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="51.95" customHeight="1">
-      <c r="A32" s="106"/>
-      <c r="B32" s="111"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="50" t="s">
         <v>213</v>
       </c>
@@ -4115,7 +4155,9 @@
       <c r="I32" s="4"/>
       <c r="J32" s="26"/>
       <c r="K32" s="35"/>
-      <c r="L32" s="28"/>
+      <c r="L32" s="28" t="s">
+        <v>233</v>
+      </c>
       <c r="M32" s="39"/>
       <c r="N32" s="8"/>
       <c r="O32" s="5"/>
@@ -4139,8 +4181,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="271.14999999999998" customHeight="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="112"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="56" t="s">
         <v>214</v>
       </c>
@@ -4156,7 +4198,9 @@
       <c r="I33" s="4"/>
       <c r="J33" s="26"/>
       <c r="K33" s="35"/>
-      <c r="L33" s="28"/>
+      <c r="L33" s="28" t="s">
+        <v>234</v>
+      </c>
       <c r="M33" s="39"/>
       <c r="N33" s="8">
         <v>1</v>
@@ -4186,8 +4230,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="96">
-      <c r="A34" s="106"/>
-      <c r="B34" s="91" t="s">
+      <c r="A34" s="108"/>
+      <c r="B34" s="99" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -4229,8 +4273,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="89.25" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="21" t="s">
         <v>79</v>
       </c>
@@ -4272,8 +4316,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="107.25" customHeight="1">
-      <c r="A36" s="106"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="21" t="s">
         <v>83</v>
       </c>
@@ -4319,8 +4363,8 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="48">
-      <c r="A37" s="106"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="21" t="s">
         <v>84</v>
       </c>
@@ -4366,8 +4410,8 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A38" s="106"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="46" t="s">
         <v>85</v>
       </c>
@@ -4413,8 +4457,8 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="89.85" customHeight="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="46" t="s">
         <v>215</v>
       </c>
@@ -4454,8 +4498,8 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="73.7" customHeight="1">
-      <c r="A40" s="106"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="46" t="s">
         <v>101</v>
       </c>
@@ -4495,8 +4539,8 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="91" t="s">
+      <c r="A41" s="108"/>
+      <c r="B41" s="99" t="s">
         <v>150</v>
       </c>
       <c r="C41" s="68" t="s">
@@ -4540,8 +4584,8 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A42" s="106"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="68" t="s">
         <v>199</v>
       </c>
@@ -4583,8 +4627,8 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" ht="60">
-      <c r="A43" s="106"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="68" t="s">
         <v>152</v>
       </c>
@@ -4626,8 +4670,8 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="156">
-      <c r="A44" s="106"/>
-      <c r="B44" s="93"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="68" t="s">
         <v>218</v>
       </c>
@@ -4667,11 +4711,11 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="37.9" customHeight="1">
-      <c r="A45" s="106"/>
-      <c r="B45" s="94" t="s">
+      <c r="A45" s="108"/>
+      <c r="B45" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="95"/>
+      <c r="C45" s="116"/>
       <c r="D45" s="57" t="s">
         <v>119</v>
       </c>
@@ -4706,11 +4750,11 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="24">
-      <c r="A46" s="106"/>
-      <c r="B46" s="94" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="95"/>
+      <c r="C46" s="116"/>
       <c r="D46" s="57" t="s">
         <v>118</v>
       </c>
@@ -4745,11 +4789,11 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="30" customHeight="1" thickBot="1">
-      <c r="A47" s="106"/>
-      <c r="B47" s="96" t="s">
+      <c r="A47" s="108"/>
+      <c r="B47" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="97"/>
+      <c r="C47" s="120"/>
       <c r="D47" s="58" t="s">
         <v>196</v>
       </c>
@@ -4790,10 +4834,10 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="60" customHeight="1" thickTop="1">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="105" t="s">
         <v>114</v>
       </c>
       <c r="C48" s="21" t="s">
@@ -4839,8 +4883,8 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="90"/>
+      <c r="A49" s="117"/>
+      <c r="B49" s="106"/>
       <c r="C49" s="21" t="s">
         <v>102</v>
       </c>
@@ -4880,8 +4924,8 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A50" s="88"/>
-      <c r="B50" s="98" t="s">
+      <c r="A50" s="117"/>
+      <c r="B50" s="101" t="s">
         <v>87</v>
       </c>
       <c r="C50" s="21" t="s">
@@ -4927,8 +4971,8 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="88"/>
-      <c r="B51" s="99"/>
+      <c r="A51" s="117"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="21" t="s">
         <v>89</v>
       </c>
@@ -4970,8 +5014,8 @@
       <c r="AG51" s="1"/>
     </row>
     <row r="52" spans="1:33" ht="54" customHeight="1">
-      <c r="A52" s="88"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="117"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="21" t="s">
         <v>130</v>
       </c>
@@ -5011,8 +5055,8 @@
       <c r="AG52" s="1"/>
     </row>
     <row r="53" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A53" s="88"/>
-      <c r="B53" s="89" t="s">
+      <c r="A53" s="117"/>
+      <c r="B53" s="104" t="s">
         <v>132</v>
       </c>
       <c r="C53" s="21" t="s">
@@ -5054,8 +5098,8 @@
       <c r="AG53" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="101"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="21" t="s">
         <v>91</v>
       </c>
@@ -5095,8 +5139,8 @@
       <c r="AG54" s="1"/>
     </row>
     <row r="55" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A55" s="88"/>
-      <c r="B55" s="90"/>
+      <c r="A55" s="117"/>
+      <c r="B55" s="106"/>
       <c r="C55" s="21" t="s">
         <v>92</v>
       </c>
@@ -5136,8 +5180,8 @@
       <c r="AG55" s="1"/>
     </row>
     <row r="56" spans="1:33" ht="48">
-      <c r="A56" s="88"/>
-      <c r="B56" s="89" t="s">
+      <c r="A56" s="117"/>
+      <c r="B56" s="104" t="s">
         <v>95</v>
       </c>
       <c r="C56" s="48" t="s">
@@ -5179,8 +5223,8 @@
       <c r="AG56" s="1"/>
     </row>
     <row r="57" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A57" s="88"/>
-      <c r="B57" s="90"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="106"/>
       <c r="C57" s="49" t="s">
         <v>97</v>
       </c>
@@ -13110,19 +13154,14 @@
     <row r="1019" ht="15.75" customHeight="1"/>
     <row r="1020" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P51">
+  <autoFilter ref="A7:P57">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B34:B40"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B53:B55"/>
@@ -13139,8 +13178,13 @@
     <mergeCell ref="A48:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
